--- a/CardDatabases/Rising Spirits.xlsx
+++ b/CardDatabases/Rising Spirits.xlsx
@@ -14,10 +14,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1693679292" val="1064" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1693679292" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1693679292" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1693679292"/>
+      <pm:revision xmlns:pm="smNativeData" day="1699823592" val="1064" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1699823592" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1699823592" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1699823592"/>
     </ext>
   </extLst>
 </workbook>
@@ -41,7 +41,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693679292">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699823592">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -66,7 +66,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693679292">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699823592">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -90,7 +90,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693679292">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699823592">
                   <pm:latin face="Tahoma" sz="180" weight="bold" i="0"/>
                   <pm:cs face="Tahoma" sz="180" weight="bold"/>
                   <pm:ea face="Tahoma" sz="180" weight="bold"/>
@@ -110,7 +110,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693679292">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699823592">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -136,7 +136,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693679292">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699823592">
                   <pm:latin face="Tahoma" sz="180" weight="bold" i="0"/>
                   <pm:cs face="Tahoma" sz="180" weight="bold"/>
                   <pm:ea face="Tahoma" sz="180" weight="bold"/>
@@ -156,7 +156,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693679292">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699823592">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -182,7 +182,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693679292">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699823592">
                   <pm:latin face="Tahoma" sz="180" weight="bold" i="0"/>
                   <pm:cs face="Tahoma" sz="180" weight="bold"/>
                   <pm:ea face="Tahoma" sz="180" weight="bold"/>
@@ -202,7 +202,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693679292">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699823592">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -228,7 +228,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693679292">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699823592">
                   <pm:latin face="Tahoma" sz="180" weight="bold" i="0"/>
                   <pm:cs face="Tahoma" sz="180" weight="bold"/>
                   <pm:ea face="Tahoma" sz="180" weight="bold"/>
@@ -248,7 +248,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693679292">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699823592">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -274,7 +274,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693679292">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699823592">
                   <pm:latin face="Tahoma" sz="180" weight="bold" i="0"/>
                   <pm:cs face="Tahoma" sz="180" weight="bold"/>
                   <pm:ea face="Tahoma" sz="180" weight="bold"/>
@@ -294,7 +294,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693679292">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699823592">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -320,7 +320,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693679292">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699823592">
                   <pm:latin face="Tahoma" sz="180" weight="bold" i="0"/>
                   <pm:cs face="Tahoma" sz="180" weight="bold"/>
                   <pm:ea face="Tahoma" sz="180" weight="bold"/>
@@ -340,7 +340,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693679292">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699823592">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -366,7 +366,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693679292">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699823592">
                   <pm:latin face="Tahoma" sz="180" weight="bold" i="0"/>
                   <pm:cs face="Tahoma" sz="180" weight="bold"/>
                   <pm:ea face="Tahoma" sz="180" weight="bold"/>
@@ -386,7 +386,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693679292">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699823592">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -412,7 +412,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693679292">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699823592">
                   <pm:latin face="Tahoma" sz="180" weight="bold" i="0"/>
                   <pm:cs face="Tahoma" sz="180" weight="bold"/>
                   <pm:ea face="Tahoma" sz="180" weight="bold"/>
@@ -432,7 +432,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693679292">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699823592">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -458,7 +458,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693679292">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699823592">
                   <pm:latin face="Tahoma" sz="180" weight="bold" i="0"/>
                   <pm:cs face="Tahoma" sz="180" weight="bold"/>
                   <pm:ea face="Tahoma" sz="180" weight="bold"/>
@@ -478,7 +478,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693679292">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699823592">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -504,7 +504,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693679292">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699823592">
                   <pm:latin face="Tahoma" sz="180" weight="bold" i="0"/>
                   <pm:cs face="Tahoma" sz="180" weight="bold"/>
                   <pm:ea face="Tahoma" sz="180" weight="bold"/>
@@ -524,7 +524,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693679292">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699823592">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -550,7 +550,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693679292">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699823592">
                   <pm:latin face="Tahoma" sz="180" weight="bold" i="0"/>
                   <pm:cs face="Tahoma" sz="180" weight="bold"/>
                   <pm:ea face="Tahoma" sz="180" weight="bold"/>
@@ -570,7 +570,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693679292">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699823592">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -596,7 +596,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693679292">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699823592">
                   <pm:latin face="Tahoma" sz="180" weight="bold" i="0"/>
                   <pm:cs face="Tahoma" sz="180" weight="bold"/>
                   <pm:ea face="Tahoma" sz="180" weight="bold"/>
@@ -616,7 +616,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1693679292">
+                <pm:charSpec xmlns:pm="smNativeData" id="1699823592">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -899,7 +899,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1693679292">
+            <pm:charSpec xmlns:pm="smNativeData" id="1699823592">
               <pm:latin face="Arial" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -921,7 +921,7 @@
         <color rgb="FF1155CC"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1693679292" fgClr="1155CC" ulstyle="single">
+            <pm:charSpec xmlns:pm="smNativeData" id="1699823592" fgClr="1155CC" ulstyle="single">
               <pm:latin face="Arial" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -1896,7 +1896,7 @@
     <t>Human Soldier Doctor</t>
   </si>
   <si>
-    <t>&lt;center&gt;&lt;u&gt;Retribution&lt;/u&gt; (When you draw ~ as a result of taking damage, you may deploy it without paying its cost.)&lt;/center&gt;&lt;p&gt;When ~ enters the battlefield, choose a player or combatant; ~ deals 5 damage to it, then your commander gains 5 loyalty.&lt;/p&gt;</t>
+    <t>&lt;center&gt;&lt;u&gt;Retribution&lt;/u&gt; (When you draw ~ as a result of taking damage, you may deploy it without paying its cost.)&lt;/center&gt;&lt;p&gt;&lt;u&gt;Once&lt;/u&gt; (As you activate this effect, remove it from this card): Choose a player or combatant; ~ deals 5 damage to it, then your commander gains 5 loyalty.&lt;/p&gt;</t>
   </si>
   <si>
     <t>MU_YB_003</t>
@@ -1944,7 +1944,7 @@
     <t>Frontline First Aid</t>
   </si>
   <si>
-    <t>&lt;center&gt;([_] can be paid with [Y] or [B].)&lt;/center&gt;&lt;p&gt;Choose one; or two, if you pay an additional [_] as ~ resolves:&lt;ul&gt;Choose a combatant or commander; ~ deals 3 damage to it.&lt;br/&gt;Choose a combatant; &lt;u&gt;Heal it 3&lt;/u&gt; (If the specified asset has attack power or health reductions, reduce them by 3 [reducing permanent reductions first]. Otherwise remove 3 damage from it.)&lt;/ul&gt;&lt;/p&gt;</t>
+    <t>&lt;center&gt;([_] can be paid with [Y] or [B].)&lt;/center&gt;&lt;p&gt;Choose one; or two, if you pay an additional [_] as ~ resolves:&lt;ul&gt;Choose a combatant; &lt;u&gt;Heal it 3&lt;/u&gt; (If the specified asset has attack power or health reductions, reduce them by 3 [reducing permanent reductions first]. Otherwise remove 3 damage from it.)&lt;br/&gt;Choose a combatant or commander; ~ deals 2 damage to it.&lt;/ul&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t xml:space="preserve"> Yellow Blue</t>
@@ -2102,7 +2102,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1693679292" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1699823592" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -2117,7 +2117,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1693679292" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1699823592" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -2132,7 +2132,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1693679292" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1699823592" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2147,7 +2147,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1693679292" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1699823592" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -2163,7 +2163,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1693679292" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1699823592" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -2180,7 +2180,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1693679292" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1699823592" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -2197,7 +2197,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1693679292" fgClr="1155CC" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1699823592" fgClr="1155CC" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -2219,7 +2219,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1693679292" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1699823592" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2230,7 +2230,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1693679292" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1699823592" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2252,7 +2252,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1693679292"/>
+          <pm:border xmlns:pm="smNativeData" id="1699823592"/>
         </ext>
       </extLst>
     </border>
@@ -2271,7 +2271,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1693679292"/>
+          <pm:border xmlns:pm="smNativeData" id="1699823592"/>
         </ext>
       </extLst>
     </border>
@@ -2290,7 +2290,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1693679292"/>
+          <pm:border xmlns:pm="smNativeData" id="1699823592"/>
         </ext>
       </extLst>
     </border>
@@ -2338,10 +2338,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1693679292" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1699823592" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1693679292" count="1">
+      <pm:colors xmlns:pm="smNativeData" id="1699823592" count="1">
         <pm:color name="Color 24" rgb="1155CC"/>
       </pm:colors>
     </ext>
@@ -2610,9 +2610,9 @@
   </sheetPr>
   <dimension ref="A1:Z355"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X3" sqref="X3:X355"/>
+    <sheetView tabSelected="1" view="normal" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A210" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I224" sqref="I224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="11" defaultColWidth="12.630631" defaultRowHeight="15.75" customHeight="1"/>
@@ -14281,7 +14281,7 @@
         <v>RS_MU_YB_001</v>
       </c>
     </row>
-    <row r="223" spans="1:24" ht="15.75" customHeight="1">
+    <row r="223" spans="1:24" ht="91.50" customHeight="1">
       <c r="A223" s="2" t="s">
         <v>403</v>
       </c>
@@ -14289,7 +14289,7 @@
         <v>404</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>93</v>
+        <v>380</v>
       </c>
       <c r="D223" s="1" t="e">
         <v>#NAME?</v>
@@ -14622,7 +14622,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="229" spans="1:24" ht="15.75" customHeight="1">
+    <row r="229" spans="1:24" ht="117.75" customHeight="1">
       <c r="A229" s="2" t="s">
         <v>420</v>
       </c>
@@ -19998,7 +19998,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1693679292" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1699823592" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -20007,15 +20007,15 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1693679292" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1693679292" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1699823592" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1699823592" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <legacyDrawing r:id="rId4"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1693679292" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1699823592" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -20040,7 +20040,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1693679292" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1699823592" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -20049,14 +20049,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1693679292" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1693679292" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1699823592" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1699823592" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1693679292" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1699823592" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/CardDatabases/Rising Spirits.xlsx
+++ b/CardDatabases/Rising Spirits.xlsx
@@ -14,10 +14,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1699823592" val="1064" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1699823592" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1699823592" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1699823592"/>
+      <pm:revision xmlns:pm="smNativeData" day="1700710900" val="1064" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1700710900" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1700710900" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1700710900"/>
     </ext>
   </extLst>
 </workbook>
@@ -41,7 +41,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1699823592">
+                <pm:charSpec xmlns:pm="smNativeData" id="1700710900">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -66,7 +66,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1699823592">
+                <pm:charSpec xmlns:pm="smNativeData" id="1700710900">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -90,7 +90,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1699823592">
+                <pm:charSpec xmlns:pm="smNativeData" id="1700710900">
                   <pm:latin face="Tahoma" sz="180" weight="bold" i="0"/>
                   <pm:cs face="Tahoma" sz="180" weight="bold"/>
                   <pm:ea face="Tahoma" sz="180" weight="bold"/>
@@ -110,7 +110,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1699823592">
+                <pm:charSpec xmlns:pm="smNativeData" id="1700710900">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -136,7 +136,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1699823592">
+                <pm:charSpec xmlns:pm="smNativeData" id="1700710900">
                   <pm:latin face="Tahoma" sz="180" weight="bold" i="0"/>
                   <pm:cs face="Tahoma" sz="180" weight="bold"/>
                   <pm:ea face="Tahoma" sz="180" weight="bold"/>
@@ -156,7 +156,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1699823592">
+                <pm:charSpec xmlns:pm="smNativeData" id="1700710900">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -182,7 +182,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1699823592">
+                <pm:charSpec xmlns:pm="smNativeData" id="1700710900">
                   <pm:latin face="Tahoma" sz="180" weight="bold" i="0"/>
                   <pm:cs face="Tahoma" sz="180" weight="bold"/>
                   <pm:ea face="Tahoma" sz="180" weight="bold"/>
@@ -202,7 +202,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1699823592">
+                <pm:charSpec xmlns:pm="smNativeData" id="1700710900">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -228,7 +228,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1699823592">
+                <pm:charSpec xmlns:pm="smNativeData" id="1700710900">
                   <pm:latin face="Tahoma" sz="180" weight="bold" i="0"/>
                   <pm:cs face="Tahoma" sz="180" weight="bold"/>
                   <pm:ea face="Tahoma" sz="180" weight="bold"/>
@@ -248,7 +248,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1699823592">
+                <pm:charSpec xmlns:pm="smNativeData" id="1700710900">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -274,7 +274,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1699823592">
+                <pm:charSpec xmlns:pm="smNativeData" id="1700710900">
                   <pm:latin face="Tahoma" sz="180" weight="bold" i="0"/>
                   <pm:cs face="Tahoma" sz="180" weight="bold"/>
                   <pm:ea face="Tahoma" sz="180" weight="bold"/>
@@ -294,7 +294,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1699823592">
+                <pm:charSpec xmlns:pm="smNativeData" id="1700710900">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -320,7 +320,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1699823592">
+                <pm:charSpec xmlns:pm="smNativeData" id="1700710900">
                   <pm:latin face="Tahoma" sz="180" weight="bold" i="0"/>
                   <pm:cs face="Tahoma" sz="180" weight="bold"/>
                   <pm:ea face="Tahoma" sz="180" weight="bold"/>
@@ -340,7 +340,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1699823592">
+                <pm:charSpec xmlns:pm="smNativeData" id="1700710900">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -366,7 +366,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1699823592">
+                <pm:charSpec xmlns:pm="smNativeData" id="1700710900">
                   <pm:latin face="Tahoma" sz="180" weight="bold" i="0"/>
                   <pm:cs face="Tahoma" sz="180" weight="bold"/>
                   <pm:ea face="Tahoma" sz="180" weight="bold"/>
@@ -386,7 +386,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1699823592">
+                <pm:charSpec xmlns:pm="smNativeData" id="1700710900">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -412,7 +412,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1699823592">
+                <pm:charSpec xmlns:pm="smNativeData" id="1700710900">
                   <pm:latin face="Tahoma" sz="180" weight="bold" i="0"/>
                   <pm:cs face="Tahoma" sz="180" weight="bold"/>
                   <pm:ea face="Tahoma" sz="180" weight="bold"/>
@@ -432,7 +432,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1699823592">
+                <pm:charSpec xmlns:pm="smNativeData" id="1700710900">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -458,7 +458,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1699823592">
+                <pm:charSpec xmlns:pm="smNativeData" id="1700710900">
                   <pm:latin face="Tahoma" sz="180" weight="bold" i="0"/>
                   <pm:cs face="Tahoma" sz="180" weight="bold"/>
                   <pm:ea face="Tahoma" sz="180" weight="bold"/>
@@ -478,7 +478,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1699823592">
+                <pm:charSpec xmlns:pm="smNativeData" id="1700710900">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -504,7 +504,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1699823592">
+                <pm:charSpec xmlns:pm="smNativeData" id="1700710900">
                   <pm:latin face="Tahoma" sz="180" weight="bold" i="0"/>
                   <pm:cs face="Tahoma" sz="180" weight="bold"/>
                   <pm:ea face="Tahoma" sz="180" weight="bold"/>
@@ -524,7 +524,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1699823592">
+                <pm:charSpec xmlns:pm="smNativeData" id="1700710900">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -550,7 +550,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1699823592">
+                <pm:charSpec xmlns:pm="smNativeData" id="1700710900">
                   <pm:latin face="Tahoma" sz="180" weight="bold" i="0"/>
                   <pm:cs face="Tahoma" sz="180" weight="bold"/>
                   <pm:ea face="Tahoma" sz="180" weight="bold"/>
@@ -570,7 +570,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1699823592">
+                <pm:charSpec xmlns:pm="smNativeData" id="1700710900">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -596,7 +596,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1699823592">
+                <pm:charSpec xmlns:pm="smNativeData" id="1700710900">
                   <pm:latin face="Tahoma" sz="180" weight="bold" i="0"/>
                   <pm:cs face="Tahoma" sz="180" weight="bold"/>
                   <pm:ea face="Tahoma" sz="180" weight="bold"/>
@@ -616,7 +616,7 @@
             <i val="0"/>
             <extLst>
               <ext uri="smNativeData">
-                <pm:charSpec xmlns:pm="smNativeData" id="1699823592">
+                <pm:charSpec xmlns:pm="smNativeData" id="1700710900">
                   <pm:latin face="Tahoma" sz="180" weight="normal" i="0"/>
                   <pm:cs face="Tahoma" sz="180"/>
                   <pm:ea face="Tahoma" sz="180"/>
@@ -630,12 +630,23 @@
         </r>
       </text>
     </comment>
+    <comment ref="I318" authorId="0">
+      <text>
+        <r>
+          <t>Should we word this in terms of challenge?</t>
+        </r>
+        <r>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="466">
   <si>
     <t>Slot</t>
   </si>
@@ -724,7 +735,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>&lt;p&gt;&lt;center&gt;&lt;u&gt;Transient&lt;/u&gt; (If ~ would enter your discard, instead remove it from the game.)&lt;/center&gt;&lt;/p&gt;&lt;p&gt;When you draw ~, reveal it, then choose a combatant you control to attach it to.&lt;/p&gt;&lt;p&gt;The attached asset has -1/-1.&lt;/p&gt;</t>
+    <t>&lt;p&gt;&lt;center&gt;&lt;u&gt;Transient&lt;/u&gt; (If ~ would enter your discard pile, instead remove it from the game.)&lt;/center&gt;&lt;/p&gt;&lt;p&gt;When you draw ~, reveal it, then choose a combatant you control to attach it to.&lt;/p&gt;&lt;p&gt;The attached asset has -1/-1.&lt;/p&gt;</t>
   </si>
   <si>
     <t>M_CMDR_RO_001</t>
@@ -772,7 +783,7 @@
     <t>Augmented Mobster</t>
   </si>
   <si>
-    <t>&lt;center&gt;Whenever a Mobster you control deals damage to a player, create a &lt;i&gt;'Backstreet Thug'&lt;/i&gt; on the battlefield.&lt;/center&gt;</t>
+    <t>&lt;center&gt;Whenever a Mobster you control deals damage to a player, create a &lt;i&gt;'Backstreet Henchman'&lt;/i&gt; on the battlefield.&lt;/center&gt;</t>
   </si>
   <si>
     <t>OO_001b</t>
@@ -790,10 +801,10 @@
     <t>&lt;u&gt;Transient&lt;/u&gt; Human Mobster</t>
   </si>
   <si>
-    <t>&lt;center&gt;&lt;u&gt;Transient&lt;/u&gt; (It ceases to exist if it enters any player's discard.)&lt;/center&gt;&lt;p&gt;Whenever ~ is intercepted, shuffle a &lt;i&gt;'Broken Bone'&lt;/i&gt; into the interceptor's deck.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>prepare, exchange, append, go second</t>
+    <t>&lt;center&gt;&lt;u&gt;Transient&lt;/u&gt; (If ~ would enter your discard pile, instead remove it from the game.)&lt;/center&gt;&lt;p&gt;Whenever ~ is intercepted, shuffle a &lt;i&gt;'Broken Bone'&lt;/i&gt; into the interceptor's deck.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>prepare, exchange, append, go second, discovery</t>
   </si>
   <si>
     <t>MU_RO_001</t>
@@ -859,7 +870,7 @@
     <t>Pinch Pennies</t>
   </si>
   <si>
-    <t>Choose an opponent, then choose one:&lt;ul&gt;That opponent discards the card in their hand with lowest generalized cost.&lt;br/&gt;That opponent discards the card in their hand with highest generalized cost.&lt;/ul&gt;</t>
+    <t>Choose an opponent, then that opponent has a 75% chance to discard the card in their hand with lowest generalized cost, otherwise that opponent discards the card in their hand with highest generalized cost.</t>
   </si>
   <si>
     <t>U</t>
@@ -883,54 +894,10 @@
     <t>Augmented Female Gladiator</t>
   </si>
   <si>
-    <t>&lt;center&gt;(Becomes &lt;i&gt;'Blossom's Burn the Ring'&lt;/i&gt; if you already control ~@.)&lt;/center&gt;&lt;p&gt;Each time ~@ has seen you deploy 3 effects choosing combatants you control, at end of turn, you may return 1 of those effects from your discard to your hand.&lt;/p&gt;&lt;p&gt;&lt;b&gt;&lt;i&gt;As Asset&lt;/i&gt;&lt;/b&gt; -- Whenever a combatant you control dies, create a &lt;u&gt;fleeting&lt;/u&gt; (Discard it at end of turn.), &lt;u&gt;transient&lt;/u&gt; (It ceases to exist if it enters any player's discard.) &lt;i&gt;'Torment the Opponent'&lt;/i&gt; in your hand.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>"'In this business you fight or you die.' My handler gave me that advice when I was first captured, but I was the 1 to teach him what it meant."</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1699823592">
-              <pm:latin face="Arial" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">Angel Pits Faction/Feather Moodboard: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="single"/>
-        <color rgb="FF1155CC"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1699823592" fgClr="1155CC" ulstyle="single">
-              <pm:latin face="Arial" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t>https://www.pinterest.com/pin/628815166703064826/?nic_v2=1a2qvhYIH</t>
-    </r>
+    <t>&lt;center&gt;(Becomes &lt;i&gt;'Blossom's Burn the Ring'&lt;/i&gt; if you already control ~@.)&lt;/center&gt;&lt;p&gt;Each time ~@ has seen you deploy 3 effects choosing combatants you control, at end of turn, you may return 1 of those effects from your discard pile to your hand.&lt;/p&gt;&lt;p&gt;&lt;b&gt;&lt;i&gt;As Asset&lt;/i&gt;&lt;/b&gt; -- Whenever a combatant you control dies, create a &lt;u&gt;fleeting&lt;/u&gt; (Discard it at end of turn.), &lt;u&gt;transient&lt;/u&gt; (If ~ would enter your discard pile, instead remove it from the game.) &lt;i&gt;'Torment the Opponent'&lt;/i&gt; in your hand.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>"'In this business you fight or you die.' My handler gave me that advice when I was first captured, but I was the one to teach him what it meant."</t>
   </si>
   <si>
     <t>M_CMDR_RY_001b</t>
@@ -996,16 +963,16 @@
     <t>Hana Shintsuu</t>
   </si>
   <si>
-    <t>3__</t>
+    <t>3___</t>
   </si>
   <si>
     <t>Multicolor</t>
   </si>
   <si>
-    <t>&lt;center&gt;(Becomes &lt;i&gt;'Blossom's Rise'&lt;/i&gt; if you already control ~. [_] can be paid with either [R] or [Y].)&lt;/center&gt;&lt;p&gt;~ enters the battlefield with your choice of &lt;u&gt;brutal&lt;/u&gt; (~ deals combat damage before assets without brutal.) or &lt;u&gt;armed -- 'Angel's Katana'&lt;/u&gt; (~ enters the battlefield with a transient &lt;i&gt;'Angel's Katana'&lt;/i&gt; attached to it.)&lt;/p&gt;&lt;p&gt;Whenever a Gladiator attacks you may deploy a Style card from your discard choosing it.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>"none of the others seem to have noticed that we've all been spayed. How can they be so dense?"</t>
+    <t>&lt;center&gt;(Becomes &lt;i&gt;'Blossom's Rise'&lt;/i&gt; if you already control ~. [_] can be paid with either [R] or [Y].)&lt;/center&gt;&lt;p&gt;~ enters the battlefield with your choice of &lt;u&gt;brutal&lt;/u&gt; (~ deals combat damage before assets without brutal.) or &lt;u&gt;armed -- 'Angel's Katana'&lt;/u&gt; (~ enters the battlefield with a transient &lt;i&gt;'Angel's Katana'&lt;/i&gt; attached to it.)&lt;/p&gt;&lt;p&gt;Whenever a Gladiator attacks you may deploy a Style card from your discard pile choosing it.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>"None of the others seem to have noticed that we've all been spayed. How can they be so dense?"</t>
   </si>
   <si>
     <t>Red Yellow</t>
@@ -1053,7 +1020,7 @@
     <t>AI Announcer</t>
   </si>
   <si>
-    <t>&lt;p&gt;Each gladiator enters the battlefield with &lt;u&gt;Armed -- 'Angel's Katana'&lt;/u&gt; (They enter the battlefield with a transient &lt;i&gt;'Angel's Katana'&lt;/i&gt; attached to it.)&lt;/p&gt;&lt;p&gt;Each time ~ has seen 3 combatants die, you may search your deck for a style card, put it into your discard, then shuffle your deck.&lt;/p&gt;</t>
+    <t>&lt;p&gt;Each gladiator enters the battlefield with &lt;u&gt;Armed -- 'Angel's Katana'&lt;/u&gt; (They enter the battlefield with a transient &lt;i&gt;'Angel's Katana'&lt;/i&gt; attached to them.)&lt;/p&gt;&lt;p&gt;Each time ~ has seen 3 combatants die, you may search your deck for a style card, put it into your discard pile, then shuffle your deck.&lt;/p&gt;</t>
   </si>
   <si>
     <t>"I hope the boys downstairs know how to give a girl a new stomach folks! Because Kazue's just went flying out of the ring."</t>
@@ -1065,6 +1032,9 @@
     <t>Pindown the Opponent</t>
   </si>
   <si>
+    <t>2RY</t>
+  </si>
+  <si>
     <t>Style</t>
   </si>
   <si>
@@ -1242,7 +1212,7 @@
     <t>Equipment Link</t>
   </si>
   <si>
-    <t>When ~ enters the battlefield, choose a combatant you own to attach it to.&lt;p&gt;At the beginning of your turn, if you don't control the attached asset, gain control of it.&lt;/p&gt;</t>
+    <t>&lt;p&gt;When ~ enters the battlefield, choose a combatant you own to attach it to.&lt;/p&gt;&lt;p&gt;At the beginning of your turn, if you don't control the attached asset, gain control of it.&lt;/p&gt;</t>
   </si>
   <si>
     <t>"I may have a throne and the power that comes from fear... but I am just as much a prisoner as any of the others" &lt;p&gt;-- Hana&lt;/p&gt;</t>
@@ -1254,9 +1224,6 @@
     <t>Unhinged Pyromaniac</t>
   </si>
   <si>
-    <t>2RY</t>
-  </si>
-  <si>
     <t>&lt;center&gt;Effects you control have &lt;u&gt;permanence&lt;/u&gt; (Damage they deal permanently reduces the health of assets which they damage.)&lt;/center&gt;</t>
   </si>
   <si>
@@ -1296,6 +1263,9 @@
     <t>Clearview Dynamics/Robot Reanimator</t>
   </si>
   <si>
+    <t>prepare, exchange, append, go second, retribution, discovery, decision</t>
+  </si>
+  <si>
     <t>M_CMDR_RB_001</t>
   </si>
   <si>
@@ -1935,7 +1905,7 @@
     <t>&lt;u&gt;Transient&lt;/u&gt; Human Guard</t>
   </si>
   <si>
-    <t>&lt;center&gt;&lt;u&gt;Transient&lt;/u&gt; (If ~ would enter your discard, instead remove it from the game.)&lt;/center&gt;</t>
+    <t>&lt;center&gt;&lt;u&gt;Transient&lt;/u&gt; (If ~ would enter your discard pile, instead remove it from the game.)&lt;/center&gt;</t>
   </si>
   <si>
     <t>MC_YB_001</t>
@@ -2023,9 +1993,6 @@
   </si>
   <si>
     <t>&lt;center&gt;(This effect can only be deployed if you control a renowned asset. )&lt;/center&gt;&lt;p&gt;Choose a commander to have its loyalty swapped with your commander's loyalty.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>prepare, exchange, append, go second, drawn from damage</t>
   </si>
   <si>
     <t>BC_001</t>
@@ -2102,7 +2069,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1699823592" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1700710900" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -2117,7 +2084,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1699823592" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1700710900" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -2132,7 +2099,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1699823592" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1700710900" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -2147,7 +2114,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1699823592" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1700710900" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -2163,7 +2130,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1699823592" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1700710900" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -2180,7 +2147,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1699823592" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1700710900" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -2197,7 +2164,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1699823592" fgClr="1155CC" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1700710900" fgClr="1155CC" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -2219,7 +2186,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1699823592" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1700710900" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2230,7 +2197,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1699823592" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1700710900" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2252,7 +2219,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1699823592"/>
+          <pm:border xmlns:pm="smNativeData" id="1700710900"/>
         </ext>
       </extLst>
     </border>
@@ -2271,7 +2238,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1699823592"/>
+          <pm:border xmlns:pm="smNativeData" id="1700710900"/>
         </ext>
       </extLst>
     </border>
@@ -2290,7 +2257,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1699823592"/>
+          <pm:border xmlns:pm="smNativeData" id="1700710900"/>
         </ext>
       </extLst>
     </border>
@@ -2338,10 +2305,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1699823592" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1700710900" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1699823592" count="1">
+      <pm:colors xmlns:pm="smNativeData" id="1700710900" count="1">
         <pm:color name="Color 24" rgb="1155CC"/>
       </pm:colors>
     </ext>
@@ -2611,11 +2578,11 @@
   <dimension ref="A1:Z355"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A210" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I224" sqref="I224"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A49" sqref="A49:XFD49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="11" defaultColWidth="12.630631" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="11" defaultColWidth="12.630631" defaultRowHeight="14.40" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12.630631" style="2"/>
     <col min="2" max="2" width="27.252252" customWidth="1" style="2"/>
@@ -2633,7 +2600,7 @@
     <col min="23" max="16384" width="12.630631" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" customHeight="1">
+    <row r="1" spans="1:24" ht="14.40" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2704,7 +2671,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="75.75" customHeight="1">
+    <row r="2" spans="1:24" ht="14.40" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -2757,7 +2724,7 @@
         <v>RS_0_001</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15.75" customHeight="1">
+    <row r="3" spans="1:24" ht="14.60">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
@@ -2817,7 +2784,7 @@
         <v>RS_M_CMDR_RO_001</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="138.75" customHeight="1">
+    <row r="4" spans="1:24" ht="14.60">
       <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
@@ -2877,7 +2844,7 @@
         <v>RS_MR_RO_001</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="38.25" customHeight="1">
+    <row r="5" spans="1:24" ht="14.60">
       <c r="A5" s="2" t="s">
         <v>40</v>
       </c>
@@ -2940,7 +2907,7 @@
         <v>RS_OO_001</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="51" customHeight="1">
+    <row r="6" spans="1:24" ht="14.60">
       <c r="A6" s="2" t="s">
         <v>46</v>
       </c>
@@ -3002,7 +2969,7 @@
         <v>RS_OO_001b</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15.75" customHeight="1">
+    <row r="7" spans="1:24" ht="14.60">
       <c r="A7" s="2" t="s">
         <v>48</v>
       </c>
@@ -3052,7 +3019,7 @@
         <v>RS_R</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15.75" customHeight="1">
+    <row r="8" spans="1:24" ht="14.40" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>48</v>
       </c>
@@ -3100,7 +3067,7 @@
         <v>RS_R</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="76.50" customHeight="1">
+    <row r="9" spans="1:24" ht="14.60">
       <c r="A9" s="2" t="s">
         <v>53</v>
       </c>
@@ -3130,10 +3097,10 @@
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q9" s="2" t="n">
         <v>45</v>
@@ -3162,7 +3129,7 @@
         <v>RS_MU_RO_001</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="114.75" customHeight="1">
+    <row r="10" spans="1:24" ht="14.60">
       <c r="A10" s="2" t="s">
         <v>60</v>
       </c>
@@ -3215,7 +3182,7 @@
         <v>RS_MU_RO_001b</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="51" customHeight="1">
+    <row r="11" spans="1:24" ht="14.60">
       <c r="A11" s="2" t="s">
         <v>67</v>
       </c>
@@ -3274,7 +3241,7 @@
         <v>RS_RU_004</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="51" customHeight="1">
+    <row r="12" spans="1:24" ht="14.60">
       <c r="A12" s="2" t="s">
         <v>72</v>
       </c>
@@ -3330,7 +3297,7 @@
         <v>RS_RU_005</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="15.75" customHeight="1">
+    <row r="13" spans="1:24" ht="14.40" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>75</v>
       </c>
@@ -3378,7 +3345,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1">
+    <row r="14" spans="1:24" ht="14.40" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>75</v>
       </c>
@@ -3426,7 +3393,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="15.75" customHeight="1">
+    <row r="15" spans="1:24" ht="14.40" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>75</v>
       </c>
@@ -3474,7 +3441,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="15.75" customHeight="1">
+    <row r="16" spans="1:24" ht="14.40" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>76</v>
       </c>
@@ -3521,7 +3488,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="15.75" customHeight="1">
+    <row r="17" spans="1:24" ht="14.40" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>76</v>
       </c>
@@ -3569,7 +3536,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="15.75" customHeight="1">
+    <row r="18" spans="1:24" ht="14.40" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>76</v>
       </c>
@@ -3617,7 +3584,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="15.75" customHeight="1">
+    <row r="19" spans="1:24" ht="14.40" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>76</v>
       </c>
@@ -3665,7 +3632,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="15.75" customHeight="1">
+    <row r="20" spans="1:24" ht="14.40" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>76</v>
       </c>
@@ -3713,7 +3680,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="15.75" customHeight="1">
+    <row r="21" spans="1:24" ht="14.40" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>76</v>
       </c>
@@ -3761,7 +3728,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="15.75" customHeight="1">
+    <row r="22" spans="1:24" ht="14.40" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>76</v>
       </c>
@@ -3809,7 +3776,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="15.75" customHeight="1">
+    <row r="23" spans="1:24" ht="14.40" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>76</v>
       </c>
@@ -3857,7 +3824,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:24" ht="14.40" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>76</v>
       </c>
@@ -3905,7 +3872,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="114.75" customHeight="1">
+    <row r="25" spans="1:24" ht="14.60">
       <c r="A25" s="2" t="s">
         <v>77</v>
       </c>
@@ -3942,9 +3909,7 @@
       <c r="L25" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="O25" s="7" t="s">
-        <v>84</v>
-      </c>
+      <c r="O25" s="7"/>
       <c r="Q25" s="6" t="n">
         <v>50</v>
       </c>
@@ -3972,15 +3937,15 @@
         <v>RS_M_CMDR_RY_001</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="76.50" customHeight="1">
+    <row r="26" spans="1:24" ht="14.60">
       <c r="A26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="D26" s="1" t="e">
         <v>#NAME?</v>
@@ -3989,16 +3954,16 @@
         <v>63</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I26" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J26" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>90</v>
       </c>
       <c r="Q26" s="2" t="n">
         <v>50</v>
@@ -4027,15 +3992,15 @@
         <v>RS_M_CMDR_RY_001b</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="76.50" customHeight="1">
+    <row r="27" spans="1:24" ht="14.60">
       <c r="A27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="D27" s="1" t="e">
         <v>#NAME?</v>
@@ -4053,10 +4018,10 @@
         <v>37</v>
       </c>
       <c r="I27" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="J27" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>95</v>
       </c>
       <c r="K27" s="2" t="n">
         <v>5</v>
@@ -4091,15 +4056,15 @@
         <v>RS_RY_001</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="89.25" customHeight="1">
+    <row r="28" spans="1:24" ht="14.60">
       <c r="A28" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="C28" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="1" t="e">
         <v>#NAME?</v>
@@ -4108,13 +4073,13 @@
         <v>26</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>37</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="2" t="s">
@@ -4150,15 +4115,15 @@
         <v>RS_MR_RY_001</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="89.25" customHeight="1">
+    <row r="29" spans="1:24" ht="14.60">
       <c r="A29" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="D29" s="1" t="e">
         <v>#NAME?</v>
@@ -4170,7 +4135,7 @@
         <v>37</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="2" t="s">
@@ -4206,18 +4171,18 @@
         <v>RS_MR_RY_002</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="102" customHeight="1">
+    <row r="30" spans="1:24" ht="14.60">
       <c r="A30" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>49</v>
@@ -4232,16 +4197,16 @@
         <v>37</v>
       </c>
       <c r="I30" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="J30" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="J30" s="5" t="s">
-        <v>109</v>
-      </c>
       <c r="K30" s="2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q30" s="2" t="n">
         <v>60</v>
@@ -4253,7 +4218,7 @@
         <v>#NAME?</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U30" s="2" t="e">
         <v>#NAME?</v>
@@ -4270,33 +4235,33 @@
         <v>RS_MR_RY_003</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="102" customHeight="1">
+    <row r="31" spans="1:24" ht="14.60">
       <c r="A31" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="D31" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>63</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I31" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="J31" s="5" t="s">
         <v>115</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>116</v>
       </c>
       <c r="O31" s="5"/>
       <c r="Q31" s="2" t="n">
@@ -4326,15 +4291,15 @@
         <v>RS_MR_RY_003b</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="63.75" customHeight="1">
+    <row r="32" spans="1:24" ht="14.60">
       <c r="A32" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="C32" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D32" s="1" t="e">
         <v>#NAME?</v>
@@ -4343,13 +4308,13 @@
         <v>35</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>58</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J32" s="5"/>
       <c r="K32" s="2" t="s">
@@ -4386,15 +4351,15 @@
         <v>RS_MU_RY_001</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="89.25" customHeight="1">
+    <row r="33" spans="1:24" ht="14.60">
       <c r="A33" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="D33" s="1" t="e">
         <v>#NAME?</v>
@@ -4403,16 +4368,16 @@
         <v>56</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>70</v>
       </c>
       <c r="I33" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="J33" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>126</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>39</v>
@@ -4447,15 +4412,15 @@
         <v>RS_MU_RY_004</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="102" customHeight="1">
+    <row r="34" spans="1:24" ht="14.60">
       <c r="A34" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="D34" s="1" t="e">
         <v>#NAME?</v>
@@ -4509,7 +4474,7 @@
         <v>RS_MU_RY_002</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="102" customHeight="1">
+    <row r="35" spans="1:24" ht="14.60">
       <c r="A35" s="2" t="s">
         <v>132</v>
       </c>
@@ -4568,7 +4533,7 @@
         <v>RS_MU_RY_003</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="38.25" customHeight="1">
+    <row r="36" spans="1:24" ht="14.60">
       <c r="A36" s="2" t="s">
         <v>136</v>
       </c>
@@ -4629,7 +4594,7 @@
         <v>RS_RU_001</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="89.25" customHeight="1">
+    <row r="37" spans="1:24" ht="14.60">
       <c r="A37" s="2" t="s">
         <v>141</v>
       </c>
@@ -4646,7 +4611,7 @@
         <v>35</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>144</v>
@@ -4688,7 +4653,7 @@
         <v>RS_YU_001</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="25.50" customHeight="1">
+    <row r="38" spans="1:24" ht="14.60">
       <c r="A38" s="2" t="s">
         <v>146</v>
       </c>
@@ -4699,7 +4664,7 @@
         <v>148</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>49</v>
@@ -4734,7 +4699,7 @@
         <v>#NAME?</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U38" s="2" t="e">
         <v>#NAME?</v>
@@ -4751,7 +4716,7 @@
         <v>RS_MC_RY_001</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="76.50" customHeight="1">
+    <row r="39" spans="1:24" ht="14.60">
       <c r="A39" s="2" t="s">
         <v>151</v>
       </c>
@@ -4762,13 +4727,13 @@
         <v>62</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>153</v>
@@ -4793,7 +4758,7 @@
         <v>#NAME?</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U39" s="2" t="e">
         <v>#NAME?</v>
@@ -4810,7 +4775,7 @@
         <v>RS_MC_RY_002</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="63.75" customHeight="1">
+    <row r="40" spans="1:24" ht="14.60">
       <c r="A40" s="2" t="s">
         <v>155</v>
       </c>
@@ -4869,7 +4834,7 @@
         <v>RS_CC_001</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="102" customHeight="1">
+    <row r="41" spans="1:24" ht="14.60">
       <c r="A41" s="2" t="s">
         <v>159</v>
       </c>
@@ -4930,7 +4895,7 @@
         <v>RS_YR_001</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="63.75" customHeight="1">
+    <row r="42" spans="1:24" ht="14.60">
       <c r="A42" s="2" t="s">
         <v>165</v>
       </c>
@@ -4994,7 +4959,7 @@
         <v>RS_RC_001</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="76.50" customHeight="1">
+    <row r="43" spans="1:24" ht="14.60">
       <c r="A43" s="2" t="s">
         <v>170</v>
       </c>
@@ -5058,7 +5023,7 @@
         <v>RS_RC_002</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="51" customHeight="1">
+    <row r="44" spans="1:24" ht="14.60">
       <c r="A44" s="2" t="s">
         <v>175</v>
       </c>
@@ -5120,7 +5085,7 @@
         <v>RS_RC_003</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="38.25" customHeight="1">
+    <row r="45" spans="1:24" ht="14.60">
       <c r="A45" s="2" t="s">
         <v>180</v>
       </c>
@@ -5131,7 +5096,7 @@
         <v>62</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>43</v>
@@ -5165,7 +5130,7 @@
         <v>#NAME?</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U45" s="2" t="e">
         <v>#NAME?</v>
@@ -5182,7 +5147,7 @@
         <v>RS_MC_RY_003</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="89.25" customHeight="1">
+    <row r="46" spans="1:24" ht="14.60">
       <c r="A46" s="2" t="s">
         <v>185</v>
       </c>
@@ -5243,7 +5208,7 @@
         <v>RS_CC_002</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="38.25" customHeight="1">
+    <row r="47" spans="1:24" ht="14.60">
       <c r="A47" s="2" t="s">
         <v>190</v>
       </c>
@@ -5251,7 +5216,7 @@
         <v>191</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>192</v>
+        <v>122</v>
       </c>
       <c r="D47" s="1" t="e">
         <v>#NAME?</v>
@@ -5269,10 +5234,10 @@
         <v>37</v>
       </c>
       <c r="I47" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="J47" s="5" t="s">
         <v>193</v>
-      </c>
-      <c r="J47" s="5" t="s">
-        <v>194</v>
       </c>
       <c r="K47" s="2" t="n">
         <v>7</v>
@@ -5307,30 +5272,30 @@
         <v>RS_MR_RY_004</v>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="89.25" customHeight="1">
+    <row r="48" spans="1:24" ht="14.60">
       <c r="A48" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>58</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q48" s="2" t="n">
         <v>60</v>
@@ -5342,7 +5307,7 @@
         <v>#NAME?</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U48" s="2" t="e">
         <v>#NAME?</v>
@@ -5359,27 +5324,27 @@
         <v>RS_YU_005</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="114.75" customHeight="1">
+    <row r="49" spans="1:24" ht="14.60">
       <c r="A49" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H49" s="10" t="n">
         <v>5</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Q49" s="2" t="n">
         <v>60</v>
@@ -5391,7 +5356,7 @@
         <v>#NAME?</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U49" s="2" t="e">
         <v>#NAME?</v>
@@ -5408,9 +5373,9 @@
         <v>RS_RYPG</v>
       </c>
     </row>
-    <row r="50" spans="1:24" ht="38.25" customHeight="1">
+    <row r="50" spans="1:24" ht="14.40" customHeight="1">
       <c r="A50" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B50" s="2" t="str">
         <f>A50</f>
@@ -5421,16 +5386,16 @@
         <v>#NAME?</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K50" s="5" t="e">
         <v>#VALUE!</v>
@@ -5440,7 +5405,7 @@
       </c>
       <c r="M50" s="5"/>
       <c r="O50" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q50" s="2" t="n">
         <v>60</v>
@@ -5469,7 +5434,7 @@
         <v>RS_M_CMDR_RG_001</v>
       </c>
     </row>
-    <row r="51" spans="1:24" ht="15.75" customHeight="1">
+    <row r="51" spans="1:24" ht="14.60">
       <c r="A51" s="2" t="s">
         <v>48</v>
       </c>
@@ -5482,7 +5447,9 @@
         <v>#NAME?</v>
       </c>
       <c r="H51" s="4"/>
-      <c r="I51" s="5"/>
+      <c r="I51" s="5" t="s">
+        <v>205</v>
+      </c>
       <c r="J51" s="5"/>
       <c r="K51" s="2" t="s">
         <v>39</v>
@@ -5517,7 +5484,7 @@
         <v>RS_R</v>
       </c>
     </row>
-    <row r="52" spans="1:24" ht="15.75" customHeight="1">
+    <row r="52" spans="1:24" ht="14.40" customHeight="1">
       <c r="A52" s="2" t="s">
         <v>48</v>
       </c>
@@ -5565,7 +5532,7 @@
         <v>RS_R</v>
       </c>
     </row>
-    <row r="53" spans="1:24" ht="15.75" customHeight="1">
+    <row r="53" spans="1:24" ht="14.40" customHeight="1">
       <c r="A53" s="2" t="s">
         <v>48</v>
       </c>
@@ -5614,7 +5581,7 @@
         <v>RS_R</v>
       </c>
     </row>
-    <row r="54" spans="1:24" ht="15.75" customHeight="1">
+    <row r="54" spans="1:24" ht="14.40" customHeight="1">
       <c r="A54" s="2" t="s">
         <v>48</v>
       </c>
@@ -5663,7 +5630,7 @@
         <v>RS_R</v>
       </c>
     </row>
-    <row r="55" spans="1:24" ht="15.75" customHeight="1">
+    <row r="55" spans="1:24" ht="14.40" customHeight="1">
       <c r="A55" s="2" t="s">
         <v>75</v>
       </c>
@@ -5712,7 +5679,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="56" spans="1:24" ht="15.75" customHeight="1">
+    <row r="56" spans="1:24" ht="14.40" customHeight="1">
       <c r="A56" s="2" t="s">
         <v>75</v>
       </c>
@@ -5761,7 +5728,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="57" spans="1:24" ht="15.75" customHeight="1">
+    <row r="57" spans="1:24" ht="14.40" customHeight="1">
       <c r="A57" s="2" t="s">
         <v>75</v>
       </c>
@@ -5810,7 +5777,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="58" spans="1:24" ht="15.75" customHeight="1">
+    <row r="58" spans="1:24" ht="14.40" customHeight="1">
       <c r="A58" s="2" t="s">
         <v>75</v>
       </c>
@@ -5859,7 +5826,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="59" spans="1:24" ht="15.75" customHeight="1">
+    <row r="59" spans="1:24" ht="14.40" customHeight="1">
       <c r="A59" s="2" t="s">
         <v>75</v>
       </c>
@@ -5908,7 +5875,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="60" spans="1:24" ht="15.75" customHeight="1">
+    <row r="60" spans="1:24" ht="14.40" customHeight="1">
       <c r="A60" s="2" t="s">
         <v>75</v>
       </c>
@@ -5957,7 +5924,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="61" spans="1:24" ht="15.75" customHeight="1">
+    <row r="61" spans="1:24" ht="14.40" customHeight="1">
       <c r="A61" s="2" t="s">
         <v>76</v>
       </c>
@@ -6006,7 +5973,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="62" spans="1:24" ht="15.75" customHeight="1">
+    <row r="62" spans="1:24" ht="14.40" customHeight="1">
       <c r="A62" s="2" t="s">
         <v>76</v>
       </c>
@@ -6055,7 +6022,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="63" spans="1:24" ht="15.75" customHeight="1">
+    <row r="63" spans="1:24" ht="14.40" customHeight="1">
       <c r="A63" s="2" t="s">
         <v>76</v>
       </c>
@@ -6104,7 +6071,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="64" spans="1:24" ht="15.75" customHeight="1">
+    <row r="64" spans="1:24" ht="14.40" customHeight="1">
       <c r="A64" s="2" t="s">
         <v>76</v>
       </c>
@@ -6153,7 +6120,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="65" spans="1:24" ht="15.75" customHeight="1">
+    <row r="65" spans="1:24" ht="14.40" customHeight="1">
       <c r="A65" s="2" t="s">
         <v>76</v>
       </c>
@@ -6202,7 +6169,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="66" spans="1:24" ht="15.75" customHeight="1">
+    <row r="66" spans="1:24" ht="14.40" customHeight="1">
       <c r="A66" s="2" t="s">
         <v>76</v>
       </c>
@@ -6251,7 +6218,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="67" spans="1:24" ht="15.75" customHeight="1">
+    <row r="67" spans="1:24" ht="14.40" customHeight="1">
       <c r="A67" s="2" t="s">
         <v>76</v>
       </c>
@@ -6300,7 +6267,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="68" spans="1:24" ht="15.75" customHeight="1">
+    <row r="68" spans="1:24" ht="14.40" customHeight="1">
       <c r="A68" s="2" t="s">
         <v>76</v>
       </c>
@@ -6349,7 +6316,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="69" spans="1:24" ht="15.75" customHeight="1">
+    <row r="69" spans="1:24" ht="14.40" customHeight="1">
       <c r="A69" s="2" t="s">
         <v>76</v>
       </c>
@@ -6398,7 +6365,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="70" spans="1:24" ht="15.75" customHeight="1">
+    <row r="70" spans="1:24" ht="14.40" customHeight="1">
       <c r="A70" s="2" t="s">
         <v>206</v>
       </c>
@@ -6459,7 +6426,7 @@
         <v>RS_M_CMDR_RB_001</v>
       </c>
     </row>
-    <row r="71" spans="1:24" ht="15.75" customHeight="1">
+    <row r="71" spans="1:24" ht="14.60">
       <c r="A71" s="2" t="s">
         <v>48</v>
       </c>
@@ -6472,7 +6439,9 @@
         <v>#NAME?</v>
       </c>
       <c r="H71" s="4"/>
-      <c r="I71" s="5"/>
+      <c r="I71" s="5" t="s">
+        <v>205</v>
+      </c>
       <c r="J71" s="5"/>
       <c r="K71" s="2" t="s">
         <v>39</v>
@@ -6508,7 +6477,7 @@
         <v>RS_R</v>
       </c>
     </row>
-    <row r="72" spans="1:24" ht="15.75" customHeight="1">
+    <row r="72" spans="1:24" ht="14.40" customHeight="1">
       <c r="A72" s="2" t="s">
         <v>48</v>
       </c>
@@ -6557,7 +6526,7 @@
         <v>RS_R</v>
       </c>
     </row>
-    <row r="73" spans="1:24" ht="15.75" customHeight="1">
+    <row r="73" spans="1:24" ht="14.40" customHeight="1">
       <c r="A73" s="2" t="s">
         <v>48</v>
       </c>
@@ -6605,7 +6574,7 @@
         <v>RS_R</v>
       </c>
     </row>
-    <row r="74" spans="1:24" ht="15.75" customHeight="1">
+    <row r="74" spans="1:24" ht="14.40" customHeight="1">
       <c r="A74" s="2" t="s">
         <v>48</v>
       </c>
@@ -6653,7 +6622,7 @@
         <v>RS_R</v>
       </c>
     </row>
-    <row r="75" spans="1:24" ht="15.75" customHeight="1">
+    <row r="75" spans="1:24" ht="14.40" customHeight="1">
       <c r="A75" s="2" t="s">
         <v>75</v>
       </c>
@@ -6701,7 +6670,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="76" spans="1:24" ht="15.75" customHeight="1">
+    <row r="76" spans="1:24" ht="14.40" customHeight="1">
       <c r="A76" s="2" t="s">
         <v>75</v>
       </c>
@@ -6749,7 +6718,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="77" spans="1:24" ht="15.75" customHeight="1">
+    <row r="77" spans="1:24" ht="14.40" customHeight="1">
       <c r="A77" s="2" t="s">
         <v>75</v>
       </c>
@@ -6797,7 +6766,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="78" spans="1:24" ht="15.75" customHeight="1">
+    <row r="78" spans="1:24" ht="14.40" customHeight="1">
       <c r="A78" s="2" t="s">
         <v>75</v>
       </c>
@@ -6845,7 +6814,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="79" spans="1:24" ht="15.75" customHeight="1">
+    <row r="79" spans="1:24" ht="14.40" customHeight="1">
       <c r="A79" s="2" t="s">
         <v>75</v>
       </c>
@@ -6893,7 +6862,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="80" spans="1:24" ht="15.75" customHeight="1">
+    <row r="80" spans="1:24" ht="14.40" customHeight="1">
       <c r="A80" s="2" t="s">
         <v>75</v>
       </c>
@@ -6942,7 +6911,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="81" spans="1:24" ht="15.75" customHeight="1">
+    <row r="81" spans="1:24" ht="14.40" customHeight="1">
       <c r="A81" s="2" t="s">
         <v>76</v>
       </c>
@@ -6991,7 +6960,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="82" spans="1:24" ht="15.75" customHeight="1">
+    <row r="82" spans="1:24" ht="14.40" customHeight="1">
       <c r="A82" s="2" t="s">
         <v>76</v>
       </c>
@@ -7040,7 +7009,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="83" spans="1:24" ht="15.75" customHeight="1">
+    <row r="83" spans="1:24" ht="14.40" customHeight="1">
       <c r="A83" s="2" t="s">
         <v>76</v>
       </c>
@@ -7089,7 +7058,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="84" spans="1:24" ht="15.75" customHeight="1">
+    <row r="84" spans="1:24" ht="14.40" customHeight="1">
       <c r="A84" s="2" t="s">
         <v>76</v>
       </c>
@@ -7138,7 +7107,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="85" spans="1:24" ht="15.75" customHeight="1">
+    <row r="85" spans="1:24" ht="14.40" customHeight="1">
       <c r="A85" s="2" t="s">
         <v>76</v>
       </c>
@@ -7187,7 +7156,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="86" spans="1:24" ht="15.75" customHeight="1">
+    <row r="86" spans="1:24" ht="14.40" customHeight="1">
       <c r="A86" s="2" t="s">
         <v>76</v>
       </c>
@@ -7236,7 +7205,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="87" spans="1:24" ht="15.75" customHeight="1">
+    <row r="87" spans="1:24" ht="14.40" customHeight="1">
       <c r="A87" s="2" t="s">
         <v>76</v>
       </c>
@@ -7285,7 +7254,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="88" spans="1:24" ht="15.75" customHeight="1">
+    <row r="88" spans="1:24" ht="14.40" customHeight="1">
       <c r="A88" s="2" t="s">
         <v>76</v>
       </c>
@@ -7334,7 +7303,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="89" spans="1:24" ht="15.75" customHeight="1">
+    <row r="89" spans="1:24" ht="14.40" customHeight="1">
       <c r="A89" s="2" t="s">
         <v>76</v>
       </c>
@@ -7383,7 +7352,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="90" spans="1:24" ht="15.75" customHeight="1">
+    <row r="90" spans="1:24" ht="14.40" customHeight="1">
       <c r="A90" s="2" t="s">
         <v>208</v>
       </c>
@@ -7448,7 +7417,7 @@
         <v>RS_M_CMDR_RP_001</v>
       </c>
     </row>
-    <row r="91" spans="1:24" ht="15.75" customHeight="1">
+    <row r="91" spans="1:24" ht="14.40" customHeight="1">
       <c r="A91" s="2" t="s">
         <v>214</v>
       </c>
@@ -7489,7 +7458,7 @@
         <v>RS_M_CMDR_RP_001b</v>
       </c>
     </row>
-    <row r="92" spans="1:24" ht="15.75" customHeight="1">
+    <row r="92" spans="1:24" ht="14.40" customHeight="1">
       <c r="A92" s="2" t="s">
         <v>215</v>
       </c>
@@ -7549,7 +7518,7 @@
         <v>RS_CR_002</v>
       </c>
     </row>
-    <row r="93" spans="1:24" ht="15.75" customHeight="1">
+    <row r="93" spans="1:24" ht="14.40" customHeight="1">
       <c r="A93" s="2" t="s">
         <v>219</v>
       </c>
@@ -7609,7 +7578,7 @@
         <v>RS_MR_RP_001</v>
       </c>
     </row>
-    <row r="94" spans="1:24" ht="15.75" customHeight="1">
+    <row r="94" spans="1:24" ht="14.40" customHeight="1">
       <c r="A94" s="2" t="s">
         <v>225</v>
       </c>
@@ -7666,7 +7635,7 @@
         <v>RS_MR_RP_002</v>
       </c>
     </row>
-    <row r="95" spans="1:24" ht="15.75" customHeight="1">
+    <row r="95" spans="1:24" ht="14.40" customHeight="1">
       <c r="A95" s="2" t="s">
         <v>177</v>
       </c>
@@ -7710,7 +7679,7 @@
         <v>RS_Y</v>
       </c>
     </row>
-    <row r="96" spans="1:24" ht="15.75" customHeight="1">
+    <row r="96" spans="1:24" ht="14.40" customHeight="1">
       <c r="A96" s="2" t="s">
         <v>229</v>
       </c>
@@ -7767,7 +7736,7 @@
         <v>RS_RU_002</v>
       </c>
     </row>
-    <row r="97" spans="1:24" ht="15.75" customHeight="1">
+    <row r="97" spans="1:24" ht="14.40" customHeight="1">
       <c r="A97" s="2" t="s">
         <v>233</v>
       </c>
@@ -7827,7 +7796,7 @@
         <v>RS_RU_003</v>
       </c>
     </row>
-    <row r="98" spans="1:24" ht="15.75" customHeight="1">
+    <row r="98" spans="1:24" ht="14.40" customHeight="1">
       <c r="A98" s="2" t="s">
         <v>238</v>
       </c>
@@ -7887,7 +7856,7 @@
         <v>RS_MU_RP_001</v>
       </c>
     </row>
-    <row r="99" spans="1:24" ht="15.75" customHeight="1">
+    <row r="99" spans="1:24" ht="14.40" customHeight="1">
       <c r="A99" s="2" t="s">
         <v>75</v>
       </c>
@@ -7936,7 +7905,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="100" spans="1:24" ht="15.75" customHeight="1">
+    <row r="100" spans="1:24" ht="14.40" customHeight="1">
       <c r="A100" s="2" t="s">
         <v>75</v>
       </c>
@@ -7985,7 +7954,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="101" spans="1:24" ht="15.75" customHeight="1">
+    <row r="101" spans="1:24" ht="14.40" customHeight="1">
       <c r="A101" s="2" t="s">
         <v>75</v>
       </c>
@@ -8034,7 +8003,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="102" spans="1:24" ht="15.75" customHeight="1">
+    <row r="102" spans="1:24" ht="14.40" customHeight="1">
       <c r="A102" s="2" t="s">
         <v>242</v>
       </c>
@@ -8094,7 +8063,7 @@
         <v>RS_PC_001</v>
       </c>
     </row>
-    <row r="103" spans="1:24" ht="15.75" customHeight="1">
+    <row r="103" spans="1:24" ht="14.40" customHeight="1">
       <c r="A103" s="2" t="s">
         <v>76</v>
       </c>
@@ -8107,7 +8076,9 @@
         <v>#NAME?</v>
       </c>
       <c r="H103" s="4"/>
-      <c r="I103" s="5"/>
+      <c r="I103" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="J103" s="5"/>
       <c r="K103" s="2" t="s">
         <v>39</v>
@@ -8143,7 +8114,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="104" spans="1:24" ht="15.75" customHeight="1">
+    <row r="104" spans="1:24" ht="14.40" customHeight="1">
       <c r="A104" s="2" t="s">
         <v>76</v>
       </c>
@@ -8192,7 +8163,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="105" spans="1:24" ht="15.75" customHeight="1">
+    <row r="105" spans="1:24" ht="14.40" customHeight="1">
       <c r="A105" s="2" t="s">
         <v>76</v>
       </c>
@@ -8241,7 +8212,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="106" spans="1:24" ht="15.75" customHeight="1">
+    <row r="106" spans="1:24" ht="14.40" customHeight="1">
       <c r="A106" s="2" t="s">
         <v>76</v>
       </c>
@@ -8290,7 +8261,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="107" spans="1:24" ht="15.75" customHeight="1">
+    <row r="107" spans="1:24" ht="14.40" customHeight="1">
       <c r="A107" s="2" t="s">
         <v>76</v>
       </c>
@@ -8339,7 +8310,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="108" spans="1:24" ht="15.75" customHeight="1">
+    <row r="108" spans="1:24" ht="14.40" customHeight="1">
       <c r="A108" s="2" t="s">
         <v>76</v>
       </c>
@@ -8388,7 +8359,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="109" spans="1:24" ht="15.75" customHeight="1">
+    <row r="109" spans="1:24" ht="14.40" customHeight="1">
       <c r="A109" s="2" t="s">
         <v>76</v>
       </c>
@@ -8437,7 +8408,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="110" spans="1:24" ht="15.75" customHeight="1">
+    <row r="110" spans="1:24" ht="14.40" customHeight="1">
       <c r="A110" s="2" t="s">
         <v>76</v>
       </c>
@@ -8486,7 +8457,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="111" spans="1:26" ht="15.75" customHeight="1">
+    <row r="111" spans="1:26" ht="14.40" customHeight="1">
       <c r="A111" s="2" t="s">
         <v>246</v>
       </c>
@@ -8553,7 +8524,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="112" spans="1:24" ht="117.75" customHeight="1">
+    <row r="112" spans="1:24" ht="14.40" customHeight="1">
       <c r="A112" s="2" t="s">
         <v>252</v>
       </c>
@@ -8570,7 +8541,7 @@
         <v>63</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H112" s="4" t="s">
         <v>28</v>
@@ -8606,7 +8577,7 @@
         <v>RS_M_CMDR_OY_001b</v>
       </c>
     </row>
-    <row r="113" spans="1:24" ht="15.75" customHeight="1">
+    <row r="113" spans="1:24" ht="14.40" customHeight="1">
       <c r="A113" s="2" t="s">
         <v>256</v>
       </c>
@@ -8665,7 +8636,7 @@
         <v>RS_MR_OY_001</v>
       </c>
     </row>
-    <row r="114" spans="1:24" ht="15.75" customHeight="1">
+    <row r="114" spans="1:24" ht="14.40" customHeight="1">
       <c r="A114" s="2" t="s">
         <v>261</v>
       </c>
@@ -8676,7 +8647,7 @@
         <v>263</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>63</v>
@@ -8721,7 +8692,7 @@
         <v>RS_MR_OY_001b</v>
       </c>
     </row>
-    <row r="115" spans="1:24" ht="15.75" customHeight="1">
+    <row r="115" spans="1:24" ht="14.40" customHeight="1">
       <c r="A115" s="2" t="s">
         <v>268</v>
       </c>
@@ -8782,7 +8753,7 @@
         <v>RS_OR_001</v>
       </c>
     </row>
-    <row r="116" spans="1:24" ht="15.75" customHeight="1">
+    <row r="116" spans="1:24" ht="14.40" customHeight="1">
       <c r="A116" s="2" t="s">
         <v>274</v>
       </c>
@@ -8844,7 +8815,7 @@
         <v>RS_RY_002</v>
       </c>
     </row>
-    <row r="117" spans="1:24" ht="15.75" customHeight="1">
+    <row r="117" spans="1:24" ht="14.40" customHeight="1">
       <c r="A117" s="2" t="s">
         <v>280</v>
       </c>
@@ -8909,7 +8880,7 @@
         <v>RS_RY_003</v>
       </c>
     </row>
-    <row r="118" spans="1:24" ht="15.75" customHeight="1">
+    <row r="118" spans="1:24" ht="14.40" customHeight="1">
       <c r="A118" s="2" t="s">
         <v>286</v>
       </c>
@@ -8974,7 +8945,7 @@
         <v>RS_OR_002</v>
       </c>
     </row>
-    <row r="119" spans="1:24" ht="15.75" customHeight="1">
+    <row r="119" spans="1:24" ht="14.40" customHeight="1">
       <c r="A119" s="2" t="s">
         <v>292</v>
       </c>
@@ -9035,7 +9006,7 @@
         <v>RS_YU_002</v>
       </c>
     </row>
-    <row r="120" spans="1:24" ht="15.75" customHeight="1">
+    <row r="120" spans="1:24" ht="14.40" customHeight="1">
       <c r="A120" s="2" t="s">
         <v>298</v>
       </c>
@@ -9046,7 +9017,7 @@
         <v>62</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>35</v>
@@ -9097,7 +9068,7 @@
         <v>RS_MU_OY_001</v>
       </c>
     </row>
-    <row r="121" spans="1:24" ht="15.75" customHeight="1">
+    <row r="121" spans="1:24" ht="14.40" customHeight="1">
       <c r="A121" s="2" t="s">
         <v>301</v>
       </c>
@@ -9156,7 +9127,7 @@
         <v>RS_OU_001</v>
       </c>
     </row>
-    <row r="122" spans="1:24" ht="15.75" customHeight="1">
+    <row r="122" spans="1:24" ht="14.40" customHeight="1">
       <c r="A122" s="2" t="s">
         <v>304</v>
       </c>
@@ -9218,7 +9189,7 @@
         <v>RS_MU_OY_002</v>
       </c>
     </row>
-    <row r="123" spans="1:24" ht="15.75" customHeight="1">
+    <row r="123" spans="1:24" ht="14.40" customHeight="1">
       <c r="A123" s="2" t="s">
         <v>310</v>
       </c>
@@ -9229,7 +9200,7 @@
         <v>62</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>26</v>
@@ -9277,7 +9248,7 @@
         <v>RS_MU_OY_003</v>
       </c>
     </row>
-    <row r="124" spans="1:24" ht="15.75" customHeight="1">
+    <row r="124" spans="1:24" ht="14.40" customHeight="1">
       <c r="A124" s="2" t="s">
         <v>314</v>
       </c>
@@ -9288,7 +9259,7 @@
         <v>316</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>35</v>
@@ -9336,7 +9307,7 @@
         <v>RS_MU_OY_004</v>
       </c>
     </row>
-    <row r="125" spans="1:24" ht="15.75" customHeight="1">
+    <row r="125" spans="1:24" ht="14.40" customHeight="1">
       <c r="A125" s="2" t="s">
         <v>319</v>
       </c>
@@ -9347,7 +9318,7 @@
         <v>263</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>49</v>
@@ -9400,7 +9371,7 @@
         <v>RS_MC_OY_001</v>
       </c>
     </row>
-    <row r="126" spans="1:24" ht="15.75" customHeight="1">
+    <row r="126" spans="1:24" ht="14.40" customHeight="1">
       <c r="A126" s="2" t="s">
         <v>324</v>
       </c>
@@ -9411,7 +9382,7 @@
         <v>62</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>26</v>
@@ -9459,7 +9430,7 @@
         <v>RS_MC_OY_002</v>
       </c>
     </row>
-    <row r="127" spans="1:24" ht="15.75" customHeight="1">
+    <row r="127" spans="1:24" ht="14.40" customHeight="1">
       <c r="A127" s="2" t="s">
         <v>328</v>
       </c>
@@ -9476,7 +9447,7 @@
         <v>26</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H127" s="4" t="s">
         <v>330</v>
@@ -9520,7 +9491,7 @@
         <v>RS_MC_OY_003</v>
       </c>
     </row>
-    <row r="128" spans="1:24" ht="15.75" customHeight="1">
+    <row r="128" spans="1:24" ht="14.40" customHeight="1">
       <c r="A128" s="2" t="s">
         <v>333</v>
       </c>
@@ -9584,7 +9555,7 @@
         <v>RS_YC_001</v>
       </c>
     </row>
-    <row r="129" spans="1:24" ht="15.75" customHeight="1">
+    <row r="129" spans="1:24" ht="14.40" customHeight="1">
       <c r="A129" s="2" t="s">
         <v>338</v>
       </c>
@@ -9643,7 +9614,7 @@
         <v>RS_YC_002</v>
       </c>
     </row>
-    <row r="130" spans="1:24" ht="15.75" customHeight="1">
+    <row r="130" spans="1:24" ht="14.40" customHeight="1">
       <c r="A130" s="2" t="s">
         <v>341</v>
       </c>
@@ -9702,7 +9673,7 @@
         <v>RS_YC_003</v>
       </c>
     </row>
-    <row r="131" spans="1:24" ht="15.75" customHeight="1">
+    <row r="131" spans="1:24" ht="14.40" customHeight="1">
       <c r="A131" s="2" t="s">
         <v>345</v>
       </c>
@@ -9713,7 +9684,7 @@
         <v>263</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>35</v>
@@ -9761,7 +9732,7 @@
         <v>RS_YC_004</v>
       </c>
     </row>
-    <row r="132" spans="1:24" ht="15.75" customHeight="1">
+    <row r="132" spans="1:24" ht="14.40" customHeight="1">
       <c r="A132" s="2" t="s">
         <v>348</v>
       </c>
@@ -9772,7 +9743,7 @@
         <v>263</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>35</v>
@@ -9817,7 +9788,7 @@
         <v>RS_MC_OY_004</v>
       </c>
     </row>
-    <row r="133" spans="1:24" ht="15.75" customHeight="1">
+    <row r="133" spans="1:24" ht="14.40" customHeight="1">
       <c r="A133" s="2" t="s">
         <v>351</v>
       </c>
@@ -9828,7 +9799,7 @@
         <v>353</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>26</v>
@@ -9876,7 +9847,7 @@
         <v>RS_MC_OY_005</v>
       </c>
     </row>
-    <row r="134" spans="1:24" ht="15.75" customHeight="1">
+    <row r="134" spans="1:24" ht="14.40" customHeight="1">
       <c r="A134" s="2" t="s">
         <v>356</v>
       </c>
@@ -9887,10 +9858,10 @@
         <v>25</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H134" s="10" t="n">
         <v>5</v>
@@ -9925,7 +9896,7 @@
         <v>RS_OYPG</v>
       </c>
     </row>
-    <row r="135" spans="1:24" ht="15.75" customHeight="1">
+    <row r="135" spans="1:24" ht="14.40" customHeight="1">
       <c r="A135" s="2" t="s">
         <v>359</v>
       </c>
@@ -9985,7 +9956,7 @@
         <v>RS_M_CMDR_OG_001</v>
       </c>
     </row>
-    <row r="136" spans="1:24" ht="15.75" customHeight="1">
+    <row r="136" spans="1:24" ht="14.60">
       <c r="A136" s="2" t="s">
         <v>177</v>
       </c>
@@ -9998,7 +9969,9 @@
         <v>#NAME?</v>
       </c>
       <c r="H136" s="4"/>
-      <c r="I136" s="5"/>
+      <c r="I136" s="5" t="s">
+        <v>205</v>
+      </c>
       <c r="J136" s="5"/>
       <c r="K136" s="2" t="s">
         <v>39</v>
@@ -10034,7 +10007,7 @@
         <v>RS_Y</v>
       </c>
     </row>
-    <row r="137" spans="1:24" ht="15.75" customHeight="1">
+    <row r="137" spans="1:24" ht="14.40" customHeight="1">
       <c r="A137" s="2" t="s">
         <v>177</v>
       </c>
@@ -10083,7 +10056,7 @@
         <v>RS_Y</v>
       </c>
     </row>
-    <row r="138" spans="1:24" ht="15.75" customHeight="1">
+    <row r="138" spans="1:24" ht="14.40" customHeight="1">
       <c r="A138" s="2" t="s">
         <v>177</v>
       </c>
@@ -10131,7 +10104,7 @@
         <v>RS_Y</v>
       </c>
     </row>
-    <row r="139" spans="1:24" ht="15.75" customHeight="1">
+    <row r="139" spans="1:24" ht="14.40" customHeight="1">
       <c r="A139" s="2" t="s">
         <v>177</v>
       </c>
@@ -10179,7 +10152,7 @@
         <v>RS_Y</v>
       </c>
     </row>
-    <row r="140" spans="1:24" ht="15.75" customHeight="1">
+    <row r="140" spans="1:24" ht="14.40" customHeight="1">
       <c r="A140" s="2" t="s">
         <v>75</v>
       </c>
@@ -10227,7 +10200,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="141" spans="1:24" ht="15.75" customHeight="1">
+    <row r="141" spans="1:24" ht="14.40" customHeight="1">
       <c r="A141" s="2" t="s">
         <v>75</v>
       </c>
@@ -10275,7 +10248,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="142" spans="1:24" ht="15.75" customHeight="1">
+    <row r="142" spans="1:24" ht="14.40" customHeight="1">
       <c r="A142" s="2" t="s">
         <v>75</v>
       </c>
@@ -10323,7 +10296,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="143" spans="1:24" ht="15.75" customHeight="1">
+    <row r="143" spans="1:24" ht="14.40" customHeight="1">
       <c r="A143" s="2" t="s">
         <v>75</v>
       </c>
@@ -10371,7 +10344,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="144" spans="1:24" ht="15.75" customHeight="1">
+    <row r="144" spans="1:24" ht="14.40" customHeight="1">
       <c r="A144" s="2" t="s">
         <v>75</v>
       </c>
@@ -10419,7 +10392,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="145" spans="1:24" ht="15.75" customHeight="1">
+    <row r="145" spans="1:24" ht="14.40" customHeight="1">
       <c r="A145" s="2" t="s">
         <v>75</v>
       </c>
@@ -10467,7 +10440,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="146" spans="1:24" ht="15.75" customHeight="1">
+    <row r="146" spans="1:24" ht="14.40" customHeight="1">
       <c r="A146" s="2" t="s">
         <v>76</v>
       </c>
@@ -10515,7 +10488,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="147" spans="1:24" ht="15.75" customHeight="1">
+    <row r="147" spans="1:24" ht="14.40" customHeight="1">
       <c r="A147" s="2" t="s">
         <v>76</v>
       </c>
@@ -10563,7 +10536,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="148" spans="1:24" ht="15.75" customHeight="1">
+    <row r="148" spans="1:24" ht="14.40" customHeight="1">
       <c r="A148" s="2" t="s">
         <v>76</v>
       </c>
@@ -10611,7 +10584,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="149" spans="1:24" ht="15.75" customHeight="1">
+    <row r="149" spans="1:24" ht="14.40" customHeight="1">
       <c r="A149" s="2" t="s">
         <v>76</v>
       </c>
@@ -10659,7 +10632,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="150" spans="1:24" ht="15.75" customHeight="1">
+    <row r="150" spans="1:24" ht="14.40" customHeight="1">
       <c r="A150" s="2" t="s">
         <v>76</v>
       </c>
@@ -10707,7 +10680,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="151" spans="1:24" ht="15.75" customHeight="1">
+    <row r="151" spans="1:24" ht="14.40" customHeight="1">
       <c r="A151" s="2" t="s">
         <v>76</v>
       </c>
@@ -10755,7 +10728,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="152" spans="1:24" ht="15.75" customHeight="1">
+    <row r="152" spans="1:24" ht="14.40" customHeight="1">
       <c r="A152" s="2" t="s">
         <v>76</v>
       </c>
@@ -10803,7 +10776,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="153" spans="1:24" ht="15.75" customHeight="1">
+    <row r="153" spans="1:24" ht="14.40" customHeight="1">
       <c r="A153" s="2" t="s">
         <v>76</v>
       </c>
@@ -10851,7 +10824,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="154" spans="1:24" ht="15.75" customHeight="1">
+    <row r="154" spans="1:24" ht="14.40" customHeight="1">
       <c r="A154" s="2" t="s">
         <v>76</v>
       </c>
@@ -10899,7 +10872,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="155" spans="1:24" ht="15.75" customHeight="1">
+    <row r="155" spans="1:24" ht="14.40" customHeight="1">
       <c r="A155" s="2" t="s">
         <v>361</v>
       </c>
@@ -10959,7 +10932,7 @@
         <v>RS_M_CMDR_OB_001</v>
       </c>
     </row>
-    <row r="156" spans="1:24" ht="15.75" customHeight="1">
+    <row r="156" spans="1:24" ht="14.60">
       <c r="A156" s="2" t="s">
         <v>48</v>
       </c>
@@ -10973,7 +10946,9 @@
         <v>#NAME?</v>
       </c>
       <c r="H156" s="4"/>
-      <c r="I156" s="5"/>
+      <c r="I156" s="5" t="s">
+        <v>205</v>
+      </c>
       <c r="J156" s="5"/>
       <c r="O156" s="5"/>
       <c r="Q156" s="2" t="n">
@@ -11003,7 +10978,7 @@
         <v>RS_R</v>
       </c>
     </row>
-    <row r="157" spans="1:24" ht="15.75" customHeight="1">
+    <row r="157" spans="1:24" ht="14.40" customHeight="1">
       <c r="A157" s="2" t="s">
         <v>48</v>
       </c>
@@ -11053,7 +11028,7 @@
         <v>RS_R</v>
       </c>
     </row>
-    <row r="158" spans="1:24" ht="15.75" customHeight="1">
+    <row r="158" spans="1:24" ht="14.40" customHeight="1">
       <c r="A158" s="2" t="s">
         <v>48</v>
       </c>
@@ -11100,7 +11075,7 @@
         <v>RS_R</v>
       </c>
     </row>
-    <row r="159" spans="1:24" ht="15.75" customHeight="1">
+    <row r="159" spans="1:24" ht="14.40" customHeight="1">
       <c r="A159" s="2" t="s">
         <v>48</v>
       </c>
@@ -11147,7 +11122,7 @@
         <v>RS_R</v>
       </c>
     </row>
-    <row r="160" spans="1:24" ht="15.75" customHeight="1">
+    <row r="160" spans="1:24" ht="14.40" customHeight="1">
       <c r="A160" s="2" t="s">
         <v>75</v>
       </c>
@@ -11195,7 +11170,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="161" spans="1:24" ht="15.75" customHeight="1">
+    <row r="161" spans="1:24" ht="14.40" customHeight="1">
       <c r="A161" s="2" t="s">
         <v>75</v>
       </c>
@@ -11243,7 +11218,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="162" spans="1:24" ht="15.75" customHeight="1">
+    <row r="162" spans="1:24" ht="14.40" customHeight="1">
       <c r="A162" s="2" t="s">
         <v>75</v>
       </c>
@@ -11291,7 +11266,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="163" spans="1:24" ht="15.75" customHeight="1">
+    <row r="163" spans="1:24" ht="14.40" customHeight="1">
       <c r="A163" s="2" t="s">
         <v>75</v>
       </c>
@@ -11339,7 +11314,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="164" spans="1:24" ht="15.75" customHeight="1">
+    <row r="164" spans="1:24" ht="14.40" customHeight="1">
       <c r="A164" s="2" t="s">
         <v>75</v>
       </c>
@@ -11387,7 +11362,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="165" spans="1:24" ht="15.75" customHeight="1">
+    <row r="165" spans="1:24" ht="14.40" customHeight="1">
       <c r="A165" s="2" t="s">
         <v>75</v>
       </c>
@@ -11435,7 +11410,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="166" spans="1:24" ht="15.75" customHeight="1">
+    <row r="166" spans="1:24" ht="14.40" customHeight="1">
       <c r="A166" s="2" t="s">
         <v>76</v>
       </c>
@@ -11483,7 +11458,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="167" spans="1:24" ht="15.75" customHeight="1">
+    <row r="167" spans="1:24" ht="14.40" customHeight="1">
       <c r="A167" s="2" t="s">
         <v>76</v>
       </c>
@@ -11531,7 +11506,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="168" spans="1:24" ht="15.75" customHeight="1">
+    <row r="168" spans="1:24" ht="14.40" customHeight="1">
       <c r="A168" s="2" t="s">
         <v>76</v>
       </c>
@@ -11579,7 +11554,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="169" spans="1:24" ht="15.75" customHeight="1">
+    <row r="169" spans="1:24" ht="14.40" customHeight="1">
       <c r="A169" s="2" t="s">
         <v>76</v>
       </c>
@@ -11627,7 +11602,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="170" spans="1:24" ht="15.75" customHeight="1">
+    <row r="170" spans="1:24" ht="14.40" customHeight="1">
       <c r="A170" s="2" t="s">
         <v>76</v>
       </c>
@@ -11675,7 +11650,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="171" spans="1:24" ht="15.75" customHeight="1">
+    <row r="171" spans="1:24" ht="14.40" customHeight="1">
       <c r="A171" s="2" t="s">
         <v>76</v>
       </c>
@@ -11723,7 +11698,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="172" spans="1:24" ht="15.75" customHeight="1">
+    <row r="172" spans="1:24" ht="14.40" customHeight="1">
       <c r="A172" s="2" t="s">
         <v>76</v>
       </c>
@@ -11771,7 +11746,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="173" spans="1:24" ht="15.75" customHeight="1">
+    <row r="173" spans="1:24" ht="14.40" customHeight="1">
       <c r="A173" s="2" t="s">
         <v>76</v>
       </c>
@@ -11819,7 +11794,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="174" spans="1:24" ht="15.75" customHeight="1">
+    <row r="174" spans="1:24" ht="14.40" customHeight="1">
       <c r="A174" s="2" t="s">
         <v>76</v>
       </c>
@@ -11867,7 +11842,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="175" spans="1:24" ht="15.75" customHeight="1">
+    <row r="175" spans="1:24" ht="14.40" customHeight="1">
       <c r="A175" s="2" t="s">
         <v>364</v>
       </c>
@@ -11927,7 +11902,7 @@
         <v>RS_M_CMDR_OP_001</v>
       </c>
     </row>
-    <row r="176" spans="1:24" ht="15.75" customHeight="1">
+    <row r="176" spans="1:24" ht="14.60">
       <c r="A176" s="2" t="s">
         <v>177</v>
       </c>
@@ -11940,7 +11915,9 @@
         <v>#NAME?</v>
       </c>
       <c r="H176" s="4"/>
-      <c r="I176" s="5"/>
+      <c r="I176" s="5" t="s">
+        <v>205</v>
+      </c>
       <c r="J176" s="5"/>
       <c r="K176" s="2" t="s">
         <v>39</v>
@@ -11976,7 +11953,7 @@
         <v>RS_Y</v>
       </c>
     </row>
-    <row r="177" spans="1:24" ht="15.75" customHeight="1">
+    <row r="177" spans="1:24" ht="14.40" customHeight="1">
       <c r="A177" s="2" t="s">
         <v>177</v>
       </c>
@@ -12025,7 +12002,7 @@
         <v>RS_Y</v>
       </c>
     </row>
-    <row r="178" spans="1:24" ht="15.75" customHeight="1">
+    <row r="178" spans="1:24" ht="14.40" customHeight="1">
       <c r="A178" s="2" t="s">
         <v>177</v>
       </c>
@@ -12073,7 +12050,7 @@
         <v>RS_Y</v>
       </c>
     </row>
-    <row r="179" spans="1:24" ht="15.75" customHeight="1">
+    <row r="179" spans="1:24" ht="14.40" customHeight="1">
       <c r="A179" s="2" t="s">
         <v>177</v>
       </c>
@@ -12121,7 +12098,7 @@
         <v>RS_Y</v>
       </c>
     </row>
-    <row r="180" spans="1:24" ht="15.75" customHeight="1">
+    <row r="180" spans="1:24" ht="14.40" customHeight="1">
       <c r="A180" s="2" t="s">
         <v>75</v>
       </c>
@@ -12169,7 +12146,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="181" spans="1:24" ht="15.75" customHeight="1">
+    <row r="181" spans="1:24" ht="14.40" customHeight="1">
       <c r="A181" s="2" t="s">
         <v>75</v>
       </c>
@@ -12217,7 +12194,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="182" spans="1:24" ht="15.75" customHeight="1">
+    <row r="182" spans="1:24" ht="14.40" customHeight="1">
       <c r="A182" s="2" t="s">
         <v>75</v>
       </c>
@@ -12265,7 +12242,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="183" spans="1:24" ht="15.75" customHeight="1">
+    <row r="183" spans="1:24" ht="14.40" customHeight="1">
       <c r="A183" s="2" t="s">
         <v>75</v>
       </c>
@@ -12313,7 +12290,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="184" spans="1:24" ht="15.75" customHeight="1">
+    <row r="184" spans="1:24" ht="14.40" customHeight="1">
       <c r="A184" s="2" t="s">
         <v>75</v>
       </c>
@@ -12361,7 +12338,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="185" spans="1:24" ht="15.75" customHeight="1">
+    <row r="185" spans="1:24" ht="14.40" customHeight="1">
       <c r="A185" s="2" t="s">
         <v>75</v>
       </c>
@@ -12409,7 +12386,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="186" spans="1:24" ht="15.75" customHeight="1">
+    <row r="186" spans="1:24" ht="14.40" customHeight="1">
       <c r="A186" s="2" t="s">
         <v>76</v>
       </c>
@@ -12457,7 +12434,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="187" spans="1:24" ht="15.75" customHeight="1">
+    <row r="187" spans="1:24" ht="14.40" customHeight="1">
       <c r="A187" s="2" t="s">
         <v>76</v>
       </c>
@@ -12505,7 +12482,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="188" spans="1:24" ht="15.75" customHeight="1">
+    <row r="188" spans="1:24" ht="14.40" customHeight="1">
       <c r="A188" s="2" t="s">
         <v>76</v>
       </c>
@@ -12553,7 +12530,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="189" spans="1:24" ht="15.75" customHeight="1">
+    <row r="189" spans="1:24" ht="14.40" customHeight="1">
       <c r="A189" s="2" t="s">
         <v>76</v>
       </c>
@@ -12601,7 +12578,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="190" spans="1:24" ht="15.75" customHeight="1">
+    <row r="190" spans="1:24" ht="14.40" customHeight="1">
       <c r="A190" s="2" t="s">
         <v>76</v>
       </c>
@@ -12649,7 +12626,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="191" spans="1:24" ht="15.75" customHeight="1">
+    <row r="191" spans="1:24" ht="14.40" customHeight="1">
       <c r="A191" s="2" t="s">
         <v>76</v>
       </c>
@@ -12697,7 +12674,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="192" spans="1:24" ht="15.75" customHeight="1">
+    <row r="192" spans="1:24" ht="14.40" customHeight="1">
       <c r="A192" s="2" t="s">
         <v>76</v>
       </c>
@@ -12745,7 +12722,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="193" spans="1:24" ht="15.75" customHeight="1">
+    <row r="193" spans="1:24" ht="14.40" customHeight="1">
       <c r="A193" s="2" t="s">
         <v>76</v>
       </c>
@@ -12793,7 +12770,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="194" spans="1:24" ht="15.75" customHeight="1">
+    <row r="194" spans="1:24" ht="14.40" customHeight="1">
       <c r="A194" s="2" t="s">
         <v>76</v>
       </c>
@@ -12841,7 +12818,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="195" spans="1:24" ht="15.75" customHeight="1">
+    <row r="195" spans="1:24" ht="14.60">
       <c r="A195" s="2" t="s">
         <v>366</v>
       </c>
@@ -12901,7 +12878,7 @@
         <v>RS_M_CMDR_YG_001</v>
       </c>
     </row>
-    <row r="196" spans="1:24" ht="15.75" customHeight="1">
+    <row r="196" spans="1:24" ht="14.60">
       <c r="A196" s="2" t="s">
         <v>177</v>
       </c>
@@ -12914,6 +12891,9 @@
         <v>#NAME?</v>
       </c>
       <c r="H196" s="4"/>
+      <c r="I196" s="5" t="s">
+        <v>205</v>
+      </c>
       <c r="J196" s="5"/>
       <c r="K196" s="2" t="s">
         <v>39</v>
@@ -12949,7 +12929,7 @@
         <v>RS_Y</v>
       </c>
     </row>
-    <row r="197" spans="1:24" ht="15.75" customHeight="1">
+    <row r="197" spans="1:24" ht="14.40" customHeight="1">
       <c r="A197" s="2" t="s">
         <v>177</v>
       </c>
@@ -12998,7 +12978,7 @@
         <v>RS_Y</v>
       </c>
     </row>
-    <row r="198" spans="1:24" ht="15.75" customHeight="1">
+    <row r="198" spans="1:24" ht="14.40" customHeight="1">
       <c r="A198" s="2" t="s">
         <v>177</v>
       </c>
@@ -13046,7 +13026,7 @@
         <v>RS_Y</v>
       </c>
     </row>
-    <row r="199" spans="1:24" ht="15.75" customHeight="1">
+    <row r="199" spans="1:24" ht="14.40" customHeight="1">
       <c r="A199" s="2" t="s">
         <v>177</v>
       </c>
@@ -13094,7 +13074,7 @@
         <v>RS_Y</v>
       </c>
     </row>
-    <row r="200" spans="1:24" ht="15.75" customHeight="1">
+    <row r="200" spans="1:24" ht="14.40" customHeight="1">
       <c r="A200" s="2" t="s">
         <v>368</v>
       </c>
@@ -13153,7 +13133,7 @@
         <v>RS_MU_YG_001</v>
       </c>
     </row>
-    <row r="201" spans="1:24" ht="15.75" customHeight="1">
+    <row r="201" spans="1:24" ht="14.40" customHeight="1">
       <c r="A201" s="2" t="s">
         <v>75</v>
       </c>
@@ -13201,7 +13181,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="202" spans="1:24" ht="15.75" customHeight="1">
+    <row r="202" spans="1:24" ht="14.40" customHeight="1">
       <c r="A202" s="2" t="s">
         <v>75</v>
       </c>
@@ -13249,7 +13229,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="203" spans="1:24" ht="15.75" customHeight="1">
+    <row r="203" spans="1:24" ht="14.40" customHeight="1">
       <c r="A203" s="2" t="s">
         <v>75</v>
       </c>
@@ -13297,7 +13277,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="204" spans="1:24" ht="15.75" customHeight="1">
+    <row r="204" spans="1:24" ht="14.40" customHeight="1">
       <c r="A204" s="2" t="s">
         <v>75</v>
       </c>
@@ -13345,7 +13325,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="205" spans="1:24" ht="15.75" customHeight="1">
+    <row r="205" spans="1:24" ht="14.40" customHeight="1">
       <c r="A205" s="2" t="s">
         <v>75</v>
       </c>
@@ -13393,7 +13373,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="206" spans="1:24" ht="15.75" customHeight="1">
+    <row r="206" spans="1:24" ht="14.40" customHeight="1">
       <c r="A206" s="2" t="s">
         <v>373</v>
       </c>
@@ -13404,7 +13384,7 @@
         <v>263</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>43</v>
@@ -13455,7 +13435,7 @@
         <v>RS_MC_YG_001</v>
       </c>
     </row>
-    <row r="207" spans="1:24" ht="15.75" customHeight="1">
+    <row r="207" spans="1:24" ht="14.40" customHeight="1">
       <c r="A207" s="2" t="s">
         <v>76</v>
       </c>
@@ -13503,7 +13483,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="208" spans="1:24" ht="15.75" customHeight="1">
+    <row r="208" spans="1:24" ht="14.40" customHeight="1">
       <c r="A208" s="2" t="s">
         <v>76</v>
       </c>
@@ -13551,7 +13531,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="209" spans="1:24" ht="15.75" customHeight="1">
+    <row r="209" spans="1:24" ht="14.40" customHeight="1">
       <c r="A209" s="2" t="s">
         <v>76</v>
       </c>
@@ -13599,7 +13579,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="210" spans="1:24" ht="15.75" customHeight="1">
+    <row r="210" spans="1:24" ht="14.40" customHeight="1">
       <c r="A210" s="2" t="s">
         <v>76</v>
       </c>
@@ -13647,7 +13627,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="211" spans="1:24" ht="15.75" customHeight="1">
+    <row r="211" spans="1:24" ht="14.40" customHeight="1">
       <c r="A211" s="2" t="s">
         <v>76</v>
       </c>
@@ -13695,7 +13675,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="212" spans="1:24" ht="15.75" customHeight="1">
+    <row r="212" spans="1:24" ht="14.40" customHeight="1">
       <c r="A212" s="2" t="s">
         <v>76</v>
       </c>
@@ -13743,7 +13723,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="213" spans="1:24" ht="15.75" customHeight="1">
+    <row r="213" spans="1:24" ht="14.40" customHeight="1">
       <c r="A213" s="2" t="s">
         <v>76</v>
       </c>
@@ -13791,7 +13771,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="214" spans="1:24" ht="15.75" customHeight="1">
+    <row r="214" spans="1:24" ht="14.40" customHeight="1">
       <c r="A214" s="2" t="s">
         <v>76</v>
       </c>
@@ -13839,7 +13819,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="215" spans="1:24" ht="133.50" customHeight="1">
+    <row r="215" spans="1:24" ht="14.40" customHeight="1">
       <c r="A215" s="2" t="s">
         <v>378</v>
       </c>
@@ -13906,7 +13886,7 @@
         <v>RS_M_CMDR_YB_001</v>
       </c>
     </row>
-    <row r="216" spans="1:24" ht="15.75" customHeight="1">
+    <row r="216" spans="1:24" ht="14.40" customHeight="1">
       <c r="A216" s="2" t="s">
         <v>385</v>
       </c>
@@ -13962,7 +13942,7 @@
         <v>RS_M_CMDR_YB_001b</v>
       </c>
     </row>
-    <row r="217" spans="1:24" ht="15.75" customHeight="1">
+    <row r="217" spans="1:24" ht="14.40" customHeight="1">
       <c r="A217" s="2" t="s">
         <v>177</v>
       </c>
@@ -14012,7 +13992,7 @@
         <v>RS_Y</v>
       </c>
     </row>
-    <row r="218" spans="1:24" ht="15.75" customHeight="1">
+    <row r="218" spans="1:24" ht="14.40" customHeight="1">
       <c r="A218" s="2" t="s">
         <v>390</v>
       </c>
@@ -14074,7 +14054,7 @@
         <v>RS_BY_001</v>
       </c>
     </row>
-    <row r="219" spans="1:24" ht="15.75" customHeight="1">
+    <row r="219" spans="1:24" ht="14.40" customHeight="1">
       <c r="A219" s="2" t="s">
         <v>395</v>
       </c>
@@ -14085,7 +14065,7 @@
         <v>143</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>63</v>
@@ -14127,13 +14107,13 @@
         <v>RS_BY_001b</v>
       </c>
     </row>
-    <row r="220" spans="1:24" ht="15.75" customHeight="1">
+    <row r="220" spans="1:24" ht="14.40" customHeight="1">
       <c r="A220" s="2" t="s">
         <v>177</v>
       </c>
       <c r="C220" s="3"/>
       <c r="D220" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J220" s="5"/>
       <c r="K220" s="2" t="s">
@@ -14169,7 +14149,7 @@
         <v>RS_Y</v>
       </c>
     </row>
-    <row r="221" spans="1:24" ht="15.75" customHeight="1">
+    <row r="221" spans="1:24" ht="14.60">
       <c r="A221" s="2" t="s">
         <v>177</v>
       </c>
@@ -14183,7 +14163,7 @@
       </c>
       <c r="H221" s="4"/>
       <c r="I221" s="5" t="s">
-        <v>52</v>
+        <v>205</v>
       </c>
       <c r="J221" s="5"/>
       <c r="K221" s="2" t="s">
@@ -14219,7 +14199,7 @@
         <v>RS_Y</v>
       </c>
     </row>
-    <row r="222" spans="1:24" ht="15.75" customHeight="1">
+    <row r="222" spans="1:24" ht="14.40" customHeight="1">
       <c r="A222" s="2" t="s">
         <v>399</v>
       </c>
@@ -14281,7 +14261,7 @@
         <v>RS_MU_YB_001</v>
       </c>
     </row>
-    <row r="223" spans="1:24" ht="91.50" customHeight="1">
+    <row r="223" spans="1:24" ht="14.40" customHeight="1">
       <c r="A223" s="2" t="s">
         <v>403</v>
       </c>
@@ -14343,7 +14323,7 @@
         <v>RS_MU_YB_002</v>
       </c>
     </row>
-    <row r="224" spans="1:24" ht="15.75" customHeight="1">
+    <row r="224" spans="1:24" ht="14.40" customHeight="1">
       <c r="A224" s="2" t="s">
         <v>407</v>
       </c>
@@ -14354,7 +14334,7 @@
         <v>263</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>49</v>
@@ -14405,7 +14385,7 @@
         <v>RS_MU_YB_003</v>
       </c>
     </row>
-    <row r="225" spans="1:24" ht="15.75" customHeight="1">
+    <row r="225" spans="1:24" ht="14.40" customHeight="1">
       <c r="A225" s="2" t="s">
         <v>412</v>
       </c>
@@ -14467,7 +14447,7 @@
         <v>RS_BU_003</v>
       </c>
     </row>
-    <row r="226" spans="1:24" ht="15.75" customHeight="1">
+    <row r="226" spans="1:24" ht="14.40" customHeight="1">
       <c r="A226" s="2" t="s">
         <v>416</v>
       </c>
@@ -14529,7 +14509,7 @@
         <v>RS_BU_003b</v>
       </c>
     </row>
-    <row r="227" spans="1:24" ht="15.75" customHeight="1">
+    <row r="227" spans="1:24" ht="14.40" customHeight="1">
       <c r="A227" s="2" t="s">
         <v>75</v>
       </c>
@@ -14574,7 +14554,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="228" spans="1:24" ht="15.75" customHeight="1">
+    <row r="228" spans="1:24" ht="14.40" customHeight="1">
       <c r="A228" s="2" t="s">
         <v>75</v>
       </c>
@@ -14622,7 +14602,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="229" spans="1:24" ht="117.75" customHeight="1">
+    <row r="229" spans="1:24" ht="14.40" customHeight="1">
       <c r="A229" s="2" t="s">
         <v>420</v>
       </c>
@@ -14633,7 +14613,7 @@
         <v>263</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>35</v>
@@ -14678,7 +14658,7 @@
         <v>RS_MC_YB_001</v>
       </c>
     </row>
-    <row r="230" spans="1:24" ht="15.75" customHeight="1">
+    <row r="230" spans="1:24" ht="14.40" customHeight="1">
       <c r="A230" s="2" t="s">
         <v>76</v>
       </c>
@@ -14726,7 +14706,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="231" spans="1:24" ht="15.75" customHeight="1">
+    <row r="231" spans="1:24" ht="14.40" customHeight="1">
       <c r="A231" s="2" t="s">
         <v>76</v>
       </c>
@@ -14774,7 +14754,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="232" spans="1:24" ht="15.75" customHeight="1">
+    <row r="232" spans="1:24" ht="14.40" customHeight="1">
       <c r="A232" s="2" t="s">
         <v>76</v>
       </c>
@@ -14822,7 +14802,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="233" spans="1:24" ht="15.75" customHeight="1">
+    <row r="233" spans="1:24" ht="14.40" customHeight="1">
       <c r="A233" s="2" t="s">
         <v>76</v>
       </c>
@@ -14870,7 +14850,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="234" spans="1:24" ht="15.75" customHeight="1">
+    <row r="234" spans="1:24" ht="14.40" customHeight="1">
       <c r="A234" s="2" t="s">
         <v>76</v>
       </c>
@@ -14918,7 +14898,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="235" spans="1:24" ht="15.75" customHeight="1">
+    <row r="235" spans="1:24" ht="14.40" customHeight="1">
       <c r="A235" s="2" t="s">
         <v>76</v>
       </c>
@@ -14966,7 +14946,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="236" spans="1:24" ht="15.75" customHeight="1">
+    <row r="236" spans="1:24" ht="14.40" customHeight="1">
       <c r="A236" s="2" t="s">
         <v>76</v>
       </c>
@@ -15014,7 +14994,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="237" spans="1:24" ht="15.75" customHeight="1">
+    <row r="237" spans="1:24" ht="14.40" customHeight="1">
       <c r="A237" s="2" t="s">
         <v>76</v>
       </c>
@@ -15062,7 +15042,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="238" spans="1:24" ht="15.75" customHeight="1">
+    <row r="238" spans="1:24" ht="14.40" customHeight="1">
       <c r="A238" s="2" t="s">
         <v>424</v>
       </c>
@@ -15129,7 +15109,7 @@
         <v>RS_M_CMDR_YP_001</v>
       </c>
     </row>
-    <row r="239" spans="1:24" ht="15.75" customHeight="1">
+    <row r="239" spans="1:24" ht="14.60">
       <c r="A239" s="2" t="s">
         <v>177</v>
       </c>
@@ -15142,7 +15122,9 @@
         <v>#NAME?</v>
       </c>
       <c r="H239" s="4"/>
-      <c r="I239" s="5"/>
+      <c r="I239" s="5" t="s">
+        <v>205</v>
+      </c>
       <c r="J239" s="5"/>
       <c r="K239" s="2" t="s">
         <v>39</v>
@@ -15177,7 +15159,7 @@
         <v>RS_Y</v>
       </c>
     </row>
-    <row r="240" spans="1:24" ht="15.75" customHeight="1">
+    <row r="240" spans="1:24" ht="14.40" customHeight="1">
       <c r="A240" s="2" t="s">
         <v>177</v>
       </c>
@@ -15225,7 +15207,7 @@
         <v>RS_Y</v>
       </c>
     </row>
-    <row r="241" spans="1:24" ht="15.75" customHeight="1">
+    <row r="241" spans="1:24" ht="14.40" customHeight="1">
       <c r="A241" s="2" t="s">
         <v>177</v>
       </c>
@@ -15273,7 +15255,7 @@
         <v>RS_Y</v>
       </c>
     </row>
-    <row r="242" spans="1:24" ht="15.75" customHeight="1">
+    <row r="242" spans="1:24" ht="14.40" customHeight="1">
       <c r="A242" s="2" t="s">
         <v>177</v>
       </c>
@@ -15321,7 +15303,7 @@
         <v>RS_Y</v>
       </c>
     </row>
-    <row r="243" spans="1:24" ht="15.75" customHeight="1">
+    <row r="243" spans="1:24" ht="14.40" customHeight="1">
       <c r="A243" s="2" t="s">
         <v>431</v>
       </c>
@@ -15378,7 +15360,7 @@
         <v>RS_MU_YP_001</v>
       </c>
     </row>
-    <row r="244" spans="1:24" ht="15.75" customHeight="1">
+    <row r="244" spans="1:24" ht="14.40" customHeight="1">
       <c r="A244" s="2" t="s">
         <v>435</v>
       </c>
@@ -15395,7 +15377,7 @@
         <v>26</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H244" s="4" t="s">
         <v>144</v>
@@ -15437,7 +15419,7 @@
         <v>RS_YU_003</v>
       </c>
     </row>
-    <row r="245" spans="1:24" ht="15.75" customHeight="1">
+    <row r="245" spans="1:24" ht="14.40" customHeight="1">
       <c r="A245" s="2" t="s">
         <v>75</v>
       </c>
@@ -15485,7 +15467,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="246" spans="1:24" ht="15.75" customHeight="1">
+    <row r="246" spans="1:24" ht="14.40" customHeight="1">
       <c r="A246" s="2" t="s">
         <v>75</v>
       </c>
@@ -15533,7 +15515,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="247" spans="1:24" ht="15.75" customHeight="1">
+    <row r="247" spans="1:24" ht="14.40" customHeight="1">
       <c r="A247" s="2" t="s">
         <v>75</v>
       </c>
@@ -15581,7 +15563,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="248" spans="1:24" ht="15.75" customHeight="1">
+    <row r="248" spans="1:24" ht="14.40" customHeight="1">
       <c r="A248" s="2" t="s">
         <v>75</v>
       </c>
@@ -15629,7 +15611,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="249" spans="1:24" ht="15.75" customHeight="1">
+    <row r="249" spans="1:24" ht="14.40" customHeight="1">
       <c r="A249" s="2" t="s">
         <v>438</v>
       </c>
@@ -15640,13 +15622,13 @@
         <v>263</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F249" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H249" s="4" t="s">
         <v>153</v>
@@ -15691,7 +15673,7 @@
         <v>RS_MC_YP_001</v>
       </c>
     </row>
-    <row r="250" spans="1:24" ht="15.75" customHeight="1">
+    <row r="250" spans="1:24" ht="14.40" customHeight="1">
       <c r="A250" s="2" t="s">
         <v>76</v>
       </c>
@@ -15739,7 +15721,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="251" spans="1:24" ht="15.75" customHeight="1">
+    <row r="251" spans="1:24" ht="14.40" customHeight="1">
       <c r="A251" s="2" t="s">
         <v>76</v>
       </c>
@@ -15787,7 +15769,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="252" spans="1:24" ht="15.75" customHeight="1">
+    <row r="252" spans="1:24" ht="14.40" customHeight="1">
       <c r="A252" s="2" t="s">
         <v>76</v>
       </c>
@@ -15835,7 +15817,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="253" spans="1:24" ht="15.75" customHeight="1">
+    <row r="253" spans="1:24" ht="14.40" customHeight="1">
       <c r="A253" s="2" t="s">
         <v>76</v>
       </c>
@@ -15883,7 +15865,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="254" spans="1:24" ht="15.75" customHeight="1">
+    <row r="254" spans="1:24" ht="14.40" customHeight="1">
       <c r="A254" s="2" t="s">
         <v>76</v>
       </c>
@@ -15931,7 +15913,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="255" spans="1:24" ht="15.75" customHeight="1">
+    <row r="255" spans="1:24" ht="14.40" customHeight="1">
       <c r="A255" s="2" t="s">
         <v>76</v>
       </c>
@@ -15979,7 +15961,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="256" spans="1:24" ht="15.75" customHeight="1">
+    <row r="256" spans="1:24" ht="14.40" customHeight="1">
       <c r="A256" s="2" t="s">
         <v>76</v>
       </c>
@@ -16027,7 +16009,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="257" spans="1:24" ht="15.75" customHeight="1">
+    <row r="257" spans="1:24" ht="14.40" customHeight="1">
       <c r="A257" s="2" t="s">
         <v>76</v>
       </c>
@@ -16075,7 +16057,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="258" spans="1:24" ht="15.75" customHeight="1">
+    <row r="258" spans="1:24" ht="14.40" customHeight="1">
       <c r="A258" s="2" t="s">
         <v>443</v>
       </c>
@@ -16135,7 +16117,7 @@
         <v>RS_M_CMDR_GB_001</v>
       </c>
     </row>
-    <row r="259" spans="1:24" ht="15.75" customHeight="1">
+    <row r="259" spans="1:24" ht="14.40" customHeight="1">
       <c r="A259" s="2" t="s">
         <v>445</v>
       </c>
@@ -16192,7 +16174,7 @@
         <v>RS_MR_GB_001</v>
       </c>
     </row>
-    <row r="260" spans="1:24" ht="15.75" customHeight="1">
+    <row r="260" spans="1:24" ht="14.40" customHeight="1">
       <c r="A260" s="2" t="s">
         <v>177</v>
       </c>
@@ -16241,7 +16223,7 @@
         <v>RS_Y</v>
       </c>
     </row>
-    <row r="261" spans="1:24" ht="15.75" customHeight="1">
+    <row r="261" spans="1:24" ht="14.40" customHeight="1">
       <c r="A261" s="2" t="s">
         <v>177</v>
       </c>
@@ -16289,7 +16271,7 @@
         <v>RS_Y</v>
       </c>
     </row>
-    <row r="262" spans="1:24" ht="15.75" customHeight="1">
+    <row r="262" spans="1:24" ht="14.40" customHeight="1">
       <c r="A262" s="2" t="s">
         <v>177</v>
       </c>
@@ -16337,7 +16319,7 @@
         <v>RS_Y</v>
       </c>
     </row>
-    <row r="263" spans="1:24" ht="15.75" customHeight="1">
+    <row r="263" spans="1:24" ht="14.40" customHeight="1">
       <c r="A263" s="2" t="s">
         <v>75</v>
       </c>
@@ -16385,7 +16367,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="264" spans="1:24" ht="15.75" customHeight="1">
+    <row r="264" spans="1:24" ht="14.60">
       <c r="A264" s="2" t="s">
         <v>75</v>
       </c>
@@ -16399,7 +16381,7 @@
       </c>
       <c r="H264" s="4"/>
       <c r="I264" s="5" t="s">
-        <v>449</v>
+        <v>205</v>
       </c>
       <c r="J264" s="5"/>
       <c r="K264" s="2" t="s">
@@ -16435,7 +16417,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="265" spans="1:24" ht="15.75" customHeight="1">
+    <row r="265" spans="1:24" ht="14.40" customHeight="1">
       <c r="A265" s="2" t="s">
         <v>75</v>
       </c>
@@ -16483,7 +16465,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="266" spans="1:24" ht="15.75" customHeight="1">
+    <row r="266" spans="1:24" ht="14.40" customHeight="1">
       <c r="A266" s="2" t="s">
         <v>75</v>
       </c>
@@ -16531,7 +16513,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="267" spans="1:24" ht="15.75" customHeight="1">
+    <row r="267" spans="1:24" ht="14.40" customHeight="1">
       <c r="A267" s="2" t="s">
         <v>75</v>
       </c>
@@ -16579,7 +16561,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="268" spans="1:24" ht="15.75" customHeight="1">
+    <row r="268" spans="1:24" ht="14.40" customHeight="1">
       <c r="A268" s="2" t="s">
         <v>75</v>
       </c>
@@ -16627,12 +16609,12 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="269" spans="1:24" ht="15.75" customHeight="1">
+    <row r="269" spans="1:24" ht="14.40" customHeight="1">
       <c r="A269" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B269" s="2" t="s">
         <v>450</v>
-      </c>
-      <c r="B269" s="2" t="s">
-        <v>451</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>392</v>
@@ -16653,7 +16635,7 @@
         <v>153</v>
       </c>
       <c r="I269" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J269" s="5"/>
       <c r="K269" s="2" t="n">
@@ -16689,7 +16671,7 @@
         <v>RS_BC_001</v>
       </c>
     </row>
-    <row r="270" spans="1:24" ht="15.75" customHeight="1">
+    <row r="270" spans="1:24" ht="14.40" customHeight="1">
       <c r="A270" s="2" t="s">
         <v>76</v>
       </c>
@@ -16737,7 +16719,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="271" spans="1:24" ht="15.75" customHeight="1">
+    <row r="271" spans="1:24" ht="14.40" customHeight="1">
       <c r="A271" s="2" t="s">
         <v>76</v>
       </c>
@@ -16785,7 +16767,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="272" spans="1:24" ht="15.75" customHeight="1">
+    <row r="272" spans="1:24" ht="14.40" customHeight="1">
       <c r="A272" s="2" t="s">
         <v>76</v>
       </c>
@@ -16833,7 +16815,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="273" spans="1:24" ht="15.75" customHeight="1">
+    <row r="273" spans="1:24" ht="14.40" customHeight="1">
       <c r="A273" s="2" t="s">
         <v>76</v>
       </c>
@@ -16881,7 +16863,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="274" spans="1:24" ht="15.75" customHeight="1">
+    <row r="274" spans="1:24" ht="14.40" customHeight="1">
       <c r="A274" s="2" t="s">
         <v>76</v>
       </c>
@@ -16930,7 +16912,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="275" spans="1:24" ht="15.75" customHeight="1">
+    <row r="275" spans="1:24" ht="14.40" customHeight="1">
       <c r="A275" s="2" t="s">
         <v>76</v>
       </c>
@@ -16979,7 +16961,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="276" spans="1:24" ht="15.75" customHeight="1">
+    <row r="276" spans="1:24" ht="14.40" customHeight="1">
       <c r="A276" s="2" t="s">
         <v>76</v>
       </c>
@@ -17028,7 +17010,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="277" spans="1:24" ht="15.75" customHeight="1">
+    <row r="277" spans="1:24" ht="14.40" customHeight="1">
       <c r="A277" s="2" t="s">
         <v>76</v>
       </c>
@@ -17077,9 +17059,9 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="278" spans="1:24" ht="15.75" customHeight="1">
+    <row r="278" spans="1:24" ht="14.40" customHeight="1">
       <c r="A278" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B278" s="2" t="str">
         <f>A278</f>
@@ -17090,16 +17072,16 @@
         <v>#NAME?</v>
       </c>
       <c r="G278" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H278" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I278" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J278" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K278" s="2" t="e">
         <v>#VALUE!</v>
@@ -17108,7 +17090,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="O278" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="Q278" s="2" t="n">
         <v>60</v>
@@ -17137,15 +17119,15 @@
         <v>RS_M_CMDR_GP_001</v>
       </c>
     </row>
-    <row r="279" spans="1:24" ht="15.75" customHeight="1">
+    <row r="279" spans="1:24" ht="14.40" customHeight="1">
       <c r="A279" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B279" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="B279" s="2" t="s">
+      <c r="C279" s="3" t="s">
         <v>456</v>
-      </c>
-      <c r="C279" s="3" t="s">
-        <v>457</v>
       </c>
       <c r="D279" s="1" t="e">
         <v>#NAME?</v>
@@ -17154,13 +17136,13 @@
         <v>26</v>
       </c>
       <c r="G279" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H279" s="4" t="s">
         <v>223</v>
       </c>
       <c r="I279" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J279" s="5"/>
       <c r="K279" s="2" t="s">
@@ -17170,7 +17152,7 @@
         <v>39</v>
       </c>
       <c r="O279" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="Q279" s="2" t="n">
         <v>50</v>
@@ -17199,7 +17181,7 @@
         <v>RS_MR_GP_001</v>
       </c>
     </row>
-    <row r="280" spans="1:24" ht="15.75" customHeight="1">
+    <row r="280" spans="1:24" ht="14.60">
       <c r="A280" s="2" t="s">
         <v>177</v>
       </c>
@@ -17212,7 +17194,9 @@
         <v>#NAME?</v>
       </c>
       <c r="H280" s="4"/>
-      <c r="I280" s="5"/>
+      <c r="I280" s="5" t="s">
+        <v>205</v>
+      </c>
       <c r="J280" s="5"/>
       <c r="K280" s="2" t="s">
         <v>39</v>
@@ -17248,7 +17232,7 @@
         <v>RS_Y</v>
       </c>
     </row>
-    <row r="281" spans="1:24" ht="15.75" customHeight="1">
+    <row r="281" spans="1:24" ht="14.40" customHeight="1">
       <c r="A281" s="2" t="s">
         <v>177</v>
       </c>
@@ -17296,7 +17280,7 @@
         <v>RS_Y</v>
       </c>
     </row>
-    <row r="282" spans="1:24" ht="15.75" customHeight="1">
+    <row r="282" spans="1:24" ht="14.40" customHeight="1">
       <c r="A282" s="2" t="s">
         <v>177</v>
       </c>
@@ -17344,7 +17328,7 @@
         <v>RS_Y</v>
       </c>
     </row>
-    <row r="283" spans="1:24" ht="15.75" customHeight="1">
+    <row r="283" spans="1:24" ht="14.40" customHeight="1">
       <c r="A283" s="2" t="s">
         <v>75</v>
       </c>
@@ -17392,7 +17376,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="284" spans="1:24" ht="15.75" customHeight="1">
+    <row r="284" spans="1:24" ht="14.40" customHeight="1">
       <c r="A284" s="2" t="s">
         <v>75</v>
       </c>
@@ -17440,7 +17424,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="285" spans="1:24" ht="15.75" customHeight="1">
+    <row r="285" spans="1:24" ht="14.40" customHeight="1">
       <c r="A285" s="2" t="s">
         <v>75</v>
       </c>
@@ -17489,7 +17473,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="286" spans="1:24" ht="15.75" customHeight="1">
+    <row r="286" spans="1:24" ht="14.40" customHeight="1">
       <c r="A286" s="2" t="s">
         <v>75</v>
       </c>
@@ -17538,7 +17522,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="287" spans="1:24" ht="15.75" customHeight="1">
+    <row r="287" spans="1:24" ht="14.40" customHeight="1">
       <c r="A287" s="2" t="s">
         <v>75</v>
       </c>
@@ -17587,7 +17571,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="288" spans="1:24" ht="15.75" customHeight="1">
+    <row r="288" spans="1:24" ht="14.40" customHeight="1">
       <c r="A288" s="2" t="s">
         <v>75</v>
       </c>
@@ -17636,7 +17620,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="289" spans="1:24" ht="15.75" customHeight="1">
+    <row r="289" spans="1:24" ht="14.40" customHeight="1">
       <c r="A289" s="2" t="s">
         <v>76</v>
       </c>
@@ -17685,7 +17669,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="290" spans="1:24" ht="15.75" customHeight="1">
+    <row r="290" spans="1:24" ht="14.40" customHeight="1">
       <c r="A290" s="2" t="s">
         <v>76</v>
       </c>
@@ -17734,7 +17718,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="291" spans="1:24" ht="15.75" customHeight="1">
+    <row r="291" spans="1:24" ht="14.40" customHeight="1">
       <c r="A291" s="2" t="s">
         <v>76</v>
       </c>
@@ -17783,7 +17767,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="292" spans="1:24" ht="15.75" customHeight="1">
+    <row r="292" spans="1:24" ht="14.40" customHeight="1">
       <c r="A292" s="2" t="s">
         <v>76</v>
       </c>
@@ -17832,7 +17816,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="293" spans="1:24" ht="15.75" customHeight="1">
+    <row r="293" spans="1:24" ht="14.40" customHeight="1">
       <c r="A293" s="2" t="s">
         <v>76</v>
       </c>
@@ -17881,7 +17865,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="294" spans="1:24" ht="15.75" customHeight="1">
+    <row r="294" spans="1:24" ht="14.40" customHeight="1">
       <c r="A294" s="2" t="s">
         <v>76</v>
       </c>
@@ -17930,7 +17914,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="295" spans="1:24" ht="15.75" customHeight="1">
+    <row r="295" spans="1:24" ht="14.40" customHeight="1">
       <c r="A295" s="2" t="s">
         <v>76</v>
       </c>
@@ -17979,7 +17963,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="296" spans="1:24" ht="15.75" customHeight="1">
+    <row r="296" spans="1:24" ht="14.40" customHeight="1">
       <c r="A296" s="2" t="s">
         <v>76</v>
       </c>
@@ -18028,7 +18012,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="297" spans="1:24" ht="15.75" customHeight="1">
+    <row r="297" spans="1:24" ht="14.40" customHeight="1">
       <c r="A297" s="2" t="s">
         <v>76</v>
       </c>
@@ -18077,9 +18061,9 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="298" spans="1:24" ht="15.75" customHeight="1">
+    <row r="298" spans="1:24" ht="14.40" customHeight="1">
       <c r="A298" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B298" s="2" t="str">
         <f>A298</f>
@@ -18090,16 +18074,16 @@
         <v>#NAME?</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H298" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I298" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J298" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="K298" s="2" t="e">
         <v>#VALUE!</v>
@@ -18108,7 +18092,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="O298" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="Q298" s="2" t="n">
         <v>60</v>
@@ -18137,7 +18121,7 @@
         <v>RS_M_CMDR_BP_001</v>
       </c>
     </row>
-    <row r="299" spans="1:24" ht="15.75" customHeight="1">
+    <row r="299" spans="1:24" ht="14.60">
       <c r="A299" s="2" t="s">
         <v>177</v>
       </c>
@@ -18150,7 +18134,9 @@
         <v>#NAME?</v>
       </c>
       <c r="H299" s="4"/>
-      <c r="I299" s="5"/>
+      <c r="I299" s="5" t="s">
+        <v>205</v>
+      </c>
       <c r="J299" s="5"/>
       <c r="K299" s="2" t="s">
         <v>39</v>
@@ -18186,7 +18172,7 @@
         <v>RS_Y</v>
       </c>
     </row>
-    <row r="300" spans="1:24" ht="15.75" customHeight="1">
+    <row r="300" spans="1:24" ht="14.40" customHeight="1">
       <c r="A300" s="2" t="s">
         <v>177</v>
       </c>
@@ -18235,7 +18221,7 @@
         <v>RS_Y</v>
       </c>
     </row>
-    <row r="301" spans="1:24" ht="15.75" customHeight="1">
+    <row r="301" spans="1:24" ht="14.40" customHeight="1">
       <c r="A301" s="2" t="s">
         <v>177</v>
       </c>
@@ -18283,7 +18269,7 @@
         <v>RS_Y</v>
       </c>
     </row>
-    <row r="302" spans="1:24" ht="15.75" customHeight="1">
+    <row r="302" spans="1:24" ht="14.40" customHeight="1">
       <c r="A302" s="2" t="s">
         <v>177</v>
       </c>
@@ -18331,7 +18317,7 @@
         <v>RS_Y</v>
       </c>
     </row>
-    <row r="303" spans="1:24" ht="15.75" customHeight="1">
+    <row r="303" spans="1:24" ht="14.40" customHeight="1">
       <c r="A303" s="2" t="s">
         <v>75</v>
       </c>
@@ -18379,7 +18365,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="304" spans="1:24" ht="15.75" customHeight="1">
+    <row r="304" spans="1:24" ht="14.40" customHeight="1">
       <c r="A304" s="2" t="s">
         <v>75</v>
       </c>
@@ -18427,7 +18413,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="305" spans="1:24" ht="15.75" customHeight="1">
+    <row r="305" spans="1:24" ht="14.40" customHeight="1">
       <c r="A305" s="2" t="s">
         <v>75</v>
       </c>
@@ -18475,7 +18461,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="306" spans="1:24" ht="15.75" customHeight="1">
+    <row r="306" spans="1:24" ht="14.40" customHeight="1">
       <c r="A306" s="2" t="s">
         <v>75</v>
       </c>
@@ -18523,7 +18509,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="307" spans="1:24" ht="15.75" customHeight="1">
+    <row r="307" spans="1:24" ht="14.40" customHeight="1">
       <c r="A307" s="2" t="s">
         <v>75</v>
       </c>
@@ -18571,7 +18557,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="308" spans="1:24" ht="15.75" customHeight="1">
+    <row r="308" spans="1:24" ht="14.40" customHeight="1">
       <c r="A308" s="2" t="s">
         <v>75</v>
       </c>
@@ -18619,7 +18605,7 @@
         <v>RS_U</v>
       </c>
     </row>
-    <row r="309" spans="1:24" ht="15.75" customHeight="1">
+    <row r="309" spans="1:24" ht="14.40" customHeight="1">
       <c r="A309" s="2" t="s">
         <v>76</v>
       </c>
@@ -18667,7 +18653,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="310" spans="1:24" ht="15.75" customHeight="1">
+    <row r="310" spans="1:24" ht="14.40" customHeight="1">
       <c r="A310" s="2" t="s">
         <v>76</v>
       </c>
@@ -18715,7 +18701,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="311" spans="1:24" ht="15.75" customHeight="1">
+    <row r="311" spans="1:24" ht="14.40" customHeight="1">
       <c r="A311" s="2" t="s">
         <v>76</v>
       </c>
@@ -18764,7 +18750,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="312" spans="1:24" ht="15.75" customHeight="1">
+    <row r="312" spans="1:24" ht="14.40" customHeight="1">
       <c r="A312" s="2" t="s">
         <v>76</v>
       </c>
@@ -18813,7 +18799,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="313" spans="1:24" ht="15.75" customHeight="1">
+    <row r="313" spans="1:24" ht="14.40" customHeight="1">
       <c r="A313" s="2" t="s">
         <v>76</v>
       </c>
@@ -18862,7 +18848,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="314" spans="1:24" ht="15.75" customHeight="1">
+    <row r="314" spans="1:24" ht="14.40" customHeight="1">
       <c r="A314" s="2" t="s">
         <v>76</v>
       </c>
@@ -18911,7 +18897,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="315" spans="1:24" ht="15.75" customHeight="1">
+    <row r="315" spans="1:24" ht="14.40" customHeight="1">
       <c r="A315" s="2" t="s">
         <v>76</v>
       </c>
@@ -18960,7 +18946,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="316" spans="1:24" ht="15.75" customHeight="1">
+    <row r="316" spans="1:24" ht="14.40" customHeight="1">
       <c r="A316" s="2" t="s">
         <v>76</v>
       </c>
@@ -19009,7 +18995,7 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="317" spans="1:24" ht="15.75" customHeight="1">
+    <row r="317" spans="1:24" ht="14.40" customHeight="1">
       <c r="A317" s="2" t="s">
         <v>76</v>
       </c>
@@ -19058,15 +19044,15 @@
         <v>RS_C</v>
       </c>
     </row>
-    <row r="318" spans="1:24" ht="15.75" customHeight="1">
+    <row r="318" spans="1:24" ht="14.60">
       <c r="A318" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B318" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="B318" s="2" t="s">
-        <v>465</v>
-      </c>
       <c r="C318" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D318" s="1" t="e">
         <v>#NAME?</v>
@@ -19075,13 +19061,13 @@
         <v>26</v>
       </c>
       <c r="G318" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H318" s="4" t="s">
         <v>70</v>
       </c>
       <c r="I318" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J318" s="5"/>
       <c r="K318" s="2" t="s">
@@ -19118,7 +19104,7 @@
         <v>RS_MU_RY_005</v>
       </c>
     </row>
-    <row r="319" spans="3:24" ht="15.75" customHeight="1">
+    <row r="319" spans="3:24" ht="14.40" customHeight="1">
       <c r="C319" s="3"/>
       <c r="D319" s="1"/>
       <c r="H319" s="4"/>
@@ -19158,7 +19144,7 @@
         <v>RS_</v>
       </c>
     </row>
-    <row r="320" spans="3:24" ht="15.75" customHeight="1">
+    <row r="320" spans="3:24" ht="14.40" customHeight="1">
       <c r="C320" s="3"/>
       <c r="D320" s="1"/>
       <c r="H320" s="4"/>
@@ -19198,7 +19184,7 @@
         <v>RS_</v>
       </c>
     </row>
-    <row r="321" spans="19:24" ht="15.75" customHeight="1">
+    <row r="321" spans="19:24" ht="14.40" customHeight="1">
       <c r="S321" s="2" t="e">
         <v>#NAME?</v>
       </c>
@@ -19220,7 +19206,7 @@
         <v>RS_</v>
       </c>
     </row>
-    <row r="322" spans="19:24" ht="15.75" customHeight="1">
+    <row r="322" spans="19:24" ht="14.40" customHeight="1">
       <c r="S322" s="2" t="e">
         <v>#NAME?</v>
       </c>
@@ -19242,7 +19228,7 @@
         <v>RS_</v>
       </c>
     </row>
-    <row r="323" spans="19:24" ht="15.75" customHeight="1">
+    <row r="323" spans="19:24" ht="14.40" customHeight="1">
       <c r="S323" s="2" t="e">
         <v>#NAME?</v>
       </c>
@@ -19264,7 +19250,7 @@
         <v>RS_</v>
       </c>
     </row>
-    <row r="324" spans="19:24" ht="15.75" customHeight="1">
+    <row r="324" spans="19:24" ht="14.40" customHeight="1">
       <c r="S324" s="2" t="e">
         <v>#NAME?</v>
       </c>
@@ -19286,7 +19272,7 @@
         <v>RS_</v>
       </c>
     </row>
-    <row r="325" spans="19:24" ht="15.75" customHeight="1">
+    <row r="325" spans="19:24" ht="14.40" customHeight="1">
       <c r="S325" s="2" t="e">
         <v>#NAME?</v>
       </c>
@@ -19308,7 +19294,7 @@
         <v>RS_</v>
       </c>
     </row>
-    <row r="326" spans="19:24" ht="15.75" customHeight="1">
+    <row r="326" spans="19:24" ht="14.40" customHeight="1">
       <c r="S326" s="2" t="e">
         <v>#NAME?</v>
       </c>
@@ -19330,7 +19316,7 @@
         <v>RS_</v>
       </c>
     </row>
-    <row r="327" spans="19:24" ht="15.75" customHeight="1">
+    <row r="327" spans="19:24" ht="14.40" customHeight="1">
       <c r="S327" s="2" t="e">
         <v>#NAME?</v>
       </c>
@@ -19352,7 +19338,7 @@
         <v>RS_</v>
       </c>
     </row>
-    <row r="328" spans="19:24" ht="15.75" customHeight="1">
+    <row r="328" spans="19:24" ht="14.40" customHeight="1">
       <c r="S328" s="2" t="e">
         <v>#NAME?</v>
       </c>
@@ -19374,7 +19360,7 @@
         <v>RS_</v>
       </c>
     </row>
-    <row r="329" spans="19:24" ht="15.75" customHeight="1">
+    <row r="329" spans="19:24" ht="14.40" customHeight="1">
       <c r="S329" s="2" t="e">
         <v>#NAME?</v>
       </c>
@@ -19396,7 +19382,7 @@
         <v>RS_</v>
       </c>
     </row>
-    <row r="330" spans="19:24" ht="15.75" customHeight="1">
+    <row r="330" spans="19:24" ht="14.40" customHeight="1">
       <c r="S330" s="2" t="e">
         <v>#NAME?</v>
       </c>
@@ -19418,7 +19404,7 @@
         <v>RS_</v>
       </c>
     </row>
-    <row r="331" spans="19:24" ht="15.75" customHeight="1">
+    <row r="331" spans="19:24" ht="14.40" customHeight="1">
       <c r="S331" s="2" t="e">
         <v>#NAME?</v>
       </c>
@@ -19440,7 +19426,7 @@
         <v>RS_</v>
       </c>
     </row>
-    <row r="332" spans="19:24" ht="15.75" customHeight="1">
+    <row r="332" spans="19:24" ht="14.40" customHeight="1">
       <c r="S332" s="2" t="e">
         <v>#NAME?</v>
       </c>
@@ -19462,7 +19448,7 @@
         <v>RS_</v>
       </c>
     </row>
-    <row r="333" spans="19:24" ht="15.75" customHeight="1">
+    <row r="333" spans="19:24" ht="14.40" customHeight="1">
       <c r="S333" s="2" t="e">
         <v>#NAME?</v>
       </c>
@@ -19484,7 +19470,7 @@
         <v>RS_</v>
       </c>
     </row>
-    <row r="334" spans="19:24" ht="15.75" customHeight="1">
+    <row r="334" spans="19:24" ht="14.40" customHeight="1">
       <c r="S334" s="2" t="e">
         <v>#NAME?</v>
       </c>
@@ -19506,7 +19492,7 @@
         <v>RS_</v>
       </c>
     </row>
-    <row r="335" spans="19:24" ht="15.75" customHeight="1">
+    <row r="335" spans="19:24" ht="14.40" customHeight="1">
       <c r="S335" s="2" t="e">
         <v>#NAME?</v>
       </c>
@@ -19528,7 +19514,7 @@
         <v>RS_</v>
       </c>
     </row>
-    <row r="336" spans="19:24" ht="15.75" customHeight="1">
+    <row r="336" spans="19:24" ht="14.40" customHeight="1">
       <c r="S336" s="2" t="e">
         <v>#NAME?</v>
       </c>
@@ -19550,7 +19536,7 @@
         <v>RS_</v>
       </c>
     </row>
-    <row r="337" spans="19:24" ht="15.75" customHeight="1">
+    <row r="337" spans="19:24" ht="14.40" customHeight="1">
       <c r="S337" s="2" t="e">
         <v>#NAME?</v>
       </c>
@@ -19572,7 +19558,7 @@
         <v>RS_</v>
       </c>
     </row>
-    <row r="338" spans="19:24" ht="15.75" customHeight="1">
+    <row r="338" spans="19:24" ht="14.40" customHeight="1">
       <c r="S338" s="2" t="e">
         <v>#NAME?</v>
       </c>
@@ -19594,7 +19580,7 @@
         <v>RS_</v>
       </c>
     </row>
-    <row r="339" spans="19:24" ht="15.75" customHeight="1">
+    <row r="339" spans="19:24" ht="14.40" customHeight="1">
       <c r="S339" s="2" t="e">
         <v>#NAME?</v>
       </c>
@@ -19616,7 +19602,7 @@
         <v>RS_</v>
       </c>
     </row>
-    <row r="340" spans="19:24" ht="15.75" customHeight="1">
+    <row r="340" spans="19:24" ht="14.40" customHeight="1">
       <c r="S340" s="2" t="e">
         <v>#NAME?</v>
       </c>
@@ -19638,7 +19624,7 @@
         <v>RS_</v>
       </c>
     </row>
-    <row r="341" spans="19:24" ht="15.75" customHeight="1">
+    <row r="341" spans="19:24" ht="14.40" customHeight="1">
       <c r="S341" s="2" t="e">
         <v>#NAME?</v>
       </c>
@@ -19660,7 +19646,7 @@
         <v>RS_</v>
       </c>
     </row>
-    <row r="342" spans="19:24" ht="15.75" customHeight="1">
+    <row r="342" spans="19:24" ht="14.40" customHeight="1">
       <c r="S342" s="2" t="e">
         <v>#NAME?</v>
       </c>
@@ -19682,7 +19668,7 @@
         <v>RS_</v>
       </c>
     </row>
-    <row r="343" spans="19:24" ht="15.75" customHeight="1">
+    <row r="343" spans="19:24" ht="14.40" customHeight="1">
       <c r="S343" s="2" t="e">
         <v>#NAME?</v>
       </c>
@@ -19704,7 +19690,7 @@
         <v>RS_</v>
       </c>
     </row>
-    <row r="344" spans="19:24" ht="15.75" customHeight="1">
+    <row r="344" spans="19:24" ht="14.40" customHeight="1">
       <c r="S344" s="2" t="e">
         <v>#NAME?</v>
       </c>
@@ -19726,7 +19712,7 @@
         <v>RS_</v>
       </c>
     </row>
-    <row r="345" spans="19:24" ht="15.75" customHeight="1">
+    <row r="345" spans="19:24" ht="14.40" customHeight="1">
       <c r="S345" s="2" t="e">
         <v>#NAME?</v>
       </c>
@@ -19748,7 +19734,7 @@
         <v>RS_</v>
       </c>
     </row>
-    <row r="346" spans="19:24" ht="15.75" customHeight="1">
+    <row r="346" spans="19:24" ht="14.40" customHeight="1">
       <c r="S346" s="2" t="e">
         <v>#NAME?</v>
       </c>
@@ -19770,7 +19756,7 @@
         <v>RS_</v>
       </c>
     </row>
-    <row r="347" spans="19:24" ht="15.75" customHeight="1">
+    <row r="347" spans="19:24" ht="14.40" customHeight="1">
       <c r="S347" s="2" t="e">
         <v>#NAME?</v>
       </c>
@@ -19792,7 +19778,7 @@
         <v>RS_</v>
       </c>
     </row>
-    <row r="348" spans="19:24" ht="15.75" customHeight="1">
+    <row r="348" spans="19:24" ht="14.40" customHeight="1">
       <c r="S348" s="2" t="e">
         <v>#NAME?</v>
       </c>
@@ -19814,7 +19800,7 @@
         <v>RS_</v>
       </c>
     </row>
-    <row r="349" spans="19:24" ht="15.75" customHeight="1">
+    <row r="349" spans="19:24" ht="14.40" customHeight="1">
       <c r="S349" s="2" t="e">
         <v>#NAME?</v>
       </c>
@@ -19836,7 +19822,7 @@
         <v>RS_</v>
       </c>
     </row>
-    <row r="350" spans="19:24" ht="15.75" customHeight="1">
+    <row r="350" spans="19:24" ht="14.40" customHeight="1">
       <c r="S350" s="2" t="e">
         <v>#NAME?</v>
       </c>
@@ -19858,7 +19844,7 @@
         <v>RS_</v>
       </c>
     </row>
-    <row r="351" spans="19:24" ht="15.75" customHeight="1">
+    <row r="351" spans="19:24" ht="14.40" customHeight="1">
       <c r="S351" s="2" t="e">
         <v>#NAME?</v>
       </c>
@@ -19880,7 +19866,7 @@
         <v>RS_</v>
       </c>
     </row>
-    <row r="352" spans="19:24" ht="15.75" customHeight="1">
+    <row r="352" spans="19:24" ht="14.40" customHeight="1">
       <c r="S352" s="2" t="e">
         <v>#NAME?</v>
       </c>
@@ -19902,7 +19888,7 @@
         <v>RS_</v>
       </c>
     </row>
-    <row r="353" spans="19:24" ht="15.75" customHeight="1">
+    <row r="353" spans="19:24" ht="14.40" customHeight="1">
       <c r="S353" s="2" t="e">
         <v>#NAME?</v>
       </c>
@@ -19924,7 +19910,7 @@
         <v>RS_</v>
       </c>
     </row>
-    <row r="354" spans="19:24" ht="15.75" customHeight="1">
+    <row r="354" spans="19:24" ht="14.40" customHeight="1">
       <c r="S354" s="2" t="e">
         <v>#NAME?</v>
       </c>
@@ -19946,7 +19932,7 @@
         <v>RS_</v>
       </c>
     </row>
-    <row r="355" spans="19:24" ht="15.75" customHeight="1">
+    <row r="355" spans="19:24" ht="14.40" customHeight="1">
       <c r="S355" s="2" t="e">
         <v>#NAME?</v>
       </c>
@@ -19998,7 +19984,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1699823592" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1700710900" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -20007,15 +19993,15 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1699823592" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1699823592" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1700710900" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1700710900" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <legacyDrawing r:id="rId4"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1699823592" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1700710900" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -20040,7 +20026,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1699823592" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1700710900" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -20049,14 +20035,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1699823592" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1699823592" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1700710900" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1700710900" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1699823592" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1700710900" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/CardDatabases/Rising Spirits.xlsx
+++ b/CardDatabases/Rising Spirits.xlsx
@@ -14,10 +14,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1715491302" val="1068" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1715491302" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1715491302" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1715491302"/>
+      <pm:revision xmlns:pm="smNativeData" day="1715571908" val="1068" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1715571908" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1715571908" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1715571908"/>
     </ext>
   </extLst>
 </workbook>
@@ -29,7 +29,7 @@
     <author>Unknown</author>
   </authors>
   <commentList>
-    <comment ref="B200" authorId="0">
+    <comment ref="B201" authorId="0">
       <text>
         <r>
           <t>======
@@ -70,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I319" authorId="0">
+    <comment ref="I320" authorId="0">
       <text>
         <r>
           <t>======
@@ -140,7 +140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B221" authorId="0">
+    <comment ref="B222" authorId="0">
       <text>
         <r>
           <t>======
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="541">
   <si>
     <t>Slot</t>
   </si>
@@ -307,7 +307,7 @@
     <t>4RO</t>
   </si>
   <si>
-    <t>OO_001b</t>
+    <t>OR_001b</t>
   </si>
   <si>
     <t>Ebony Thug</t>
@@ -358,82 +358,97 @@
     <t>"The respirator in my throat will stop the gas, least that's what they told me."</t>
   </si>
   <si>
+    <t>MU_RO_001</t>
+  </si>
+  <si>
+    <t>?, Back Alley Double Agent</t>
+  </si>
+  <si>
+    <t>1RO</t>
+  </si>
+  <si>
+    <t>R. Asset</t>
+  </si>
+  <si>
+    <t>Augmented Spy</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>&lt;center&gt;(Becomes &lt;i&gt;'?'s Counter-Espionage'&lt;/i&gt; if there is already a ~ on the battlefield.)&lt;/center&gt;&lt;p&gt;~@ enters the battlefield under the control of an opponent of your choice.&lt;/p&gt;&lt;p&gt;Any player may pay ~@'s cost to gain control of it.&lt;/p&gt;&lt;p&gt;Whenever ~@ attacks, you draw a card and shuffle 2 &lt;i&gt;'Doubt'&lt;/i&gt;s into your deck.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>3RO</t>
+  </si>
+  <si>
+    <t>MU_RO_001b</t>
+  </si>
+  <si>
+    <t>?'s Counter-Espionage</t>
+  </si>
+  <si>
+    <t>__</t>
+  </si>
+  <si>
+    <t>Multicolor</t>
+  </si>
+  <si>
+    <t>R. Effect</t>
+  </si>
+  <si>
+    <t>&lt;u&gt;Response&lt;/u&gt;</t>
+  </si>
+  <si>
+    <t>&lt;center&gt;(This effect can only be deployed if you control a renowned asset.  [_] can be paid with [R] or [O].)&lt;br/&gt;&lt;u&gt;Rumor 3&lt;/u&gt; (The owner of ~'s target shuffles 3 &lt;i&gt;'Doubt'&lt;/i&gt;s into their deck.)&lt;/center&gt;&lt;p&gt;Choose 2 players; shuffle all tragedy cards in the first player's deck into the second player's deck.&lt;/p&gt;&lt;p&gt;&lt;u&gt;Personal&lt;/u&gt; (Shuffle &lt;i&gt;'?, Back Alley Double Agent'&lt;/i&gt; into your deck.)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>RU_004</t>
+  </si>
+  <si>
+    <t>Back Alley Beatdown</t>
+  </si>
+  <si>
+    <t>3RR</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>&lt;center&gt;&lt;u&gt;Warrant&lt;/u&gt; (When you deploy ~, shuffle an 'Incarceration' into your deck.)&lt;/center&gt;&lt;p&gt;Chose an asset; until end of turn, gain control of it.&lt;/p&gt;&lt;p&gt;That asset's owner shuffles 2 &lt;i&gt;'Broken Bone'&lt;/i&gt;s into their deck.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>5RR</t>
+  </si>
+  <si>
+    <t>MU_RO_002</t>
+  </si>
+  <si>
+    <t>Pinch Pennies</t>
+  </si>
+  <si>
+    <t>Choose an opponent, then that opponent has a 75% chance to discard the card in their hand with lowest generalized cost, otherwise that opponent discards the card in their hand with highest generalized cost.</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
     <t>prepare, exchange, append, go second, discovery</t>
   </si>
   <si>
-    <t>MU_RO_001</t>
-  </si>
-  <si>
-    <t>?, Back Alley Double Agent</t>
-  </si>
-  <si>
-    <t>1RO</t>
-  </si>
-  <si>
-    <t>R. Asset</t>
-  </si>
-  <si>
-    <t>Augmented Spy</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>&lt;center&gt;(Becomes &lt;i&gt;'?'s Counter-Espionage'&lt;/i&gt; if there is already a ~ on the battlefield.)&lt;/center&gt;&lt;p&gt;~@ enters the battlefield under the control of an opponent of your choice.&lt;/p&gt;&lt;p&gt;Any player may pay ~@'s cost to gain control of it.&lt;/p&gt;&lt;p&gt;Whenever ~@ attacks, you draw a card and shuffle 2 &lt;i&gt;'Doubt'&lt;/i&gt;s into your deck.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>3RO</t>
-  </si>
-  <si>
-    <t>MU_RO_001b</t>
-  </si>
-  <si>
-    <t>?'s Counter-Espionage</t>
-  </si>
-  <si>
-    <t>__</t>
-  </si>
-  <si>
-    <t>Multicolor</t>
-  </si>
-  <si>
-    <t>R. Effect</t>
-  </si>
-  <si>
-    <t>&lt;u&gt;Response&lt;/u&gt;</t>
-  </si>
-  <si>
-    <t>&lt;center&gt;(This effect can only be deployed if you control a renowned asset.  [_] can be paid with [R] or [O].)&lt;br/&gt;&lt;u&gt;Rumor 3&lt;/u&gt; (The owner of ~'s target shuffles 3 &lt;i&gt;'Doubt'&lt;/i&gt;s into their deck.)&lt;/center&gt;&lt;p&gt;Choose 2 players; shuffle all tragedy cards in the first player's deck into the second player's deck.&lt;/p&gt;&lt;p&gt;&lt;u&gt;Personal&lt;/u&gt; (Shuffle &lt;i&gt;'?, Back Alley Double Agent'&lt;/i&gt; into your deck.)&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>RU_004</t>
-  </si>
-  <si>
-    <t>Back Alley Beatdown</t>
-  </si>
-  <si>
-    <t>3RR</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>&lt;center&gt;&lt;u&gt;Warrant&lt;/u&gt; (When you deploy ~, shuffle an 'Incarceration' into your deck.)&lt;/center&gt;&lt;p&gt;Chose an asset; until end of turn, gain control of it.&lt;/p&gt;&lt;p&gt;That asset's owner shuffles 2 &lt;i&gt;'Broken Bone'&lt;/i&gt;s into their deck.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>5RR</t>
-  </si>
-  <si>
-    <t>RU_005</t>
-  </si>
-  <si>
-    <t>Pinch Pennies</t>
-  </si>
-  <si>
-    <t>Choose an opponent, then that opponent has a 75% chance to discard the card in their hand with lowest generalized cost, otherwise that opponent discards the card in their hand with highest generalized cost.</t>
-  </si>
-  <si>
-    <t>U</t>
+    <t>OC_001</t>
+  </si>
+  <si>
+    <t>Make Sure They Forget</t>
+  </si>
+  <si>
+    <t>OOO</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;~ costs [O] less to deploy if you didn't go first.&lt;/p&gt;&lt;p&gt;Choose a card on the stack, move it to the top of its owner's deck, none of its effects happen.&lt;/p&gt;</t>
   </si>
   <si>
     <t>C</t>
@@ -985,9 +1000,6 @@
     <t>Necessary Politics</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>&lt;center&gt;(This card can't be deployed, only appended)&lt;/center&gt;&lt;p&gt;&lt;u&gt;Append to Opponent's Effect [R][P]&lt;/u&gt; (As an opponent deploys an effect you may reveal ~ and pay [R][P]. If you do add this card's effects as it resolves; it loses those effects once it leaves the stack.)&lt;/p&gt;&lt;p&gt;~'s controller chooses one: &lt;ul&gt;Draw two cards, your commander loses two loyalty.&lt;br/&gt;Choose an opponent to discard two cards, your commander gains two loyalty.&lt;/ul&gt;&lt;/p&gt;</t>
   </si>
   <si>
@@ -1126,9 +1138,6 @@
     <t>Anti-Establishment Hymnist</t>
   </si>
   <si>
-    <t>OOO</t>
-  </si>
-  <si>
     <t>Augmented Male Civilian Musician</t>
   </si>
   <si>
@@ -1349,6 +1358,33 @@
   </si>
   <si>
     <t>Shield midrange</t>
+  </si>
+  <si>
+    <t>OU_002</t>
+  </si>
+  <si>
+    <t>Illusive Megaladon</t>
+  </si>
+  <si>
+    <t>Dinosaur Fish</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;When ~ resolves, every player creates an &lt;i&gt;'Ocean Riptide'&lt;/i&gt;.&lt;/p&gt;&lt;p&gt;If you control no Oceans &lt;u&gt;Forfeit&lt;/u&gt; ~.&lt;/p&gt;&lt;p&gt;~ can only attack players who control an Ocean.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>These creatures are so rare, many think they are a myth.</t>
+  </si>
+  <si>
+    <t>OU_002b</t>
+  </si>
+  <si>
+    <t>Ocean Riptide</t>
+  </si>
+  <si>
+    <t>Source Ocean</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;[T], [G][O], &lt;u&gt;Forfeit&lt;/u&gt; (Put the specified card into its owner's discard.) ~: Search your deck for a Generator card, put it into the battlefield, then shuffle your deck.&lt;/p&gt;&lt;p&gt;[T], [G][G][O][O], &lt;u&gt;Forfeit&lt;/u&gt; ~: Search your deck for a card, put it onto the battlefield as a Generator with &lt;u&gt;Quick Hire&lt;/u&gt; (When it is hired as a generator, it can be utilized as soon as it is hired.), then shuffle your deck.&lt;/p&gt;</t>
   </si>
   <si>
     <t>M_CMDR_OB_001</t>
@@ -1797,7 +1833,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1715491302" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1715571908" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -1812,7 +1848,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1715491302" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1715571908" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -1827,7 +1863,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1715491302" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1715571908" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1841,7 +1877,7 @@
       <sz val="15"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1715491302" fgClr="222222" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1715571908" fgClr="222222" ulstyle="none" kern="1">
             <pm:latin face="&quot;Lucida Grande&quot;" sz="300" lang="default"/>
             <pm:cs face="Basic Roman" sz="300" lang="default"/>
             <pm:ea face="Basic Roman" sz="300" lang="default"/>
@@ -1857,7 +1893,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1715491302" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1715571908" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1874,7 +1910,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1715491302" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1715571908" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1897,7 +1933,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715491302" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715571908" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1908,7 +1944,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715491302" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715571908" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1930,7 +1966,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715491302"/>
+          <pm:border xmlns:pm="smNativeData" id="1715571908"/>
         </ext>
       </extLst>
     </border>
@@ -1949,7 +1985,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715491302"/>
+          <pm:border xmlns:pm="smNativeData" id="1715571908"/>
         </ext>
       </extLst>
     </border>
@@ -1968,7 +2004,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715491302"/>
+          <pm:border xmlns:pm="smNativeData" id="1715571908"/>
         </ext>
       </extLst>
     </border>
@@ -2024,10 +2060,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1715491302" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1715571908" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1715491302" count="1">
+      <pm:colors xmlns:pm="smNativeData" id="1715571908" count="1">
         <pm:color name="Color 24" rgb="222222"/>
       </pm:colors>
     </ext>
@@ -2294,11 +2330,11 @@
   <sheetPr>
     <outlinePr summaryRight="0" summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1001"/>
+  <dimension ref="A1:Z1002"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A283" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J285" sqref="J285"/>
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q141" sqref="Q141:X141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="11" defaultColWidth="12.630631" defaultRowHeight="13.45"/>
@@ -2648,7 +2684,7 @@
       </c>
       <c r="X5" s="1" t="str">
         <f>CONCATENATE("RS_",A5)</f>
-        <v>RS_OO_001b</v>
+        <v>RS_OR_001b</v>
       </c>
       <c r="Y5" s="4" t="s">
         <v>46</v>
@@ -2718,7 +2754,7 @@
       </c>
       <c r="X6" s="1" t="str">
         <f>CONCATENATE("RS_",A6)</f>
-        <v>RS_OO_001b</v>
+        <v>RS_OR_001b</v>
       </c>
       <c r="Y6" s="4" t="str">
         <f>_xlfn.CONCAT("2",C6)</f>
@@ -2812,9 +2848,6 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="J8" s="6"/>
       <c r="K8" s="1" t="s">
         <v>38</v>
@@ -2857,13 +2890,13 @@
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="D9" s="5" t="e">
         <v>#NAME?</v>
@@ -2872,16 +2905,16 @@
         <v>49</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="n">
@@ -2921,35 +2954,35 @@
         <v>RS_MU_RO_001</v>
       </c>
       <c r="Y9" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Z9" s="4"/>
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -2985,19 +3018,19 @@
         <v>RS_MU_RO_001b</v>
       </c>
       <c r="Y10" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z10" s="4"/>
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="D11" s="5" t="e">
         <v>#NAME?</v>
@@ -3007,13 +3040,13 @@
         <v>34</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
@@ -3053,16 +3086,16 @@
         <v>RS_RU_004</v>
       </c>
       <c r="Y11" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Z11" s="4"/>
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>33</v>
@@ -3076,10 +3109,10 @@
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
@@ -3116,7 +3149,7 @@
       </c>
       <c r="X12" s="1" t="str">
         <f>CONCATENATE("RS_",A12)</f>
-        <v>RS_RU_005</v>
+        <v>RS_MU_RO_002</v>
       </c>
       <c r="Y12" s="4" t="str">
         <f>_xlfn.CONCAT("2",C12)</f>
@@ -3126,7 +3159,7 @@
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B13" s="1" t="str">
         <f>A13</f>
@@ -3140,7 +3173,9 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
         <v>38</v>
@@ -3183,7 +3218,7 @@
     </row>
     <row r="14" spans="1:26">
       <c r="A14" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B14" s="1" t="str">
         <f>A14</f>
@@ -3240,7 +3275,7 @@
     </row>
     <row r="15" spans="1:26">
       <c r="A15" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B15" s="1" t="str">
         <f>A15</f>
@@ -3300,17 +3335,27 @@
         <v>83</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="D16" s="5" t="e">
         <v>#NAME?</v>
       </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1" t="s">
         <v>38</v>
@@ -3342,18 +3387,18 @@
       </c>
       <c r="W16" s="1" t="str">
         <f>CONCATENATE("[i]",F16,"[/i]")</f>
-        <v>[i][/i]</v>
+        <v>[i]Effect[/i]</v>
       </c>
       <c r="X16" s="1" t="str">
         <f>CONCATENATE("RS_",A16)</f>
-        <v>RS_C</v>
+        <v>RS_OC_001</v>
       </c>
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
     </row>
     <row r="17" spans="1:26">
       <c r="A17" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B17" s="1" t="str">
         <f>A17</f>
@@ -3410,7 +3455,7 @@
     </row>
     <row r="18" spans="1:26">
       <c r="A18" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B18" s="1" t="str">
         <f>A18</f>
@@ -3467,7 +3512,7 @@
     </row>
     <row r="19" spans="1:26">
       <c r="A19" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B19" s="1" t="str">
         <f>A19</f>
@@ -3524,7 +3569,7 @@
     </row>
     <row r="20" spans="1:26">
       <c r="A20" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B20" s="1" t="str">
         <f>A20</f>
@@ -3581,7 +3626,7 @@
     </row>
     <row r="21" spans="1:26">
       <c r="A21" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B21" s="1" t="str">
         <f>A21</f>
@@ -3638,7 +3683,7 @@
     </row>
     <row r="22" spans="1:26">
       <c r="A22" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B22" s="1" t="str">
         <f>A22</f>
@@ -3695,7 +3740,7 @@
     </row>
     <row r="23" spans="1:26">
       <c r="A23" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B23" s="1" t="str">
         <f>A23</f>
@@ -3752,7 +3797,7 @@
     </row>
     <row r="24" spans="1:26">
       <c r="A24" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B24" s="1" t="str">
         <f>A24</f>
@@ -3809,13 +3854,13 @@
     </row>
     <row r="25" spans="1:26">
       <c r="A25" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D25" s="5" t="e">
         <v>#NAME?</v>
@@ -3824,19 +3869,19 @@
         <v>49</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>36</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K25" s="7" t="n">
         <v>6</v>
@@ -3875,38 +3920,38 @@
         <v>RS_M_CMDR_RY_001</v>
       </c>
       <c r="Y25" s="4" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Z25" s="4"/>
     </row>
     <row r="26" spans="1:26">
       <c r="A26" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D26" s="5" t="e">
         <v>#NAME?</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -3948,13 +3993,13 @@
     </row>
     <row r="27" spans="1:26">
       <c r="A27" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D27" s="5" t="e">
         <v>#NAME?</v>
@@ -3966,16 +4011,16 @@
         <v>25</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>36</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="K27" s="1" t="n">
         <v>5</v>
@@ -4014,19 +4059,19 @@
         <v>RS_RY_001</v>
       </c>
       <c r="Y27" s="4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="Z27" s="4"/>
     </row>
     <row r="28" spans="1:26">
       <c r="A28" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D28" s="5" t="e">
         <v>#NAME?</v>
@@ -4036,13 +4081,13 @@
         <v>25</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>36</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1" t="s">
@@ -4089,27 +4134,27 @@
     </row>
     <row r="29" spans="1:26">
       <c r="A29" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D29" s="5" t="e">
         <v>#NAME?</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="3" t="s">
         <v>36</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1" t="s">
@@ -4149,40 +4194,40 @@
         <v>RS_MR_RY_002</v>
       </c>
       <c r="Y29" s="4" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="Z29" s="4"/>
     </row>
     <row r="30" spans="1:26">
       <c r="A30" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>36</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="K30" s="1" t="n">
         <v>7</v>
@@ -4221,38 +4266,38 @@
         <v>RS_MR_RY_003</v>
       </c>
       <c r="Y30" s="4" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="Z30" s="4"/>
     </row>
     <row r="31" spans="1:26">
       <c r="A31" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -4287,19 +4332,19 @@
         <v>RS_MR_RY_003b</v>
       </c>
       <c r="Y31" s="4" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="Z31" s="4"/>
     </row>
     <row r="32" spans="1:26">
       <c r="A32" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D32" s="5" t="e">
         <v>#NAME?</v>
@@ -4309,13 +4354,13 @@
         <v>34</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1" t="s">
@@ -4362,32 +4407,32 @@
     </row>
     <row r="33" spans="1:26">
       <c r="A33" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D33" s="5" t="e">
         <v>#NAME?</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>38</v>
@@ -4426,19 +4471,19 @@
         <v>RS_MU_RY_004</v>
       </c>
       <c r="Y33" s="4" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="Z33" s="4"/>
     </row>
     <row r="34" spans="1:26">
       <c r="A34" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="D34" s="5" t="e">
         <v>#NAME?</v>
@@ -4448,13 +4493,13 @@
         <v>34</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1" t="s">
@@ -4466,7 +4511,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="P34" s="1"/>
       <c r="Q34" s="1" t="n">
@@ -4496,19 +4541,19 @@
         <v>RS_MU_RY_002</v>
       </c>
       <c r="Y34" s="4" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="Z34" s="4"/>
     </row>
     <row r="35" spans="1:26">
       <c r="A35" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D35" s="5" t="e">
         <v>#NAME?</v>
@@ -4518,13 +4563,13 @@
         <v>34</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1" t="s">
@@ -4564,19 +4609,19 @@
         <v>RS_MU_RY_003</v>
       </c>
       <c r="Y35" s="4" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Z35" s="4"/>
     </row>
     <row r="36" spans="1:26">
       <c r="A36" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D36" s="5" t="e">
         <v>#NAME?</v>
@@ -4586,13 +4631,13 @@
         <v>34</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1" t="s">
@@ -4604,7 +4649,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="P36" s="1"/>
       <c r="Q36" s="1" t="n">
@@ -4634,19 +4679,19 @@
         <v>RS_RU_001</v>
       </c>
       <c r="Y36" s="4" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Z36" s="4"/>
     </row>
     <row r="37" spans="1:26">
       <c r="A37" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D37" s="5" t="e">
         <v>#NAME?</v>
@@ -4656,13 +4701,13 @@
         <v>34</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1" t="s">
@@ -4702,22 +4747,22 @@
         <v>RS_YU_001</v>
       </c>
       <c r="Y37" s="4" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Z37" s="4"/>
     </row>
     <row r="38" spans="1:26">
       <c r="A38" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>49</v>
@@ -4726,13 +4771,13 @@
         <v>25</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="7" t="n">
@@ -4772,35 +4817,35 @@
         <v>RS_MC_RY_001</v>
       </c>
       <c r="Y38" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z38" s="4"/>
     </row>
     <row r="39" spans="1:26">
       <c r="A39" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1" t="s">
@@ -4840,16 +4885,16 @@
         <v>RS_MC_RY_002</v>
       </c>
       <c r="Y39" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z39" s="4"/>
     </row>
     <row r="40" spans="1:26">
       <c r="A40" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C40" s="1" t="n">
         <v>2</v>
@@ -4862,13 +4907,13 @@
         <v>25</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1" t="s">
@@ -4914,13 +4959,13 @@
     </row>
     <row r="41" spans="1:26">
       <c r="A41" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D41" s="5" t="e">
         <v>#NAME?</v>
@@ -4930,16 +4975,16 @@
         <v>25</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="K41" s="1" t="n">
         <v>8</v>
@@ -4978,19 +5023,19 @@
         <v>RS_YR_001</v>
       </c>
       <c r="Y41" s="4" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Z41" s="4"/>
     </row>
     <row r="42" spans="1:26">
       <c r="A42" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D42" s="5" t="e">
         <v>#NAME?</v>
@@ -5002,16 +5047,16 @@
         <v>25</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="K42" s="1" t="n">
         <v>2</v>
@@ -5050,19 +5095,19 @@
         <v>RS_RC_001</v>
       </c>
       <c r="Y42" s="4" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Z42" s="4"/>
     </row>
     <row r="43" spans="1:26">
       <c r="A43" s="1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D43" s="5" t="e">
         <v>#NAME?</v>
@@ -5074,16 +5119,16 @@
         <v>25</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="K43" s="1" t="n">
         <v>5</v>
@@ -5129,13 +5174,13 @@
     </row>
     <row r="44" spans="1:26">
       <c r="A44" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D44" s="5" t="e">
         <v>#NAME?</v>
@@ -5147,13 +5192,13 @@
         <v>25</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1" t="n">
@@ -5200,16 +5245,16 @@
     </row>
     <row r="45" spans="1:26">
       <c r="A45" s="1" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>49</v>
@@ -5218,13 +5263,13 @@
         <v>25</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1" t="n">
@@ -5264,16 +5309,16 @@
         <v>RS_MC_RY_003</v>
       </c>
       <c r="Y45" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z45" s="4"/>
     </row>
     <row r="46" spans="1:26">
       <c r="A46" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C46" s="1" t="n">
         <v>2</v>
@@ -5286,16 +5331,16 @@
         <v>25</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>38</v>
@@ -5340,13 +5385,13 @@
     </row>
     <row r="47" spans="1:26">
       <c r="A47" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D47" s="5" t="e">
         <v>#NAME?</v>
@@ -5358,16 +5403,16 @@
         <v>25</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>36</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="K47" s="1" t="n">
         <v>7</v>
@@ -5406,35 +5451,35 @@
         <v>RS_MR_RY_004</v>
       </c>
       <c r="Y47" s="4" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="Z47" s="4"/>
     </row>
     <row r="48" spans="1:26">
       <c r="A48" s="1" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -5470,31 +5515,31 @@
         <v>RS_YU_005</v>
       </c>
       <c r="Y48" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z48" s="4"/>
     </row>
     <row r="49" spans="1:26">
       <c r="A49" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="9" t="n">
         <v>5</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -5534,7 +5579,7 @@
     </row>
     <row r="50" spans="1:26">
       <c r="A50" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B50" s="1" t="str">
         <f>A50</f>
@@ -5547,16 +5592,16 @@
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="K50" s="1" t="e">
         <v>#VALUE!</v>
@@ -5567,7 +5612,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="P50" s="1"/>
       <c r="Q50" s="1" t="n">
@@ -5616,7 +5661,7 @@
       <c r="G51" s="1"/>
       <c r="H51" s="3"/>
       <c r="I51" s="1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1" t="s">
@@ -5831,7 +5876,7 @@
     </row>
     <row r="55" spans="1:26">
       <c r="A55" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B55" s="1" t="str">
         <f>A55</f>
@@ -5888,7 +5933,7 @@
     </row>
     <row r="56" spans="1:26">
       <c r="A56" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B56" s="1" t="str">
         <f>A56</f>
@@ -5945,7 +5990,7 @@
     </row>
     <row r="57" spans="1:26">
       <c r="A57" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B57" s="1" t="str">
         <f>A57</f>
@@ -6002,7 +6047,7 @@
     </row>
     <row r="58" spans="1:26">
       <c r="A58" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B58" s="1" t="str">
         <f>A58</f>
@@ -6059,7 +6104,7 @@
     </row>
     <row r="59" spans="1:26">
       <c r="A59" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B59" s="1" t="str">
         <f>A59</f>
@@ -6116,7 +6161,7 @@
     </row>
     <row r="60" spans="1:26">
       <c r="A60" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B60" s="1" t="str">
         <f>A60</f>
@@ -6173,7 +6218,7 @@
     </row>
     <row r="61" spans="1:26">
       <c r="A61" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B61" s="1" t="str">
         <f>A61</f>
@@ -6230,7 +6275,7 @@
     </row>
     <row r="62" spans="1:26">
       <c r="A62" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B62" s="1" t="str">
         <f>A62</f>
@@ -6287,7 +6332,7 @@
     </row>
     <row r="63" spans="1:26">
       <c r="A63" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B63" s="1" t="str">
         <f>A63</f>
@@ -6344,7 +6389,7 @@
     </row>
     <row r="64" spans="1:26">
       <c r="A64" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B64" s="1" t="str">
         <f>A64</f>
@@ -6401,7 +6446,7 @@
     </row>
     <row r="65" spans="1:26">
       <c r="A65" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B65" s="1" t="str">
         <f>A65</f>
@@ -6458,7 +6503,7 @@
     </row>
     <row r="66" spans="1:26">
       <c r="A66" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B66" s="1" t="str">
         <f>A66</f>
@@ -6515,7 +6560,7 @@
     </row>
     <row r="67" spans="1:26">
       <c r="A67" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B67" s="1" t="str">
         <f>A67</f>
@@ -6572,7 +6617,7 @@
     </row>
     <row r="68" spans="1:26">
       <c r="A68" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B68" s="1" t="str">
         <f>A68</f>
@@ -6629,7 +6674,7 @@
     </row>
     <row r="69" spans="1:26">
       <c r="A69" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B69" s="1" t="str">
         <f>A69</f>
@@ -6686,7 +6731,7 @@
     </row>
     <row r="70" spans="1:26">
       <c r="A70" s="1" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B70" s="1" t="str">
         <f>A70</f>
@@ -6699,16 +6744,16 @@
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="K70" s="1" t="e">
         <v>#VALUE!</v>
@@ -6719,7 +6764,7 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
       <c r="O70" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="P70" s="1"/>
       <c r="Q70" s="1" t="n">
@@ -6768,7 +6813,7 @@
       <c r="G71" s="1"/>
       <c r="H71" s="3"/>
       <c r="I71" s="1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="J71" s="1"/>
       <c r="K71" s="1" t="s">
@@ -6983,7 +7028,7 @@
     </row>
     <row r="75" spans="1:26">
       <c r="A75" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B75" s="1" t="str">
         <f>A75</f>
@@ -7040,7 +7085,7 @@
     </row>
     <row r="76" spans="1:26">
       <c r="A76" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B76" s="1" t="str">
         <f>A76</f>
@@ -7097,7 +7142,7 @@
     </row>
     <row r="77" spans="1:26">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B77" s="1" t="str">
         <f>A77</f>
@@ -7154,7 +7199,7 @@
     </row>
     <row r="78" spans="1:26">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B78" s="1" t="str">
         <f>A78</f>
@@ -7211,7 +7256,7 @@
     </row>
     <row r="79" spans="1:26">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" s="1" t="str">
         <f>A79</f>
@@ -7268,7 +7313,7 @@
     </row>
     <row r="80" spans="1:26">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B80" s="1" t="str">
         <f>A80</f>
@@ -7325,7 +7370,7 @@
     </row>
     <row r="81" spans="1:26">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B81" s="1" t="str">
         <f>A81</f>
@@ -7382,7 +7427,7 @@
     </row>
     <row r="82" spans="1:26">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B82" s="1" t="str">
         <f>A82</f>
@@ -7439,7 +7484,7 @@
     </row>
     <row r="83" spans="1:26">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B83" s="1" t="str">
         <f>A83</f>
@@ -7496,7 +7541,7 @@
     </row>
     <row r="84" spans="1:26">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B84" s="1" t="str">
         <f>A84</f>
@@ -7553,7 +7598,7 @@
     </row>
     <row r="85" spans="1:26">
       <c r="A85" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B85" s="1" t="str">
         <f>A85</f>
@@ -7610,7 +7655,7 @@
     </row>
     <row r="86" spans="1:26">
       <c r="A86" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B86" s="1" t="str">
         <f>A86</f>
@@ -7667,7 +7712,7 @@
     </row>
     <row r="87" spans="1:26">
       <c r="A87" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B87" s="1" t="str">
         <f>A87</f>
@@ -7724,7 +7769,7 @@
     </row>
     <row r="88" spans="1:26">
       <c r="A88" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B88" s="1" t="str">
         <f>A88</f>
@@ -7781,7 +7826,7 @@
     </row>
     <row r="89" spans="1:26">
       <c r="A89" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B89" s="1" t="str">
         <f>A89</f>
@@ -7838,13 +7883,13 @@
     </row>
     <row r="90" spans="1:26">
       <c r="A90" s="1" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D90" s="5" t="e">
         <v>#NAME?</v>
@@ -7853,16 +7898,16 @@
         <v>49</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="J90" s="1"/>
       <c r="K90" s="1" t="n">
@@ -7874,7 +7919,7 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
       <c r="O90" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="P90" s="1"/>
       <c r="Q90" s="1" t="n">
@@ -7904,13 +7949,13 @@
         <v>RS_M_CMDR_RP_001</v>
       </c>
       <c r="Y90" s="4" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Z90" s="4"/>
     </row>
     <row r="91" spans="1:26">
       <c r="A91" s="1" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B91" s="1" t="str">
         <f>A91</f>
@@ -7961,10 +8006,10 @@
     </row>
     <row r="92" spans="1:26">
       <c r="A92" s="1" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C92" s="1" t="n">
         <v>2</v>
@@ -7977,13 +8022,13 @@
         <v>25</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="H92" s="3" t="s">
         <v>36</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="J92" s="1"/>
       <c r="K92" s="1" t="s">
@@ -8029,29 +8074,29 @@
     </row>
     <row r="93" spans="1:26">
       <c r="A93" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D93" s="5" t="e">
         <v>#NAME?</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="J93" s="1"/>
       <c r="K93" s="1" t="s">
@@ -8091,19 +8136,19 @@
         <v>RS_MR_RP_001</v>
       </c>
       <c r="Y93" s="4" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Z93" s="4"/>
     </row>
     <row r="94" spans="1:26">
       <c r="A94" s="1" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="D94" s="5" t="e">
         <v>#NAME?</v>
@@ -8114,10 +8159,10 @@
       </c>
       <c r="G94" s="1"/>
       <c r="H94" s="3" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="J94" s="1"/>
       <c r="K94" s="1" t="s">
@@ -8157,35 +8202,35 @@
         <v>RS_MR_RP_002</v>
       </c>
       <c r="Y94" s="4" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Z94" s="4"/>
     </row>
     <row r="95" spans="1:26">
       <c r="A95" s="1" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="H95" s="1" t="n">
         <v>5</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="J95" s="1"/>
       <c r="K95" s="1" t="s">
@@ -8229,13 +8274,13 @@
     </row>
     <row r="96" spans="1:26">
       <c r="A96" s="1" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D96" s="5" t="e">
         <v>#NAME?</v>
@@ -8246,10 +8291,10 @@
       </c>
       <c r="G96" s="1"/>
       <c r="H96" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="J96" s="1"/>
       <c r="K96" s="1" t="s">
@@ -8289,19 +8334,19 @@
         <v>RS_RU_002</v>
       </c>
       <c r="Y96" s="4" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Z96" s="4"/>
     </row>
     <row r="97" spans="1:26">
       <c r="A97" s="1" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D97" s="5" t="e">
         <v>#NAME?</v>
@@ -8311,13 +8356,13 @@
         <v>25</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="J97" s="1"/>
       <c r="K97" s="1" t="s">
@@ -8364,13 +8409,13 @@
     </row>
     <row r="98" spans="1:26">
       <c r="A98" s="1" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D98" s="5" t="e">
         <v>#NAME?</v>
@@ -8380,13 +8425,13 @@
         <v>25</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="J98" s="1"/>
       <c r="K98" s="1" t="n">
@@ -8433,7 +8478,7 @@
     </row>
     <row r="99" spans="1:26">
       <c r="A99" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B99" s="1" t="str">
         <f>A99</f>
@@ -8490,7 +8535,7 @@
     </row>
     <row r="100" spans="1:26">
       <c r="A100" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B100" s="1" t="str">
         <f>A100</f>
@@ -8547,7 +8592,7 @@
     </row>
     <row r="101" spans="1:26">
       <c r="A101" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B101" s="1" t="str">
         <f>A101</f>
@@ -8604,13 +8649,13 @@
     </row>
     <row r="102" spans="1:26">
       <c r="A102" s="1" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="D102" s="5" t="e">
         <v>#NAME?</v>
@@ -8620,13 +8665,13 @@
         <v>34</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="J102" s="1"/>
       <c r="K102" s="1" t="s">
@@ -8673,10 +8718,10 @@
     </row>
     <row r="103" spans="1:26">
       <c r="A103" s="1" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="5" t="e">
@@ -8688,10 +8733,10 @@
       </c>
       <c r="G103" s="1"/>
       <c r="H103" s="3" t="s">
-        <v>266</v>
+        <v>86</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="J103" s="1"/>
       <c r="K103" s="1" t="s">
@@ -8735,7 +8780,7 @@
     </row>
     <row r="104" spans="1:26">
       <c r="A104" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B104" s="1" t="str">
         <f>A104</f>
@@ -8750,7 +8795,7 @@
       <c r="G104" s="1"/>
       <c r="H104" s="3"/>
       <c r="I104" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="J104" s="1"/>
       <c r="K104" s="1" t="s">
@@ -8794,7 +8839,7 @@
     </row>
     <row r="105" spans="1:26">
       <c r="A105" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B105" s="1" t="str">
         <f>A105</f>
@@ -8851,7 +8896,7 @@
     </row>
     <row r="106" spans="1:26">
       <c r="A106" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B106" s="1" t="str">
         <f>A106</f>
@@ -8908,7 +8953,7 @@
     </row>
     <row r="107" spans="1:26">
       <c r="A107" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B107" s="1" t="str">
         <f>A107</f>
@@ -8965,7 +9010,7 @@
     </row>
     <row r="108" spans="1:26">
       <c r="A108" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B108" s="1" t="str">
         <f>A108</f>
@@ -9022,7 +9067,7 @@
     </row>
     <row r="109" spans="1:26">
       <c r="A109" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B109" s="1" t="str">
         <f>A109</f>
@@ -9079,7 +9124,7 @@
     </row>
     <row r="110" spans="1:26">
       <c r="A110" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B110" s="1" t="str">
         <f>A110</f>
@@ -9136,13 +9181,13 @@
     </row>
     <row r="111" spans="1:26">
       <c r="A111" s="1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D111" s="5" t="e">
         <v>#NAME?</v>
@@ -9151,16 +9196,16 @@
         <v>49</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="H111" s="9" t="n">
         <v>7</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="J111" s="1"/>
       <c r="K111" s="1" t="n">
@@ -9172,7 +9217,7 @@
       <c r="M111" s="1"/>
       <c r="N111" s="1"/>
       <c r="O111" s="1" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="P111" s="1"/>
       <c r="Q111" s="1" t="n">
@@ -9206,34 +9251,34 @@
         <v>21OOYY</v>
       </c>
       <c r="Z111" s="4" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="112" spans="1:26">
       <c r="A112" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D112" s="5" t="e">
         <v>#NAME?</v>
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="H112" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
@@ -9269,35 +9314,35 @@
         <v>RS_M_CMDR_OY_001b</v>
       </c>
       <c r="Y112" s="4" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Z112" s="4"/>
     </row>
     <row r="113" spans="1:26">
       <c r="A113" s="1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D113" s="5" t="e">
         <v>#NAME?</v>
       </c>
       <c r="E113" s="1"/>
       <c r="F113" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="H113" s="3" t="s">
         <v>36</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="J113" s="1"/>
       <c r="K113" s="1" t="s">
@@ -9337,35 +9382,35 @@
         <v>RS_MR_OY_001</v>
       </c>
       <c r="Y113" s="4" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Z113" s="4"/>
     </row>
     <row r="114" spans="1:26">
       <c r="A114" s="1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E114" s="1"/>
       <c r="F114" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H114" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
@@ -9373,7 +9418,7 @@
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
       <c r="O114" s="1" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="P114" s="1"/>
       <c r="Q114" s="1" t="n">
@@ -9403,19 +9448,19 @@
         <v>RS_MR_OY_001b</v>
       </c>
       <c r="Y114" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z114" s="4"/>
     </row>
     <row r="115" spans="1:26">
       <c r="A115" s="1" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D115" s="5" t="e">
         <v>#NAME?</v>
@@ -9425,16 +9470,16 @@
         <v>25</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="K115" s="1" t="s">
         <v>38</v>
@@ -9473,35 +9518,35 @@
         <v>RS_OR_001</v>
       </c>
       <c r="Y115" s="4" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Z115" s="4"/>
     </row>
     <row r="116" spans="1:26">
       <c r="A116" s="1" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D116" s="5" t="e">
         <v>#NAME?</v>
       </c>
       <c r="E116" s="1"/>
       <c r="F116" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="H116" s="3" t="s">
         <v>36</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="J116" s="1"/>
       <c r="K116" s="1" t="s">
@@ -9513,7 +9558,7 @@
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
       <c r="O116" s="1" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="P116" s="1"/>
       <c r="Q116" s="1" t="n">
@@ -9543,19 +9588,19 @@
         <v>RS_RY_002</v>
       </c>
       <c r="Y116" s="4" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Z116" s="4"/>
     </row>
     <row r="117" spans="1:26">
       <c r="A117" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D117" s="5" t="e">
         <v>#NAME?</v>
@@ -9567,13 +9612,13 @@
         <v>25</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="H117" s="3" t="s">
         <v>36</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="J117" s="1"/>
       <c r="K117" s="1" t="n">
@@ -9585,7 +9630,7 @@
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
       <c r="O117" s="14" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="P117" s="1"/>
       <c r="Q117" s="1" t="n">
@@ -9615,19 +9660,19 @@
         <v>RS_RY_003</v>
       </c>
       <c r="Y117" s="4" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Z117" s="4"/>
     </row>
     <row r="118" spans="1:26">
       <c r="A118" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>313</v>
+        <v>85</v>
       </c>
       <c r="D118" s="5" t="e">
         <v>#NAME?</v>
@@ -9639,13 +9684,13 @@
         <v>25</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="H118" s="3" t="s">
         <v>36</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="J118" s="1"/>
       <c r="K118" s="1" t="n">
@@ -9657,7 +9702,7 @@
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
       <c r="O118" s="1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="P118" s="1"/>
       <c r="Q118" s="1" t="n">
@@ -9687,19 +9732,19 @@
         <v>RS_OR_002</v>
       </c>
       <c r="Y118" s="4" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Z118" s="4"/>
     </row>
     <row r="119" spans="1:26">
       <c r="A119" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D119" s="5" t="e">
         <v>#NAME?</v>
@@ -9709,16 +9754,16 @@
         <v>34</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="K119" s="1" t="s">
         <v>38</v>
@@ -9764,29 +9809,29 @@
     </row>
     <row r="120" spans="1:26">
       <c r="A120" s="1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C120" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D120" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="D120" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="E120" s="1"/>
       <c r="F120" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="J120" s="1" t="str">
         <f>CONCATENATE("'Even a novice can sound beautiful with the right trainning and augmentation.' &lt;p&gt;-- ",B111,"&lt;/p&gt;")</f>
@@ -9836,13 +9881,13 @@
     </row>
     <row r="121" spans="1:26">
       <c r="A121" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D121" s="5" t="e">
         <v>#NAME?</v>
@@ -9852,13 +9897,13 @@
         <v>34</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="J121" s="1"/>
       <c r="K121" s="1" t="s">
@@ -9898,19 +9943,19 @@
         <v>RS_OU_001</v>
       </c>
       <c r="Y121" s="4" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Z121" s="4"/>
     </row>
     <row r="122" spans="1:26">
       <c r="A122" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D122" s="5" t="e">
         <v>#NAME?</v>
@@ -9920,13 +9965,13 @@
         <v>34</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="J122" s="1"/>
       <c r="K122" s="1" t="s">
@@ -9938,7 +9983,7 @@
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
       <c r="O122" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="P122" s="1"/>
       <c r="Q122" s="1" t="n">
@@ -9968,35 +10013,35 @@
         <v>RS_MU_OY_002</v>
       </c>
       <c r="Y122" s="4" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Z122" s="4"/>
     </row>
     <row r="123" spans="1:26">
       <c r="A123" s="1" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C123" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D123" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="E123" s="1"/>
       <c r="F123" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="J123" s="1"/>
       <c r="K123" s="1" t="s">
@@ -10036,35 +10081,35 @@
         <v>RS_MU_OY_003</v>
       </c>
       <c r="Y123" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z123" s="4"/>
     </row>
     <row r="124" spans="1:26">
       <c r="A124" s="1" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E124" s="1"/>
       <c r="F124" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="J124" s="1"/>
       <c r="K124" s="1" t="s">
@@ -10104,22 +10149,22 @@
         <v>RS_MU_OY_004</v>
       </c>
       <c r="Y124" s="4" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Z124" s="4"/>
     </row>
     <row r="125" spans="1:26">
       <c r="A125" s="1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>49</v>
@@ -10128,16 +10173,16 @@
         <v>25</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K125" s="1" t="n">
         <v>0</v>
@@ -10176,35 +10221,35 @@
         <v>RS_MC_OY_001</v>
       </c>
       <c r="Y125" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z125" s="4"/>
     </row>
     <row r="126" spans="1:26">
       <c r="A126" s="1" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C126" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D126" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="D126" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="E126" s="1"/>
       <c r="F126" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="J126" s="1"/>
       <c r="K126" s="1" t="s">
@@ -10244,19 +10289,19 @@
         <v>RS_MC_OY_002</v>
       </c>
       <c r="Y126" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z126" s="4"/>
     </row>
     <row r="127" spans="1:26">
       <c r="A127" s="1" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D127" s="5" t="e">
         <v>#NAME?</v>
@@ -10266,16 +10311,16 @@
         <v>25</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>266</v>
+        <v>86</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="K127" s="1" t="s">
         <v>38</v>
@@ -10314,19 +10359,19 @@
         <v>RS_MC_OY_003</v>
       </c>
       <c r="Y127" s="4" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Z127" s="4"/>
     </row>
     <row r="128" spans="1:26">
       <c r="A128" s="1" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D128" s="5" t="e">
         <v>#NAME?</v>
@@ -10338,16 +10383,16 @@
         <v>25</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="K128" s="1" t="n">
         <v>4</v>
@@ -10386,19 +10431,19 @@
         <v>RS_YC_001</v>
       </c>
       <c r="Y128" s="4" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Z128" s="4"/>
     </row>
     <row r="129" spans="1:26">
       <c r="A129" s="1" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D129" s="5" t="e">
         <v>#NAME?</v>
@@ -10408,13 +10453,13 @@
         <v>34</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="J129" s="1"/>
       <c r="K129" s="1" t="s">
@@ -10461,13 +10506,13 @@
     </row>
     <row r="130" spans="1:26">
       <c r="A130" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D130" s="5" t="e">
         <v>#NAME?</v>
@@ -10477,13 +10522,13 @@
         <v>34</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="J130" s="1"/>
       <c r="K130" s="1" t="s">
@@ -10523,35 +10568,35 @@
         <v>RS_YC_003</v>
       </c>
       <c r="Y130" s="4" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Z130" s="4"/>
     </row>
     <row r="131" spans="1:26">
       <c r="A131" s="1" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E131" s="1"/>
       <c r="F131" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="J131" s="1"/>
       <c r="K131" s="1" t="s">
@@ -10591,22 +10636,22 @@
         <v>RS_YC_004</v>
       </c>
       <c r="Y131" s="4" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Z131" s="4"/>
     </row>
     <row r="132" spans="1:26">
       <c r="A132" s="1" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E132" s="1"/>
       <c r="F132" s="1" t="s">
@@ -10614,10 +10659,10 @@
       </c>
       <c r="G132" s="1"/>
       <c r="H132" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="J132" s="1"/>
       <c r="K132" s="1" t="s">
@@ -10657,35 +10702,35 @@
         <v>RS_MC_OY_004</v>
       </c>
       <c r="Y132" s="4" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Z132" s="4"/>
     </row>
     <row r="133" spans="1:26">
       <c r="A133" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E133" s="1"/>
       <c r="F133" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="J133" s="1"/>
       <c r="K133" s="1" t="n">
@@ -10725,31 +10770,31 @@
         <v>RS_MC_OY_005</v>
       </c>
       <c r="Y133" s="4" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="Z133" s="4"/>
     </row>
     <row r="134" spans="1:26">
       <c r="A134" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C134" s="1"/>
       <c r="D134" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E134" s="1"/>
       <c r="F134" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="G134" s="1"/>
       <c r="H134" s="9" t="n">
         <v>5</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
@@ -10789,7 +10834,7 @@
     </row>
     <row r="135" spans="1:26">
       <c r="A135" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B135" s="1" t="str">
         <f>A135</f>
@@ -10802,16 +10847,16 @@
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="K135" s="1" t="e">
         <v>#VALUE!</v>
@@ -10822,7 +10867,7 @@
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
       <c r="O135" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="P135" s="1"/>
       <c r="Q135" s="1" t="n">
@@ -10856,7 +10901,7 @@
     </row>
     <row r="136" spans="1:26">
       <c r="A136" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B136" s="1" t="str">
         <f>A136</f>
@@ -10871,7 +10916,7 @@
       <c r="G136" s="1"/>
       <c r="H136" s="3"/>
       <c r="I136" s="1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="J136" s="1"/>
       <c r="K136" s="1" t="s">
@@ -10915,7 +10960,7 @@
     </row>
     <row r="137" spans="1:26">
       <c r="A137" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B137" s="1" t="str">
         <f>A137</f>
@@ -10972,7 +11017,7 @@
     </row>
     <row r="138" spans="1:26">
       <c r="A138" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B138" s="1" t="str">
         <f>A138</f>
@@ -11029,7 +11074,7 @@
     </row>
     <row r="139" spans="1:26">
       <c r="A139" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B139" s="1" t="str">
         <f>A139</f>
@@ -11086,27 +11131,40 @@
     </row>
     <row r="140" spans="1:26">
       <c r="A140" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B140" s="1" t="str">
-        <f>A140</f>
-        <v>U</v>
-      </c>
-      <c r="C140" s="1"/>
+        <v>391</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="D140" s="5" t="e">
         <v>#NAME?</v>
       </c>
-      <c r="E140" s="1"/>
-      <c r="F140" s="1"/>
-      <c r="G140" s="1"/>
-      <c r="H140" s="3"/>
-      <c r="I140" s="1"/>
-      <c r="J140" s="1"/>
-      <c r="K140" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L140" s="1" t="s">
-        <v>38</v>
+      <c r="E140" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F140" t="s">
+        <v>25</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="K140" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L140" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
@@ -11132,39 +11190,42 @@
       </c>
       <c r="W140" s="1" t="str">
         <f>CONCATENATE("[i]",F140,"[/i]")</f>
-        <v>[i][/i]</v>
+        <v>[i]Asset[/i]</v>
       </c>
       <c r="X140" s="1" t="str">
         <f>CONCATENATE("RS_",A140)</f>
-        <v>RS_U</v>
+        <v>RS_OU_002</v>
       </c>
       <c r="Y140" s="4"/>
       <c r="Z140" s="4"/>
     </row>
     <row r="141" spans="1:26">
       <c r="A141" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B141" s="1" t="str">
-        <f>A141</f>
-        <v>U</v>
+        <v>396</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>397</v>
       </c>
       <c r="C141" s="1"/>
       <c r="D141" s="5" t="e">
         <v>#NAME?</v>
       </c>
       <c r="E141" s="1"/>
-      <c r="F141" s="1"/>
-      <c r="G141" s="1"/>
-      <c r="H141" s="3"/>
-      <c r="I141" s="1"/>
+      <c r="F141" t="s">
+        <v>217</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="H141" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>399</v>
+      </c>
       <c r="J141" s="1"/>
-      <c r="K141" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L141" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="K141" s="1"/>
+      <c r="L141" s="1"/>
       <c r="M141" s="1"/>
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
@@ -11189,18 +11250,18 @@
       </c>
       <c r="W141" s="1" t="str">
         <f>CONCATENATE("[i]",F141,"[/i]")</f>
-        <v>[i][/i]</v>
+        <v>[i]Generator[/i]</v>
       </c>
       <c r="X141" s="1" t="str">
         <f>CONCATENATE("RS_",A141)</f>
-        <v>RS_U</v>
+        <v>RS_OU_002b</v>
       </c>
       <c r="Y141" s="4"/>
       <c r="Z141" s="4"/>
     </row>
     <row r="142" spans="1:26">
       <c r="A142" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B142" s="1" t="str">
         <f>A142</f>
@@ -11257,7 +11318,7 @@
     </row>
     <row r="143" spans="1:26">
       <c r="A143" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B143" s="1" t="str">
         <f>A143</f>
@@ -11314,7 +11375,7 @@
     </row>
     <row r="144" spans="1:26">
       <c r="A144" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B144" s="1" t="str">
         <f>A144</f>
@@ -11371,7 +11432,7 @@
     </row>
     <row r="145" spans="1:26">
       <c r="A145" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B145" s="1" t="str">
         <f>A145</f>
@@ -11428,11 +11489,11 @@
     </row>
     <row r="146" spans="1:26">
       <c r="A146" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B146" s="1" t="str">
         <f>A146</f>
-        <v>C</v>
+        <v>U</v>
       </c>
       <c r="C146" s="1"/>
       <c r="D146" s="5" t="e">
@@ -11478,14 +11539,14 @@
       </c>
       <c r="X146" s="1" t="str">
         <f>CONCATENATE("RS_",A146)</f>
-        <v>RS_C</v>
+        <v>RS_U</v>
       </c>
       <c r="Y146" s="4"/>
       <c r="Z146" s="4"/>
     </row>
     <row r="147" spans="1:26">
       <c r="A147" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B147" s="1" t="str">
         <f>A147</f>
@@ -11542,7 +11603,7 @@
     </row>
     <row r="148" spans="1:26">
       <c r="A148" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B148" s="1" t="str">
         <f>A148</f>
@@ -11599,7 +11660,7 @@
     </row>
     <row r="149" spans="1:26">
       <c r="A149" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B149" s="1" t="str">
         <f>A149</f>
@@ -11656,7 +11717,7 @@
     </row>
     <row r="150" spans="1:26">
       <c r="A150" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B150" s="1" t="str">
         <f>A150</f>
@@ -11713,7 +11774,7 @@
     </row>
     <row r="151" spans="1:26">
       <c r="A151" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B151" s="1" t="str">
         <f>A151</f>
@@ -11770,7 +11831,7 @@
     </row>
     <row r="152" spans="1:26">
       <c r="A152" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B152" s="1" t="str">
         <f>A152</f>
@@ -11827,7 +11888,7 @@
     </row>
     <row r="153" spans="1:26">
       <c r="A153" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B153" s="1" t="str">
         <f>A153</f>
@@ -11884,7 +11945,7 @@
     </row>
     <row r="154" spans="1:26">
       <c r="A154" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B154" s="1" t="str">
         <f>A154</f>
@@ -11941,11 +12002,11 @@
     </row>
     <row r="155" spans="1:26">
       <c r="A155" s="1" t="s">
-        <v>388</v>
+        <v>88</v>
       </c>
       <c r="B155" s="1" t="str">
         <f>A155</f>
-        <v>M_CMDR_OB_001</v>
+        <v>C</v>
       </c>
       <c r="C155" s="1"/>
       <c r="D155" s="5" t="e">
@@ -11953,29 +12014,19 @@
       </c>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
-      <c r="G155" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="H155" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="I155" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="J155" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="K155" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L155" s="1" t="e">
-        <v>#VALUE!</v>
+      <c r="G155" s="1"/>
+      <c r="H155" s="3"/>
+      <c r="I155" s="1"/>
+      <c r="J155" s="1"/>
+      <c r="K155" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L155" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="M155" s="1"/>
       <c r="N155" s="1"/>
-      <c r="O155" s="1" t="s">
-        <v>389</v>
-      </c>
+      <c r="O155" s="1"/>
       <c r="P155" s="1"/>
       <c r="Q155" s="1" t="n">
         <v>60</v>
@@ -12001,17 +12052,18 @@
       </c>
       <c r="X155" s="1" t="str">
         <f>CONCATENATE("RS_",A155)</f>
-        <v>RS_M_CMDR_OB_001</v>
+        <v>RS_C</v>
       </c>
       <c r="Y155" s="4"/>
       <c r="Z155" s="4"/>
     </row>
     <row r="156" spans="1:26">
       <c r="A156" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>48</v>
+        <v>400</v>
+      </c>
+      <c r="B156" s="1" t="str">
+        <f>A156</f>
+        <v>M_CMDR_OB_001</v>
       </c>
       <c r="C156" s="1"/>
       <c r="D156" s="5" t="e">
@@ -12019,17 +12071,29 @@
       </c>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
-      <c r="G156" s="1"/>
-      <c r="H156" s="3"/>
+      <c r="G156" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>401</v>
+      </c>
       <c r="I156" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="J156" s="1"/>
-      <c r="K156" s="1"/>
-      <c r="L156" s="1"/>
+        <v>401</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="K156" s="1" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L156" s="1" t="e">
+        <v>#VALUE!</v>
+      </c>
       <c r="M156" s="1"/>
       <c r="N156" s="1"/>
-      <c r="O156" s="1"/>
+      <c r="O156" s="1" t="s">
+        <v>401</v>
+      </c>
       <c r="P156" s="1"/>
       <c r="Q156" s="1" t="n">
         <v>60</v>
@@ -12055,7 +12119,7 @@
       </c>
       <c r="X156" s="1" t="str">
         <f>CONCATENATE("RS_",A156)</f>
-        <v>RS_R</v>
+        <v>RS_M_CMDR_OB_001</v>
       </c>
       <c r="Y156" s="4"/>
       <c r="Z156" s="4"/>
@@ -12075,14 +12139,12 @@
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
       <c r="H157" s="3"/>
-      <c r="I157" s="1"/>
+      <c r="I157" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="J157" s="1"/>
-      <c r="K157" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L157" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="K157" s="1"/>
+      <c r="L157" s="1"/>
       <c r="M157" s="1"/>
       <c r="N157" s="1"/>
       <c r="O157" s="1"/>
@@ -12230,11 +12292,10 @@
     </row>
     <row r="160" spans="1:26">
       <c r="A160" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B160" s="1" t="str">
-        <f>A160</f>
-        <v>U</v>
+        <v>48</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="C160" s="1"/>
       <c r="D160" s="5" t="e">
@@ -12280,14 +12341,14 @@
       </c>
       <c r="X160" s="1" t="str">
         <f>CONCATENATE("RS_",A160)</f>
-        <v>RS_U</v>
+        <v>RS_R</v>
       </c>
       <c r="Y160" s="4"/>
       <c r="Z160" s="4"/>
     </row>
     <row r="161" spans="1:26">
       <c r="A161" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B161" s="1" t="str">
         <f>A161</f>
@@ -12344,7 +12405,7 @@
     </row>
     <row r="162" spans="1:26">
       <c r="A162" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B162" s="1" t="str">
         <f>A162</f>
@@ -12401,7 +12462,7 @@
     </row>
     <row r="163" spans="1:26">
       <c r="A163" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B163" s="1" t="str">
         <f>A163</f>
@@ -12458,7 +12519,7 @@
     </row>
     <row r="164" spans="1:26">
       <c r="A164" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B164" s="1" t="str">
         <f>A164</f>
@@ -12515,7 +12576,7 @@
     </row>
     <row r="165" spans="1:26">
       <c r="A165" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B165" s="1" t="str">
         <f>A165</f>
@@ -12572,11 +12633,11 @@
     </row>
     <row r="166" spans="1:26">
       <c r="A166" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B166" s="1" t="str">
         <f>A166</f>
-        <v>C</v>
+        <v>U</v>
       </c>
       <c r="C166" s="1"/>
       <c r="D166" s="5" t="e">
@@ -12622,14 +12683,14 @@
       </c>
       <c r="X166" s="1" t="str">
         <f>CONCATENATE("RS_",A166)</f>
-        <v>RS_C</v>
+        <v>RS_U</v>
       </c>
       <c r="Y166" s="4"/>
       <c r="Z166" s="4"/>
     </row>
     <row r="167" spans="1:26">
       <c r="A167" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B167" s="1" t="str">
         <f>A167</f>
@@ -12686,7 +12747,7 @@
     </row>
     <row r="168" spans="1:26">
       <c r="A168" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B168" s="1" t="str">
         <f>A168</f>
@@ -12743,7 +12804,7 @@
     </row>
     <row r="169" spans="1:26">
       <c r="A169" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B169" s="1" t="str">
         <f>A169</f>
@@ -12800,7 +12861,7 @@
     </row>
     <row r="170" spans="1:26">
       <c r="A170" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B170" s="1" t="str">
         <f>A170</f>
@@ -12857,7 +12918,7 @@
     </row>
     <row r="171" spans="1:26">
       <c r="A171" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B171" s="1" t="str">
         <f>A171</f>
@@ -12914,7 +12975,7 @@
     </row>
     <row r="172" spans="1:26">
       <c r="A172" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B172" s="1" t="str">
         <f>A172</f>
@@ -12971,7 +13032,7 @@
     </row>
     <row r="173" spans="1:26">
       <c r="A173" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B173" s="1" t="str">
         <f>A173</f>
@@ -13028,7 +13089,7 @@
     </row>
     <row r="174" spans="1:26">
       <c r="A174" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B174" s="1" t="str">
         <f>A174</f>
@@ -13085,11 +13146,11 @@
     </row>
     <row r="175" spans="1:26">
       <c r="A175" s="1" t="s">
-        <v>390</v>
+        <v>88</v>
       </c>
       <c r="B175" s="1" t="str">
         <f>A175</f>
-        <v>M_CMDR_OP_001</v>
+        <v>C</v>
       </c>
       <c r="C175" s="1"/>
       <c r="D175" s="5" t="e">
@@ -13097,29 +13158,19 @@
       </c>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
-      <c r="G175" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="H175" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="I175" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="J175" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="K175" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L175" s="1" t="e">
-        <v>#VALUE!</v>
+      <c r="G175" s="1"/>
+      <c r="H175" s="3"/>
+      <c r="I175" s="1"/>
+      <c r="J175" s="1"/>
+      <c r="K175" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L175" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="M175" s="1"/>
       <c r="N175" s="1"/>
-      <c r="O175" s="1" t="s">
-        <v>391</v>
-      </c>
+      <c r="O175" s="1"/>
       <c r="P175" s="1"/>
       <c r="Q175" s="1" t="n">
         <v>60</v>
@@ -13145,18 +13196,18 @@
       </c>
       <c r="X175" s="1" t="str">
         <f>CONCATENATE("RS_",A175)</f>
-        <v>RS_M_CMDR_OP_001</v>
+        <v>RS_C</v>
       </c>
       <c r="Y175" s="4"/>
       <c r="Z175" s="4"/>
     </row>
     <row r="176" spans="1:26">
       <c r="A176" s="1" t="s">
-        <v>365</v>
+        <v>402</v>
       </c>
       <c r="B176" s="1" t="str">
         <f>A176</f>
-        <v>Y</v>
+        <v>M_CMDR_OP_001</v>
       </c>
       <c r="C176" s="1"/>
       <c r="D176" s="5" t="e">
@@ -13164,21 +13215,29 @@
       </c>
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
-      <c r="G176" s="1"/>
-      <c r="H176" s="3"/>
+      <c r="G176" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="H176" s="3" t="s">
+        <v>403</v>
+      </c>
       <c r="I176" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="J176" s="1"/>
-      <c r="K176" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L176" s="1" t="s">
-        <v>38</v>
+        <v>403</v>
+      </c>
+      <c r="J176" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K176" s="1" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L176" s="1" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="M176" s="1"/>
       <c r="N176" s="1"/>
-      <c r="O176" s="1"/>
+      <c r="O176" s="1" t="s">
+        <v>403</v>
+      </c>
       <c r="P176" s="1"/>
       <c r="Q176" s="1" t="n">
         <v>60</v>
@@ -13204,14 +13263,14 @@
       </c>
       <c r="X176" s="1" t="str">
         <f>CONCATENATE("RS_",A176)</f>
-        <v>RS_Y</v>
+        <v>RS_M_CMDR_OP_001</v>
       </c>
       <c r="Y176" s="4"/>
       <c r="Z176" s="4"/>
     </row>
     <row r="177" spans="1:26">
       <c r="A177" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B177" s="1" t="str">
         <f>A177</f>
@@ -13225,7 +13284,9 @@
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
       <c r="H177" s="3"/>
-      <c r="I177" s="1"/>
+      <c r="I177" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="J177" s="1"/>
       <c r="K177" s="1" t="s">
         <v>38</v>
@@ -13268,7 +13329,7 @@
     </row>
     <row r="178" spans="1:26">
       <c r="A178" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B178" s="1" t="str">
         <f>A178</f>
@@ -13325,7 +13386,7 @@
     </row>
     <row r="179" spans="1:26">
       <c r="A179" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B179" s="1" t="str">
         <f>A179</f>
@@ -13382,11 +13443,11 @@
     </row>
     <row r="180" spans="1:26">
       <c r="A180" s="1" t="s">
-        <v>82</v>
+        <v>368</v>
       </c>
       <c r="B180" s="1" t="str">
         <f>A180</f>
-        <v>U</v>
+        <v>Y</v>
       </c>
       <c r="C180" s="1"/>
       <c r="D180" s="5" t="e">
@@ -13432,14 +13493,14 @@
       </c>
       <c r="X180" s="1" t="str">
         <f>CONCATENATE("RS_",A180)</f>
-        <v>RS_U</v>
+        <v>RS_Y</v>
       </c>
       <c r="Y180" s="4"/>
       <c r="Z180" s="4"/>
     </row>
     <row r="181" spans="1:26">
       <c r="A181" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B181" s="1" t="str">
         <f>A181</f>
@@ -13496,7 +13557,7 @@
     </row>
     <row r="182" spans="1:26">
       <c r="A182" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B182" s="1" t="str">
         <f>A182</f>
@@ -13553,7 +13614,7 @@
     </row>
     <row r="183" spans="1:26">
       <c r="A183" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B183" s="1" t="str">
         <f>A183</f>
@@ -13610,7 +13671,7 @@
     </row>
     <row r="184" spans="1:26">
       <c r="A184" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B184" s="1" t="str">
         <f>A184</f>
@@ -13667,7 +13728,7 @@
     </row>
     <row r="185" spans="1:26">
       <c r="A185" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B185" s="1" t="str">
         <f>A185</f>
@@ -13724,11 +13785,11 @@
     </row>
     <row r="186" spans="1:26">
       <c r="A186" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B186" s="1" t="str">
         <f>A186</f>
-        <v>C</v>
+        <v>U</v>
       </c>
       <c r="C186" s="1"/>
       <c r="D186" s="5" t="e">
@@ -13774,14 +13835,14 @@
       </c>
       <c r="X186" s="1" t="str">
         <f>CONCATENATE("RS_",A186)</f>
-        <v>RS_C</v>
+        <v>RS_U</v>
       </c>
       <c r="Y186" s="4"/>
       <c r="Z186" s="4"/>
     </row>
     <row r="187" spans="1:26">
       <c r="A187" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B187" s="1" t="str">
         <f>A187</f>
@@ -13838,7 +13899,7 @@
     </row>
     <row r="188" spans="1:26">
       <c r="A188" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B188" s="1" t="str">
         <f>A188</f>
@@ -13895,7 +13956,7 @@
     </row>
     <row r="189" spans="1:26">
       <c r="A189" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B189" s="1" t="str">
         <f>A189</f>
@@ -13952,7 +14013,7 @@
     </row>
     <row r="190" spans="1:26">
       <c r="A190" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B190" s="1" t="str">
         <f>A190</f>
@@ -14009,7 +14070,7 @@
     </row>
     <row r="191" spans="1:26">
       <c r="A191" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B191" s="1" t="str">
         <f>A191</f>
@@ -14066,7 +14127,7 @@
     </row>
     <row r="192" spans="1:26">
       <c r="A192" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B192" s="1" t="str">
         <f>A192</f>
@@ -14123,7 +14184,7 @@
     </row>
     <row r="193" spans="1:26">
       <c r="A193" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B193" s="1" t="str">
         <f>A193</f>
@@ -14180,7 +14241,7 @@
     </row>
     <row r="194" spans="1:26">
       <c r="A194" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B194" s="1" t="str">
         <f>A194</f>
@@ -14237,11 +14298,11 @@
     </row>
     <row r="195" spans="1:26">
       <c r="A195" s="1" t="s">
-        <v>392</v>
+        <v>88</v>
       </c>
       <c r="B195" s="1" t="str">
         <f>A195</f>
-        <v>M_CMDR_YG_001</v>
+        <v>C</v>
       </c>
       <c r="C195" s="1"/>
       <c r="D195" s="5" t="e">
@@ -14249,29 +14310,19 @@
       </c>
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
-      <c r="G195" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="H195" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="I195" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="J195" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K195" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L195" s="1" t="e">
-        <v>#VALUE!</v>
+      <c r="G195" s="1"/>
+      <c r="H195" s="3"/>
+      <c r="I195" s="1"/>
+      <c r="J195" s="1"/>
+      <c r="K195" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L195" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="M195" s="1"/>
       <c r="N195" s="1"/>
-      <c r="O195" s="1" t="s">
-        <v>393</v>
-      </c>
+      <c r="O195" s="1"/>
       <c r="P195" s="1"/>
       <c r="Q195" s="1" t="n">
         <v>60</v>
@@ -14297,18 +14348,18 @@
       </c>
       <c r="X195" s="1" t="str">
         <f>CONCATENATE("RS_",A195)</f>
-        <v>RS_M_CMDR_YG_001</v>
+        <v>RS_C</v>
       </c>
       <c r="Y195" s="4"/>
       <c r="Z195" s="4"/>
     </row>
     <row r="196" spans="1:26">
       <c r="A196" s="1" t="s">
-        <v>365</v>
+        <v>404</v>
       </c>
       <c r="B196" s="1" t="str">
         <f>A196</f>
-        <v>Y</v>
+        <v>M_CMDR_YG_001</v>
       </c>
       <c r="C196" s="1"/>
       <c r="D196" s="5" t="e">
@@ -14316,21 +14367,29 @@
       </c>
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
-      <c r="G196" s="1"/>
-      <c r="H196" s="3"/>
+      <c r="G196" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H196" s="3" t="s">
+        <v>405</v>
+      </c>
       <c r="I196" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="J196" s="1"/>
-      <c r="K196" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L196" s="1" t="s">
-        <v>38</v>
+        <v>405</v>
+      </c>
+      <c r="J196" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="K196" s="1" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L196" s="1" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="M196" s="1"/>
       <c r="N196" s="1"/>
-      <c r="O196" s="1"/>
+      <c r="O196" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="P196" s="1"/>
       <c r="Q196" s="1" t="n">
         <v>60</v>
@@ -14356,14 +14415,14 @@
       </c>
       <c r="X196" s="1" t="str">
         <f>CONCATENATE("RS_",A196)</f>
-        <v>RS_Y</v>
+        <v>RS_M_CMDR_YG_001</v>
       </c>
       <c r="Y196" s="4"/>
       <c r="Z196" s="4"/>
     </row>
     <row r="197" spans="1:26">
       <c r="A197" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B197" s="1" t="str">
         <f>A197</f>
@@ -14377,7 +14436,9 @@
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
       <c r="H197" s="3"/>
-      <c r="I197" s="1"/>
+      <c r="I197" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="J197" s="1"/>
       <c r="K197" s="1" t="s">
         <v>38</v>
@@ -14420,7 +14481,7 @@
     </row>
     <row r="198" spans="1:26">
       <c r="A198" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B198" s="1" t="str">
         <f>A198</f>
@@ -14477,7 +14538,7 @@
     </row>
     <row r="199" spans="1:26">
       <c r="A199" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B199" s="1" t="str">
         <f>A199</f>
@@ -14534,30 +14595,21 @@
     </row>
     <row r="200" spans="1:26">
       <c r="A200" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>396</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="B200" s="1" t="str">
+        <f>A200</f>
+        <v>Y</v>
+      </c>
+      <c r="C200" s="1"/>
       <c r="D200" s="5" t="e">
         <v>#NAME?</v>
       </c>
       <c r="E200" s="1"/>
-      <c r="F200" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G200" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="H200" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I200" s="1" t="s">
-        <v>398</v>
-      </c>
+      <c r="F200" s="1"/>
+      <c r="G200" s="1"/>
+      <c r="H200" s="3"/>
+      <c r="I200" s="1"/>
       <c r="J200" s="1"/>
       <c r="K200" s="1" t="s">
         <v>38</v>
@@ -14589,34 +14641,41 @@
       </c>
       <c r="W200" s="1" t="str">
         <f>CONCATENATE("[i]",F200,"[/i]")</f>
-        <v>[i]Effect[/i]</v>
+        <v>[i][/i]</v>
       </c>
       <c r="X200" s="1" t="str">
         <f>CONCATENATE("RS_",A200)</f>
-        <v>RS_MU_YG_001</v>
-      </c>
-      <c r="Y200" s="4" t="s">
-        <v>399</v>
-      </c>
+        <v>RS_Y</v>
+      </c>
+      <c r="Y200" s="4"/>
       <c r="Z200" s="4"/>
     </row>
     <row r="201" spans="1:26">
       <c r="A201" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B201" s="1" t="str">
-        <f>A201</f>
-        <v>U</v>
-      </c>
-      <c r="C201" s="1"/>
+        <v>406</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>408</v>
+      </c>
       <c r="D201" s="5" t="e">
         <v>#NAME?</v>
       </c>
       <c r="E201" s="1"/>
-      <c r="F201" s="1"/>
-      <c r="G201" s="1"/>
-      <c r="H201" s="3"/>
-      <c r="I201" s="1"/>
+      <c r="F201" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G201" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="H201" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I201" s="1" t="s">
+        <v>410</v>
+      </c>
       <c r="J201" s="1"/>
       <c r="K201" s="1" t="s">
         <v>38</v>
@@ -14648,18 +14707,20 @@
       </c>
       <c r="W201" s="1" t="str">
         <f>CONCATENATE("[i]",F201,"[/i]")</f>
-        <v>[i][/i]</v>
+        <v>[i]Effect[/i]</v>
       </c>
       <c r="X201" s="1" t="str">
         <f>CONCATENATE("RS_",A201)</f>
-        <v>RS_U</v>
-      </c>
-      <c r="Y201" s="4"/>
+        <v>RS_MU_YG_001</v>
+      </c>
+      <c r="Y201" s="4" t="s">
+        <v>411</v>
+      </c>
       <c r="Z201" s="4"/>
     </row>
     <row r="202" spans="1:26">
       <c r="A202" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B202" s="1" t="str">
         <f>A202</f>
@@ -14716,7 +14777,7 @@
     </row>
     <row r="203" spans="1:26">
       <c r="A203" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B203" s="1" t="str">
         <f>A203</f>
@@ -14773,7 +14834,7 @@
     </row>
     <row r="204" spans="1:26">
       <c r="A204" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B204" s="1" t="str">
         <f>A204</f>
@@ -14830,7 +14891,7 @@
     </row>
     <row r="205" spans="1:26">
       <c r="A205" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B205" s="1" t="str">
         <f>A205</f>
@@ -14887,38 +14948,27 @@
     </row>
     <row r="206" spans="1:26">
       <c r="A206" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D206" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E206" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F206" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G206" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="H206" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="I206" s="1" t="s">
-        <v>403</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B206" s="1" t="str">
+        <f>A206</f>
+        <v>U</v>
+      </c>
+      <c r="C206" s="1"/>
+      <c r="D206" s="5" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="E206" s="1"/>
+      <c r="F206" s="1"/>
+      <c r="G206" s="1"/>
+      <c r="H206" s="3"/>
+      <c r="I206" s="1"/>
       <c r="J206" s="1"/>
-      <c r="K206" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L206" s="1" t="n">
-        <v>2</v>
+      <c r="K206" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L206" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="M206" s="1"/>
       <c r="N206" s="1"/>
@@ -14944,40 +14994,49 @@
       </c>
       <c r="W206" s="1" t="str">
         <f>CONCATENATE("[i]",F206,"[/i]")</f>
-        <v>[i]Asset[/i]</v>
+        <v>[i][/i]</v>
       </c>
       <c r="X206" s="1" t="str">
         <f>CONCATENATE("RS_",A206)</f>
-        <v>RS_MC_YG_001</v>
-      </c>
-      <c r="Y206" s="4" t="s">
-        <v>288</v>
-      </c>
+        <v>RS_U</v>
+      </c>
+      <c r="Y206" s="4"/>
       <c r="Z206" s="4"/>
     </row>
     <row r="207" spans="1:26">
       <c r="A207" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B207" s="1" t="str">
-        <f>A207</f>
-        <v>C</v>
-      </c>
-      <c r="C207" s="1"/>
-      <c r="D207" s="5" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="E207" s="1"/>
-      <c r="F207" s="1"/>
-      <c r="G207" s="1"/>
-      <c r="H207" s="3"/>
-      <c r="I207" s="1"/>
+        <v>412</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D207" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G207" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="H207" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I207" s="1" t="s">
+        <v>415</v>
+      </c>
       <c r="J207" s="1"/>
-      <c r="K207" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L207" s="1" t="s">
-        <v>38</v>
+      <c r="K207" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L207" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="M207" s="1"/>
       <c r="N207" s="1"/>
@@ -15003,18 +15062,20 @@
       </c>
       <c r="W207" s="1" t="str">
         <f>CONCATENATE("[i]",F207,"[/i]")</f>
-        <v>[i][/i]</v>
+        <v>[i]Asset[/i]</v>
       </c>
       <c r="X207" s="1" t="str">
         <f>CONCATENATE("RS_",A207)</f>
-        <v>RS_C</v>
-      </c>
-      <c r="Y207" s="4"/>
+        <v>RS_MC_YG_001</v>
+      </c>
+      <c r="Y207" s="4" t="s">
+        <v>292</v>
+      </c>
       <c r="Z207" s="4"/>
     </row>
     <row r="208" spans="1:26">
       <c r="A208" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B208" s="1" t="str">
         <f>A208</f>
@@ -15071,7 +15132,7 @@
     </row>
     <row r="209" spans="1:26">
       <c r="A209" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B209" s="1" t="str">
         <f>A209</f>
@@ -15128,7 +15189,7 @@
     </row>
     <row r="210" spans="1:26">
       <c r="A210" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B210" s="1" t="str">
         <f>A210</f>
@@ -15185,7 +15246,7 @@
     </row>
     <row r="211" spans="1:26">
       <c r="A211" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B211" s="1" t="str">
         <f>A211</f>
@@ -15242,7 +15303,7 @@
     </row>
     <row r="212" spans="1:26">
       <c r="A212" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B212" s="1" t="str">
         <f>A212</f>
@@ -15299,7 +15360,7 @@
     </row>
     <row r="213" spans="1:26">
       <c r="A213" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B213" s="1" t="str">
         <f>A213</f>
@@ -15356,7 +15417,7 @@
     </row>
     <row r="214" spans="1:26">
       <c r="A214" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B214" s="1" t="str">
         <f>A214</f>
@@ -15413,47 +15474,32 @@
     </row>
     <row r="215" spans="1:26">
       <c r="A215" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>406</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="B215" s="1" t="str">
+        <f>A215</f>
+        <v>C</v>
+      </c>
+      <c r="C215" s="1"/>
       <c r="D215" s="5" t="e">
         <v>#NAME?</v>
       </c>
-      <c r="E215" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F215" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G215" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="H215" s="9" t="n">
-        <v>9</v>
-      </c>
-      <c r="I215" s="1" t="s">
-        <v>408</v>
-      </c>
+      <c r="E215" s="1"/>
+      <c r="F215" s="1"/>
+      <c r="G215" s="1"/>
+      <c r="H215" s="3"/>
+      <c r="I215" s="1"/>
       <c r="J215" s="1"/>
-      <c r="K215" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="L215" s="1" t="n">
-        <v>3</v>
+      <c r="K215" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L215" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="M215" s="1"/>
       <c r="N215" s="1"/>
-      <c r="O215" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="P215" s="1" t="s">
-        <v>410</v>
-      </c>
+      <c r="O215" s="1"/>
+      <c r="P215" s="1"/>
       <c r="Q215" s="1" t="n">
         <v>60</v>
       </c>
@@ -15474,47 +15520,58 @@
       </c>
       <c r="W215" s="1" t="str">
         <f>CONCATENATE("[i]",F215,"[/i]")</f>
-        <v>[i]Commander[/i]</v>
+        <v>[i][/i]</v>
       </c>
       <c r="X215" s="1" t="str">
         <f>CONCATENATE("RS_",A215)</f>
-        <v>RS_M_CMDR_YB_001</v>
-      </c>
-      <c r="Y215" s="4" t="s">
-        <v>411</v>
-      </c>
+        <v>RS_C</v>
+      </c>
+      <c r="Y215" s="4"/>
       <c r="Z215" s="4"/>
     </row>
     <row r="216" spans="1:26">
       <c r="A216" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B216" s="1" t="str">
-        <f>A216</f>
-        <v>Y</v>
-      </c>
-      <c r="C216" s="1"/>
+        <v>416</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="D216" s="5" t="e">
         <v>#NAME?</v>
       </c>
-      <c r="E216" s="1"/>
-      <c r="F216" s="1"/>
-      <c r="G216" s="1"/>
-      <c r="H216" s="3"/>
+      <c r="E216" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G216" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="H216" s="9" t="n">
+        <v>9</v>
+      </c>
       <c r="I216" s="1" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="J216" s="1"/>
-      <c r="K216" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L216" s="1" t="s">
-        <v>38</v>
+      <c r="K216" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L216" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="M216" s="1"/>
       <c r="N216" s="1"/>
-      <c r="O216" s="1"/>
-      <c r="P216" s="1"/>
+      <c r="O216" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="P216" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="Q216" s="1" t="n">
         <v>60</v>
       </c>
@@ -15535,49 +15592,42 @@
       </c>
       <c r="W216" s="1" t="str">
         <f>CONCATENATE("[i]",F216,"[/i]")</f>
-        <v>[i][/i]</v>
+        <v>[i]Commander[/i]</v>
       </c>
       <c r="X216" s="1" t="str">
         <f>CONCATENATE("RS_",A216)</f>
-        <v>RS_Y</v>
-      </c>
-      <c r="Y216" s="4"/>
+        <v>RS_M_CMDR_YB_001</v>
+      </c>
+      <c r="Y216" s="4" t="s">
+        <v>423</v>
+      </c>
       <c r="Z216" s="4"/>
     </row>
     <row r="217" spans="1:26">
       <c r="A217" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>415</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="B217" s="1" t="str">
+        <f>A217</f>
+        <v>Y</v>
+      </c>
+      <c r="C217" s="1"/>
       <c r="D217" s="5" t="e">
         <v>#NAME?</v>
       </c>
-      <c r="E217" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F217" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G217" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="H217" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="E217" s="1"/>
+      <c r="F217" s="1"/>
+      <c r="G217" s="1"/>
+      <c r="H217" s="3"/>
       <c r="I217" s="1" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="J217" s="1"/>
-      <c r="K217" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L217" s="1" t="n">
-        <v>1</v>
+      <c r="K217" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L217" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="M217" s="1"/>
       <c r="N217" s="1"/>
@@ -15603,47 +15653,50 @@
       </c>
       <c r="W217" s="1" t="str">
         <f>CONCATENATE("[i]",F217,"[/i]")</f>
-        <v>[i]R. Asset[/i]</v>
+        <v>[i][/i]</v>
       </c>
       <c r="X217" s="1" t="str">
         <f>CONCATENATE("RS_",A217)</f>
-        <v>RS_BY_001</v>
-      </c>
-      <c r="Y217" s="4" t="str">
-        <f>_xlfn.CONCAT("2",C217)</f>
-        <v>22B</v>
-      </c>
+        <v>RS_Y</v>
+      </c>
+      <c r="Y217" s="4"/>
       <c r="Z217" s="4"/>
     </row>
     <row r="218" spans="1:26">
       <c r="A218" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="B218" s="9" t="s">
-        <v>419</v>
+        <v>425</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>426</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D218" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E218" s="1"/>
+        <v>427</v>
+      </c>
+      <c r="D218" s="5" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="F218" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="H218" s="3" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="I218" s="1" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="J218" s="1"/>
-      <c r="K218" s="1"/>
-      <c r="L218" s="1"/>
+      <c r="K218" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="M218" s="1"/>
       <c r="N218" s="1"/>
       <c r="O218" s="1"/>
@@ -15668,38 +15721,47 @@
       </c>
       <c r="W218" s="1" t="str">
         <f>CONCATENATE("[i]",F218,"[/i]")</f>
-        <v>[i]R. Effect[/i]</v>
+        <v>[i]R. Asset[/i]</v>
       </c>
       <c r="X218" s="1" t="str">
         <f>CONCATENATE("RS_",A218)</f>
-        <v>RS_BY_001b</v>
-      </c>
-      <c r="Y218" s="4" t="s">
-        <v>155</v>
+        <v>RS_BY_001</v>
+      </c>
+      <c r="Y218" s="4" t="str">
+        <f>_xlfn.CONCAT("2",C218)</f>
+        <v>22B</v>
       </c>
       <c r="Z218" s="4"/>
     </row>
     <row r="219" spans="1:26">
       <c r="A219" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B219" s="1"/>
-      <c r="C219" s="1"/>
+        <v>430</v>
+      </c>
+      <c r="B219" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="D219" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E219" s="1"/>
+      <c r="F219" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E219" s="1"/>
-      <c r="F219" s="1"/>
-      <c r="G219" s="1"/>
-      <c r="H219" s="1"/>
-      <c r="I219" s="1"/>
+      <c r="G219" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="H219" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I219" s="1" t="s">
+        <v>433</v>
+      </c>
       <c r="J219" s="1"/>
-      <c r="K219" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L219" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="K219" s="1"/>
+      <c r="L219" s="1"/>
       <c r="M219" s="1"/>
       <c r="N219" s="1"/>
       <c r="O219" s="1"/>
@@ -15724,34 +15786,31 @@
       </c>
       <c r="W219" s="1" t="str">
         <f>CONCATENATE("[i]",F219,"[/i]")</f>
-        <v>[i][/i]</v>
+        <v>[i]R. Effect[/i]</v>
       </c>
       <c r="X219" s="1" t="str">
         <f>CONCATENATE("RS_",A219)</f>
-        <v>RS_Y</v>
-      </c>
-      <c r="Y219" s="4"/>
+        <v>RS_BY_001b</v>
+      </c>
+      <c r="Y219" s="4" t="s">
+        <v>160</v>
+      </c>
       <c r="Z219" s="4"/>
     </row>
     <row r="220" spans="1:26">
       <c r="A220" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B220" s="1" t="str">
-        <f>A220</f>
-        <v>Y</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="B220" s="1"/>
       <c r="C220" s="1"/>
-      <c r="D220" s="5" t="e">
-        <v>#NAME?</v>
+      <c r="D220" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="E220" s="1"/>
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
-      <c r="H220" s="3"/>
-      <c r="I220" s="1" t="s">
-        <v>217</v>
-      </c>
+      <c r="H220" s="1"/>
+      <c r="I220" s="1"/>
       <c r="J220" s="1"/>
       <c r="K220" s="1" t="s">
         <v>38</v>
@@ -15794,38 +15853,29 @@
     </row>
     <row r="221" spans="1:26">
       <c r="A221" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>411</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="B221" s="1" t="str">
+        <f>A221</f>
+        <v>Y</v>
+      </c>
+      <c r="C221" s="1"/>
       <c r="D221" s="5" t="e">
         <v>#NAME?</v>
       </c>
-      <c r="E221" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F221" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G221" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="H221" s="3" t="s">
-        <v>63</v>
-      </c>
+      <c r="E221" s="1"/>
+      <c r="F221" s="1"/>
+      <c r="G221" s="1"/>
+      <c r="H221" s="3"/>
       <c r="I221" s="1" t="s">
-        <v>425</v>
+        <v>222</v>
       </c>
       <c r="J221" s="1"/>
-      <c r="K221" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L221" s="1" t="n">
-        <v>1</v>
+      <c r="K221" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L221" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="M221" s="1"/>
       <c r="N221" s="1"/>
@@ -15851,26 +15901,24 @@
       </c>
       <c r="W221" s="1" t="str">
         <f>CONCATENATE("[i]",F221,"[/i]")</f>
-        <v>[i]Asset[/i]</v>
+        <v>[i][/i]</v>
       </c>
       <c r="X221" s="1" t="str">
         <f>CONCATENATE("RS_",A221)</f>
-        <v>RS_MU_YB_001</v>
-      </c>
-      <c r="Y221" s="4" t="s">
-        <v>411</v>
-      </c>
+        <v>RS_Y</v>
+      </c>
+      <c r="Y221" s="4"/>
       <c r="Z221" s="4"/>
     </row>
     <row r="222" spans="1:26">
       <c r="A222" s="1" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="D222" s="5" t="e">
         <v>#NAME?</v>
@@ -15882,20 +15930,20 @@
         <v>25</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="H222" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I222" s="1" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="J222" s="1"/>
       <c r="K222" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L222" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M222" s="1"/>
       <c r="N222" s="1"/>
@@ -15925,25 +15973,25 @@
       </c>
       <c r="X222" s="1" t="str">
         <f>CONCATENATE("RS_",A222)</f>
-        <v>RS_MU_YB_002</v>
+        <v>RS_MU_YB_001</v>
       </c>
       <c r="Y222" s="4" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="Z222" s="4"/>
     </row>
     <row r="223" spans="1:26">
       <c r="A223" s="1" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D223" s="5" t="s">
-        <v>69</v>
+        <v>423</v>
+      </c>
+      <c r="D223" s="5" t="e">
+        <v>#NAME?</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>49</v>
@@ -15952,20 +16000,20 @@
         <v>25</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="H223" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I223" s="1" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="J223" s="1"/>
       <c r="K223" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L223" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M223" s="1"/>
       <c r="N223" s="1"/>
@@ -15995,25 +16043,25 @@
       </c>
       <c r="X223" s="1" t="str">
         <f>CONCATENATE("RS_",A223)</f>
-        <v>RS_MU_YB_003</v>
+        <v>RS_MU_YB_002</v>
       </c>
       <c r="Y223" s="4" t="s">
-        <v>288</v>
+        <v>423</v>
       </c>
       <c r="Z223" s="4"/>
     </row>
     <row r="224" spans="1:26">
       <c r="A224" s="1" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="D224" s="5" t="e">
-        <v>#NAME?</v>
+        <v>292</v>
+      </c>
+      <c r="D224" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>49</v>
@@ -16022,13 +16070,13 @@
         <v>25</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>407</v>
+        <v>444</v>
       </c>
       <c r="H224" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I224" s="1" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="J224" s="1"/>
       <c r="K224" s="1" t="n">
@@ -16065,22 +16113,22 @@
       </c>
       <c r="X224" s="1" t="str">
         <f>CONCATENATE("RS_",A224)</f>
-        <v>RS_BU_003</v>
+        <v>RS_MU_YB_003</v>
       </c>
       <c r="Y224" s="4" t="s">
-        <v>436</v>
+        <v>292</v>
       </c>
       <c r="Z224" s="4"/>
     </row>
     <row r="225" spans="1:26">
       <c r="A225" s="1" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>415</v>
+        <v>448</v>
       </c>
       <c r="D225" s="5" t="e">
         <v>#NAME?</v>
@@ -16092,13 +16140,13 @@
         <v>25</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="H225" s="3" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="I225" s="1" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="J225" s="1"/>
       <c r="K225" s="1" t="n">
@@ -16135,35 +16183,47 @@
       </c>
       <c r="X225" s="1" t="str">
         <f>CONCATENATE("RS_",A225)</f>
-        <v>RS_BU_003b</v>
-      </c>
-      <c r="Y225" s="4" t="str">
-        <f>_xlfn.CONCAT("2",C225)</f>
-        <v>22B</v>
+        <v>RS_BU_003</v>
+      </c>
+      <c r="Y225" s="4" t="s">
+        <v>448</v>
       </c>
       <c r="Z225" s="4"/>
     </row>
     <row r="226" spans="1:26">
       <c r="A226" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B226" s="1" t="str">
-        <f>A226</f>
-        <v>U</v>
-      </c>
-      <c r="C226" s="1"/>
+        <v>450</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>427</v>
+      </c>
       <c r="D226" s="5" t="e">
         <v>#NAME?</v>
       </c>
-      <c r="E226" s="1"/>
-      <c r="F226" s="1"/>
-      <c r="G226" s="1"/>
-      <c r="H226" s="3"/>
-      <c r="I226" s="1"/>
+      <c r="E226" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G226" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="H226" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I226" s="1" t="s">
+        <v>453</v>
+      </c>
       <c r="J226" s="1"/>
-      <c r="K226" s="1"/>
-      <c r="L226" s="1" t="s">
-        <v>38</v>
+      <c r="K226" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L226" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="M226" s="1"/>
       <c r="N226" s="1"/>
@@ -16189,18 +16249,21 @@
       </c>
       <c r="W226" s="1" t="str">
         <f>CONCATENATE("[i]",F226,"[/i]")</f>
-        <v>[i][/i]</v>
+        <v>[i]Asset[/i]</v>
       </c>
       <c r="X226" s="1" t="str">
         <f>CONCATENATE("RS_",A226)</f>
-        <v>RS_U</v>
-      </c>
-      <c r="Y226" s="4"/>
+        <v>RS_BU_003b</v>
+      </c>
+      <c r="Y226" s="4" t="str">
+        <f>_xlfn.CONCAT("2",C226)</f>
+        <v>22B</v>
+      </c>
       <c r="Z226" s="4"/>
     </row>
     <row r="227" spans="1:26">
       <c r="A227" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B227" s="1" t="str">
         <f>A227</f>
@@ -16216,9 +16279,7 @@
       <c r="H227" s="3"/>
       <c r="I227" s="1"/>
       <c r="J227" s="1"/>
-      <c r="K227" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="K227" s="1"/>
       <c r="L227" s="1" t="s">
         <v>38</v>
       </c>
@@ -16257,28 +16318,21 @@
     </row>
     <row r="228" spans="1:26">
       <c r="A228" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D228" s="5" t="s">
-        <v>69</v>
+        <v>81</v>
+      </c>
+      <c r="B228" s="1" t="str">
+        <f>A228</f>
+        <v>U</v>
+      </c>
+      <c r="C228" s="1"/>
+      <c r="D228" s="5" t="e">
+        <v>#NAME?</v>
       </c>
       <c r="E228" s="1"/>
-      <c r="F228" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="F228" s="1"/>
       <c r="G228" s="1"/>
-      <c r="H228" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="I228" s="1" t="s">
-        <v>444</v>
-      </c>
+      <c r="H228" s="3"/>
+      <c r="I228" s="1"/>
       <c r="J228" s="1"/>
       <c r="K228" s="1" t="s">
         <v>38</v>
@@ -16310,34 +16364,38 @@
       </c>
       <c r="W228" s="1" t="str">
         <f>CONCATENATE("[i]",F228,"[/i]")</f>
-        <v>[i]Effect[/i]</v>
+        <v>[i][/i]</v>
       </c>
       <c r="X228" s="1" t="str">
         <f>CONCATENATE("RS_",A228)</f>
-        <v>RS_MC_YB_001</v>
-      </c>
-      <c r="Y228" s="4" t="s">
-        <v>288</v>
-      </c>
+        <v>RS_U</v>
+      </c>
+      <c r="Y228" s="4"/>
       <c r="Z228" s="4"/>
     </row>
     <row r="229" spans="1:26">
       <c r="A229" s="1" t="s">
-        <v>83</v>
+        <v>454</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="C229" s="1"/>
-      <c r="D229" s="5" t="e">
-        <v>#NAME?</v>
+        <v>455</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D229" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="E229" s="1"/>
-      <c r="F229" s="1"/>
+      <c r="F229" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="G229" s="1"/>
-      <c r="H229" s="3"/>
+      <c r="H229" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="I229" s="1" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="J229" s="1"/>
       <c r="K229" s="1" t="s">
@@ -16370,22 +16428,23 @@
       </c>
       <c r="W229" s="1" t="str">
         <f>CONCATENATE("[i]",F229,"[/i]")</f>
-        <v>[i][/i]</v>
+        <v>[i]Effect[/i]</v>
       </c>
       <c r="X229" s="1" t="str">
         <f>CONCATENATE("RS_",A229)</f>
-        <v>RS_C</v>
-      </c>
-      <c r="Y229" s="4"/>
+        <v>RS_MC_YB_001</v>
+      </c>
+      <c r="Y229" s="4" t="s">
+        <v>292</v>
+      </c>
       <c r="Z229" s="4"/>
     </row>
     <row r="230" spans="1:26">
       <c r="A230" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B230" s="1" t="str">
-        <f>A230</f>
-        <v>C</v>
+        <v>88</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>457</v>
       </c>
       <c r="C230" s="1"/>
       <c r="D230" s="5" t="e">
@@ -16395,7 +16454,9 @@
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
       <c r="H230" s="3"/>
-      <c r="I230" s="1"/>
+      <c r="I230" s="1" t="s">
+        <v>458</v>
+      </c>
       <c r="J230" s="1"/>
       <c r="K230" s="1" t="s">
         <v>38</v>
@@ -16438,7 +16499,7 @@
     </row>
     <row r="231" spans="1:26">
       <c r="A231" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B231" s="1" t="str">
         <f>A231</f>
@@ -16495,7 +16556,7 @@
     </row>
     <row r="232" spans="1:26">
       <c r="A232" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B232" s="1" t="str">
         <f>A232</f>
@@ -16552,7 +16613,7 @@
     </row>
     <row r="233" spans="1:26">
       <c r="A233" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B233" s="1" t="str">
         <f>A233</f>
@@ -16609,7 +16670,7 @@
     </row>
     <row r="234" spans="1:26">
       <c r="A234" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B234" s="1" t="str">
         <f>A234</f>
@@ -16666,7 +16727,7 @@
     </row>
     <row r="235" spans="1:26">
       <c r="A235" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B235" s="1" t="str">
         <f>A235</f>
@@ -16723,7 +16784,7 @@
     </row>
     <row r="236" spans="1:26">
       <c r="A236" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B236" s="1" t="str">
         <f>A236</f>
@@ -16780,46 +16841,31 @@
     </row>
     <row r="237" spans="1:26">
       <c r="A237" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="C237" s="1" t="s">
-        <v>449</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="B237" s="1" t="str">
+        <f>A237</f>
+        <v>C</v>
+      </c>
+      <c r="C237" s="1"/>
       <c r="D237" s="5" t="e">
         <v>#NAME?</v>
       </c>
-      <c r="E237" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F237" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G237" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="H237" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I237" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="J237" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="K237" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="L237" s="1" t="n">
-        <v>8</v>
+      <c r="E237" s="1"/>
+      <c r="F237" s="1"/>
+      <c r="G237" s="1"/>
+      <c r="H237" s="3"/>
+      <c r="I237" s="1"/>
+      <c r="J237" s="1"/>
+      <c r="K237" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L237" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="M237" s="1"/>
       <c r="N237" s="1"/>
-      <c r="O237" s="1" t="s">
-        <v>453</v>
-      </c>
+      <c r="O237" s="1"/>
       <c r="P237" s="1"/>
       <c r="Q237" s="1" t="n">
         <v>60</v>
@@ -16841,46 +16887,57 @@
       </c>
       <c r="W237" s="1" t="str">
         <f>CONCATENATE("[i]",F237,"[/i]")</f>
-        <v>[i]Commander[/i]</v>
+        <v>[i][/i]</v>
       </c>
       <c r="X237" s="1" t="str">
         <f>CONCATENATE("RS_",A237)</f>
-        <v>RS_M_CMDR_YP_001</v>
-      </c>
-      <c r="Y237" s="4" t="s">
-        <v>449</v>
-      </c>
+        <v>RS_C</v>
+      </c>
+      <c r="Y237" s="4"/>
       <c r="Z237" s="4"/>
     </row>
     <row r="238" spans="1:26">
       <c r="A238" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B238" s="1" t="str">
-        <f>A238</f>
-        <v>Y</v>
-      </c>
-      <c r="C238" s="1"/>
+        <v>459</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>461</v>
+      </c>
       <c r="D238" s="5" t="e">
         <v>#NAME?</v>
       </c>
-      <c r="E238" s="1"/>
-      <c r="F238" s="1"/>
-      <c r="G238" s="1"/>
-      <c r="H238" s="3"/>
+      <c r="E238" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G238" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="H238" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="I238" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="J238" s="1"/>
-      <c r="K238" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L238" s="1" t="s">
-        <v>38</v>
+        <v>463</v>
+      </c>
+      <c r="J238" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="K238" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="L238" s="1" t="n">
+        <v>8</v>
       </c>
       <c r="M238" s="1"/>
       <c r="N238" s="1"/>
-      <c r="O238" s="1"/>
+      <c r="O238" s="1" t="s">
+        <v>465</v>
+      </c>
       <c r="P238" s="1"/>
       <c r="Q238" s="1" t="n">
         <v>60</v>
@@ -16902,18 +16959,20 @@
       </c>
       <c r="W238" s="1" t="str">
         <f>CONCATENATE("[i]",F238,"[/i]")</f>
-        <v>[i][/i]</v>
+        <v>[i]Commander[/i]</v>
       </c>
       <c r="X238" s="1" t="str">
         <f>CONCATENATE("RS_",A238)</f>
-        <v>RS_Y</v>
-      </c>
-      <c r="Y238" s="4"/>
+        <v>RS_M_CMDR_YP_001</v>
+      </c>
+      <c r="Y238" s="4" t="s">
+        <v>461</v>
+      </c>
       <c r="Z238" s="4"/>
     </row>
     <row r="239" spans="1:26">
       <c r="A239" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B239" s="1" t="str">
         <f>A239</f>
@@ -16927,7 +16986,9 @@
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
       <c r="H239" s="3"/>
-      <c r="I239" s="1"/>
+      <c r="I239" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="J239" s="1"/>
       <c r="K239" s="1" t="s">
         <v>38</v>
@@ -16970,7 +17031,7 @@
     </row>
     <row r="240" spans="1:26">
       <c r="A240" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B240" s="1" t="str">
         <f>A240</f>
@@ -17027,7 +17088,7 @@
     </row>
     <row r="241" spans="1:26">
       <c r="A241" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B241" s="1" t="str">
         <f>A241</f>
@@ -17084,28 +17145,21 @@
     </row>
     <row r="242" spans="1:26">
       <c r="A242" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>456</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="B242" s="1" t="str">
+        <f>A242</f>
+        <v>Y</v>
+      </c>
+      <c r="C242" s="1"/>
       <c r="D242" s="5" t="e">
         <v>#NAME?</v>
       </c>
       <c r="E242" s="1"/>
-      <c r="F242" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="F242" s="1"/>
       <c r="G242" s="1"/>
-      <c r="H242" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I242" s="1" t="s">
-        <v>457</v>
-      </c>
+      <c r="H242" s="3"/>
+      <c r="I242" s="1"/>
       <c r="J242" s="1"/>
       <c r="K242" s="1" t="s">
         <v>38</v>
@@ -17137,42 +17191,38 @@
       </c>
       <c r="W242" s="1" t="str">
         <f>CONCATENATE("[i]",F242,"[/i]")</f>
-        <v>[i]Effect[/i]</v>
+        <v>[i][/i]</v>
       </c>
       <c r="X242" s="1" t="str">
         <f>CONCATENATE("RS_",A242)</f>
-        <v>RS_MU_YP_001</v>
-      </c>
-      <c r="Y242" s="4" t="s">
-        <v>456</v>
-      </c>
+        <v>RS_Y</v>
+      </c>
+      <c r="Y242" s="4"/>
       <c r="Z242" s="4"/>
     </row>
     <row r="243" spans="1:26">
       <c r="A243" s="1" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>155</v>
+        <v>468</v>
       </c>
       <c r="D243" s="5" t="e">
         <v>#NAME?</v>
       </c>
       <c r="E243" s="1"/>
       <c r="F243" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G243" s="1" t="s">
-        <v>106</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G243" s="1"/>
       <c r="H243" s="3" t="s">
-        <v>153</v>
+        <v>62</v>
       </c>
       <c r="I243" s="1" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="J243" s="1"/>
       <c r="K243" s="1" t="s">
@@ -17205,34 +17255,43 @@
       </c>
       <c r="W243" s="1" t="str">
         <f>CONCATENATE("[i]",F243,"[/i]")</f>
-        <v>[i]Asset[/i]</v>
+        <v>[i]Effect[/i]</v>
       </c>
       <c r="X243" s="1" t="str">
         <f>CONCATENATE("RS_",A243)</f>
-        <v>RS_YU_003</v>
+        <v>RS_MU_YP_001</v>
       </c>
       <c r="Y243" s="4" t="s">
-        <v>155</v>
+        <v>468</v>
       </c>
       <c r="Z243" s="4"/>
     </row>
     <row r="244" spans="1:26">
       <c r="A244" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B244" s="1" t="str">
-        <f>A244</f>
-        <v>U</v>
-      </c>
-      <c r="C244" s="1"/>
+        <v>470</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="D244" s="5" t="e">
         <v>#NAME?</v>
       </c>
       <c r="E244" s="1"/>
-      <c r="F244" s="1"/>
-      <c r="G244" s="1"/>
-      <c r="H244" s="3"/>
-      <c r="I244" s="1"/>
+      <c r="F244" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G244" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H244" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="I244" s="1" t="s">
+        <v>472</v>
+      </c>
       <c r="J244" s="1"/>
       <c r="K244" s="1" t="s">
         <v>38</v>
@@ -17264,18 +17323,20 @@
       </c>
       <c r="W244" s="1" t="str">
         <f>CONCATENATE("[i]",F244,"[/i]")</f>
-        <v>[i][/i]</v>
+        <v>[i]Asset[/i]</v>
       </c>
       <c r="X244" s="1" t="str">
         <f>CONCATENATE("RS_",A244)</f>
-        <v>RS_U</v>
-      </c>
-      <c r="Y244" s="4"/>
+        <v>RS_YU_003</v>
+      </c>
+      <c r="Y244" s="4" t="s">
+        <v>160</v>
+      </c>
       <c r="Z244" s="4"/>
     </row>
     <row r="245" spans="1:26">
       <c r="A245" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B245" s="1" t="str">
         <f>A245</f>
@@ -17332,7 +17393,7 @@
     </row>
     <row r="246" spans="1:26">
       <c r="A246" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B246" s="1" t="str">
         <f>A246</f>
@@ -17389,7 +17450,7 @@
     </row>
     <row r="247" spans="1:26">
       <c r="A247" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B247" s="1" t="str">
         <f>A247</f>
@@ -17446,33 +17507,22 @@
     </row>
     <row r="248" spans="1:26">
       <c r="A248" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="C248" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D248" s="5" t="s">
-        <v>69</v>
+        <v>81</v>
+      </c>
+      <c r="B248" s="1" t="str">
+        <f>A248</f>
+        <v>U</v>
+      </c>
+      <c r="C248" s="1"/>
+      <c r="D248" s="5" t="e">
+        <v>#NAME?</v>
       </c>
       <c r="E248" s="1"/>
-      <c r="F248" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G248" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H248" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="I248" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="J248" s="1" t="s">
-        <v>464</v>
-      </c>
+      <c r="F248" s="1"/>
+      <c r="G248" s="1"/>
+      <c r="H248" s="3"/>
+      <c r="I248" s="1"/>
+      <c r="J248" s="1"/>
       <c r="K248" s="1" t="s">
         <v>38</v>
       </c>
@@ -17503,35 +17553,44 @@
       </c>
       <c r="W248" s="1" t="str">
         <f>CONCATENATE("[i]",F248,"[/i]")</f>
-        <v>[i]Asset[/i]</v>
+        <v>[i][/i]</v>
       </c>
       <c r="X248" s="1" t="str">
         <f>CONCATENATE("RS_",A248)</f>
-        <v>RS_MC_YP_001</v>
-      </c>
-      <c r="Y248" s="4" t="s">
-        <v>288</v>
-      </c>
+        <v>RS_U</v>
+      </c>
+      <c r="Y248" s="4"/>
       <c r="Z248" s="4"/>
     </row>
     <row r="249" spans="1:26">
       <c r="A249" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B249" s="1" t="str">
-        <f>A249</f>
-        <v>C</v>
-      </c>
-      <c r="C249" s="1"/>
-      <c r="D249" s="5" t="e">
-        <v>#NAME?</v>
+        <v>473</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D249" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="E249" s="1"/>
-      <c r="F249" s="1"/>
-      <c r="G249" s="1"/>
-      <c r="H249" s="3"/>
-      <c r="I249" s="1"/>
-      <c r="J249" s="1"/>
+      <c r="F249" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G249" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H249" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I249" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="J249" s="1" t="s">
+        <v>476</v>
+      </c>
       <c r="K249" s="1" t="s">
         <v>38</v>
       </c>
@@ -17562,18 +17621,20 @@
       </c>
       <c r="W249" s="1" t="str">
         <f>CONCATENATE("[i]",F249,"[/i]")</f>
-        <v>[i][/i]</v>
+        <v>[i]Asset[/i]</v>
       </c>
       <c r="X249" s="1" t="str">
         <f>CONCATENATE("RS_",A249)</f>
-        <v>RS_C</v>
-      </c>
-      <c r="Y249" s="4"/>
+        <v>RS_MC_YP_001</v>
+      </c>
+      <c r="Y249" s="4" t="s">
+        <v>292</v>
+      </c>
       <c r="Z249" s="4"/>
     </row>
     <row r="250" spans="1:26">
       <c r="A250" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B250" s="1" t="str">
         <f>A250</f>
@@ -17630,7 +17691,7 @@
     </row>
     <row r="251" spans="1:26">
       <c r="A251" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B251" s="1" t="str">
         <f>A251</f>
@@ -17687,7 +17748,7 @@
     </row>
     <row r="252" spans="1:26">
       <c r="A252" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B252" s="1" t="str">
         <f>A252</f>
@@ -17744,7 +17805,7 @@
     </row>
     <row r="253" spans="1:26">
       <c r="A253" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B253" s="1" t="str">
         <f>A253</f>
@@ -17801,7 +17862,7 @@
     </row>
     <row r="254" spans="1:26">
       <c r="A254" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B254" s="1" t="str">
         <f>A254</f>
@@ -17858,7 +17919,7 @@
     </row>
     <row r="255" spans="1:26">
       <c r="A255" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B255" s="1" t="str">
         <f>A255</f>
@@ -17915,7 +17976,7 @@
     </row>
     <row r="256" spans="1:26">
       <c r="A256" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B256" s="1" t="str">
         <f>A256</f>
@@ -17972,11 +18033,11 @@
     </row>
     <row r="257" spans="1:26">
       <c r="A257" s="1" t="s">
-        <v>465</v>
+        <v>88</v>
       </c>
       <c r="B257" s="1" t="str">
         <f>A257</f>
-        <v>M_CMDR_GB_001</v>
+        <v>C</v>
       </c>
       <c r="C257" s="1"/>
       <c r="D257" s="5" t="e">
@@ -17984,29 +18045,19 @@
       </c>
       <c r="E257" s="1"/>
       <c r="F257" s="1"/>
-      <c r="G257" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="H257" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="I257" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="J257" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="K257" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L257" s="1" t="e">
-        <v>#VALUE!</v>
+      <c r="G257" s="1"/>
+      <c r="H257" s="3"/>
+      <c r="I257" s="1"/>
+      <c r="J257" s="1"/>
+      <c r="K257" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L257" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="M257" s="1"/>
       <c r="N257" s="1"/>
-      <c r="O257" s="1" t="s">
-        <v>466</v>
-      </c>
+      <c r="O257" s="1"/>
       <c r="P257" s="1"/>
       <c r="Q257" s="1" t="n">
         <v>60</v>
@@ -18032,45 +18083,48 @@
       </c>
       <c r="X257" s="1" t="str">
         <f>CONCATENATE("RS_",A257)</f>
-        <v>RS_M_CMDR_GB_001</v>
+        <v>RS_C</v>
       </c>
       <c r="Y257" s="4"/>
       <c r="Z257" s="4"/>
     </row>
     <row r="258" spans="1:26">
       <c r="A258" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="C258" s="1" t="s">
-        <v>469</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="B258" s="1" t="str">
+        <f>A258</f>
+        <v>M_CMDR_GB_001</v>
+      </c>
+      <c r="C258" s="1"/>
       <c r="D258" s="5" t="e">
         <v>#NAME?</v>
       </c>
       <c r="E258" s="1"/>
-      <c r="F258" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G258" s="1"/>
+      <c r="F258" s="1"/>
+      <c r="G258" s="1" t="s">
+        <v>478</v>
+      </c>
       <c r="H258" s="3" t="s">
-        <v>236</v>
+        <v>478</v>
       </c>
       <c r="I258" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="J258" s="1"/>
-      <c r="K258" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L258" s="1" t="s">
-        <v>38</v>
+        <v>478</v>
+      </c>
+      <c r="J258" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="K258" s="1" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L258" s="1" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="M258" s="1"/>
       <c r="N258" s="1"/>
-      <c r="O258" s="1"/>
+      <c r="O258" s="1" t="s">
+        <v>478</v>
+      </c>
       <c r="P258" s="1"/>
       <c r="Q258" s="1" t="n">
         <v>60</v>
@@ -18092,34 +18146,39 @@
       </c>
       <c r="W258" s="1" t="str">
         <f>CONCATENATE("[i]",F258,"[/i]")</f>
-        <v>[i]R. Effect[/i]</v>
+        <v>[i][/i]</v>
       </c>
       <c r="X258" s="1" t="str">
         <f>CONCATENATE("RS_",A258)</f>
-        <v>RS_MR_GB_001</v>
-      </c>
-      <c r="Y258" s="4" t="s">
-        <v>469</v>
-      </c>
+        <v>RS_M_CMDR_GB_001</v>
+      </c>
+      <c r="Y258" s="4"/>
       <c r="Z258" s="4"/>
     </row>
     <row r="259" spans="1:26">
       <c r="A259" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B259" s="1" t="str">
-        <f>A259</f>
-        <v>Y</v>
-      </c>
-      <c r="C259" s="1"/>
+        <v>479</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>481</v>
+      </c>
       <c r="D259" s="5" t="e">
         <v>#NAME?</v>
       </c>
       <c r="E259" s="1"/>
-      <c r="F259" s="1"/>
+      <c r="F259" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="G259" s="1"/>
-      <c r="H259" s="3"/>
-      <c r="I259" s="1"/>
+      <c r="H259" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="I259" s="1" t="s">
+        <v>482</v>
+      </c>
       <c r="J259" s="1"/>
       <c r="K259" s="1" t="s">
         <v>38</v>
@@ -18151,18 +18210,20 @@
       </c>
       <c r="W259" s="1" t="str">
         <f>CONCATENATE("[i]",F259,"[/i]")</f>
-        <v>[i][/i]</v>
+        <v>[i]R. Effect[/i]</v>
       </c>
       <c r="X259" s="1" t="str">
         <f>CONCATENATE("RS_",A259)</f>
-        <v>RS_Y</v>
-      </c>
-      <c r="Y259" s="4"/>
+        <v>RS_MR_GB_001</v>
+      </c>
+      <c r="Y259" s="4" t="s">
+        <v>481</v>
+      </c>
       <c r="Z259" s="4"/>
     </row>
     <row r="260" spans="1:26">
       <c r="A260" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B260" s="1" t="str">
         <f>A260</f>
@@ -18219,7 +18280,7 @@
     </row>
     <row r="261" spans="1:26">
       <c r="A261" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B261" s="1" t="str">
         <f>A261</f>
@@ -18276,11 +18337,11 @@
     </row>
     <row r="262" spans="1:26">
       <c r="A262" s="1" t="s">
-        <v>82</v>
+        <v>368</v>
       </c>
       <c r="B262" s="1" t="str">
         <f>A262</f>
-        <v>U</v>
+        <v>Y</v>
       </c>
       <c r="C262" s="1"/>
       <c r="D262" s="5" t="e">
@@ -18326,14 +18387,14 @@
       </c>
       <c r="X262" s="1" t="str">
         <f>CONCATENATE("RS_",A262)</f>
-        <v>RS_U</v>
+        <v>RS_Y</v>
       </c>
       <c r="Y262" s="4"/>
       <c r="Z262" s="4"/>
     </row>
     <row r="263" spans="1:26">
       <c r="A263" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B263" s="1" t="str">
         <f>A263</f>
@@ -18347,9 +18408,7 @@
       <c r="F263" s="1"/>
       <c r="G263" s="1"/>
       <c r="H263" s="3"/>
-      <c r="I263" s="1" t="s">
-        <v>217</v>
-      </c>
+      <c r="I263" s="1"/>
       <c r="J263" s="1"/>
       <c r="K263" s="1" t="s">
         <v>38</v>
@@ -18392,7 +18451,7 @@
     </row>
     <row r="264" spans="1:26">
       <c r="A264" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B264" s="1" t="str">
         <f>A264</f>
@@ -18406,7 +18465,9 @@
       <c r="F264" s="1"/>
       <c r="G264" s="1"/>
       <c r="H264" s="3"/>
-      <c r="I264" s="1"/>
+      <c r="I264" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="J264" s="1"/>
       <c r="K264" s="1" t="s">
         <v>38</v>
@@ -18449,7 +18510,7 @@
     </row>
     <row r="265" spans="1:26">
       <c r="A265" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B265" s="1" t="str">
         <f>A265</f>
@@ -18506,7 +18567,7 @@
     </row>
     <row r="266" spans="1:26">
       <c r="A266" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B266" s="1" t="str">
         <f>A266</f>
@@ -18563,7 +18624,7 @@
     </row>
     <row r="267" spans="1:26">
       <c r="A267" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B267" s="1" t="str">
         <f>A267</f>
@@ -18620,38 +18681,27 @@
     </row>
     <row r="268" spans="1:26">
       <c r="A268" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="B268" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="C268" s="1" t="s">
-        <v>415</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B268" s="1" t="str">
+        <f>A268</f>
+        <v>U</v>
+      </c>
+      <c r="C268" s="1"/>
       <c r="D268" s="5" t="e">
         <v>#NAME?</v>
       </c>
-      <c r="E268" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F268" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G268" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="H268" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="I268" s="1" t="s">
-        <v>473</v>
-      </c>
+      <c r="E268" s="1"/>
+      <c r="F268" s="1"/>
+      <c r="G268" s="1"/>
+      <c r="H268" s="3"/>
+      <c r="I268" s="1"/>
       <c r="J268" s="1"/>
-      <c r="K268" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L268" s="1" t="n">
-        <v>5</v>
+      <c r="K268" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L268" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="M268" s="1"/>
       <c r="N268" s="1"/>
@@ -18677,41 +18727,49 @@
       </c>
       <c r="W268" s="1" t="str">
         <f>CONCATENATE("[i]",F268,"[/i]")</f>
-        <v>[i]Asset[/i]</v>
+        <v>[i][/i]</v>
       </c>
       <c r="X268" s="1" t="str">
         <f>CONCATENATE("RS_",A268)</f>
-        <v>RS_BC_001</v>
-      </c>
-      <c r="Y268" s="4" t="str">
-        <f>_xlfn.CONCAT("2",C268)</f>
-        <v>22B</v>
-      </c>
+        <v>RS_U</v>
+      </c>
+      <c r="Y268" s="4"/>
       <c r="Z268" s="4"/>
     </row>
     <row r="269" spans="1:26">
       <c r="A269" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B269" s="1" t="str">
-        <f>A269</f>
-        <v>C</v>
-      </c>
-      <c r="C269" s="1"/>
+        <v>483</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>427</v>
+      </c>
       <c r="D269" s="5" t="e">
         <v>#NAME?</v>
       </c>
-      <c r="E269" s="1"/>
-      <c r="F269" s="1"/>
-      <c r="G269" s="1"/>
-      <c r="H269" s="3"/>
-      <c r="I269" s="1"/>
+      <c r="E269" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F269" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G269" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="H269" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I269" s="1" t="s">
+        <v>485</v>
+      </c>
       <c r="J269" s="1"/>
-      <c r="K269" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L269" s="1" t="s">
-        <v>38</v>
+      <c r="K269" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L269" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="M269" s="1"/>
       <c r="N269" s="1"/>
@@ -18737,18 +18795,21 @@
       </c>
       <c r="W269" s="1" t="str">
         <f>CONCATENATE("[i]",F269,"[/i]")</f>
-        <v>[i][/i]</v>
+        <v>[i]Asset[/i]</v>
       </c>
       <c r="X269" s="1" t="str">
         <f>CONCATENATE("RS_",A269)</f>
-        <v>RS_C</v>
-      </c>
-      <c r="Y269" s="4"/>
+        <v>RS_BC_001</v>
+      </c>
+      <c r="Y269" s="4" t="str">
+        <f>_xlfn.CONCAT("2",C269)</f>
+        <v>22B</v>
+      </c>
       <c r="Z269" s="4"/>
     </row>
     <row r="270" spans="1:26">
       <c r="A270" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B270" s="1" t="str">
         <f>A270</f>
@@ -18805,7 +18866,7 @@
     </row>
     <row r="271" spans="1:26">
       <c r="A271" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B271" s="1" t="str">
         <f>A271</f>
@@ -18862,7 +18923,7 @@
     </row>
     <row r="272" spans="1:26">
       <c r="A272" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B272" s="1" t="str">
         <f>A272</f>
@@ -18919,7 +18980,7 @@
     </row>
     <row r="273" spans="1:26">
       <c r="A273" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B273" s="1" t="str">
         <f>A273</f>
@@ -18976,7 +19037,7 @@
     </row>
     <row r="274" spans="1:26">
       <c r="A274" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B274" s="1" t="str">
         <f>A274</f>
@@ -19033,7 +19094,7 @@
     </row>
     <row r="275" spans="1:26">
       <c r="A275" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B275" s="1" t="str">
         <f>A275</f>
@@ -19090,7 +19151,7 @@
     </row>
     <row r="276" spans="1:26">
       <c r="A276" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B276" s="1" t="str">
         <f>A276</f>
@@ -19147,11 +19208,11 @@
     </row>
     <row r="277" spans="1:26">
       <c r="A277" s="1" t="s">
-        <v>474</v>
+        <v>88</v>
       </c>
       <c r="B277" s="1" t="str">
         <f>A277</f>
-        <v>M_CMDR_GP_001</v>
+        <v>C</v>
       </c>
       <c r="C277" s="1"/>
       <c r="D277" s="5" t="e">
@@ -19159,29 +19220,19 @@
       </c>
       <c r="E277" s="1"/>
       <c r="F277" s="1"/>
-      <c r="G277" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="H277" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="I277" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="J277" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="K277" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L277" s="1" t="e">
-        <v>#VALUE!</v>
+      <c r="G277" s="1"/>
+      <c r="H277" s="3"/>
+      <c r="I277" s="1"/>
+      <c r="J277" s="1"/>
+      <c r="K277" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L277" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="M277" s="1"/>
       <c r="N277" s="1"/>
-      <c r="O277" s="1" t="s">
-        <v>475</v>
-      </c>
+      <c r="O277" s="1"/>
       <c r="P277" s="1"/>
       <c r="Q277" s="1" t="n">
         <v>60</v>
@@ -19207,48 +19258,47 @@
       </c>
       <c r="X277" s="1" t="str">
         <f>CONCATENATE("RS_",A277)</f>
-        <v>RS_M_CMDR_GP_001</v>
+        <v>RS_C</v>
       </c>
       <c r="Y277" s="4"/>
       <c r="Z277" s="4"/>
     </row>
     <row r="278" spans="1:26">
       <c r="A278" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="B278" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="C278" s="1" t="s">
-        <v>478</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="B278" s="1" t="str">
+        <f>A278</f>
+        <v>M_CMDR_GP_001</v>
+      </c>
+      <c r="C278" s="1"/>
       <c r="D278" s="5" t="e">
         <v>#NAME?</v>
       </c>
       <c r="E278" s="1"/>
-      <c r="F278" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="F278" s="1"/>
       <c r="G278" s="1" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="H278" s="3" t="s">
-        <v>236</v>
+        <v>487</v>
       </c>
       <c r="I278" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="J278" s="1"/>
-      <c r="K278" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L278" s="1" t="s">
-        <v>38</v>
+        <v>487</v>
+      </c>
+      <c r="J278" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="K278" s="1" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L278" s="1" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="M278" s="1"/>
       <c r="N278" s="1"/>
       <c r="O278" s="1" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="P278" s="1"/>
       <c r="Q278" s="1" t="n">
@@ -19271,41 +19321,40 @@
       </c>
       <c r="W278" s="1" t="str">
         <f>CONCATENATE("[i]",F278,"[/i]")</f>
-        <v>[i]Asset[/i]</v>
+        <v>[i][/i]</v>
       </c>
       <c r="X278" s="1" t="str">
         <f>CONCATENATE("RS_",A278)</f>
-        <v>RS_MR_GP_001</v>
-      </c>
-      <c r="Y278" s="4" t="str">
-        <f>_xlfn.CONCAT("2",C278)</f>
-        <v>2GP</v>
-      </c>
+        <v>RS_M_CMDR_GP_001</v>
+      </c>
+      <c r="Y278" s="4"/>
       <c r="Z278" s="4"/>
     </row>
     <row r="279" spans="1:26">
       <c r="A279" s="1" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="D279" s="5" t="e">
         <v>#NAME?</v>
       </c>
       <c r="E279" s="1"/>
       <c r="F279" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G279" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="G279" s="1" t="s">
+        <v>491</v>
+      </c>
       <c r="H279" s="3" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="I279" s="1" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="J279" s="1"/>
       <c r="K279" s="1" t="s">
@@ -19316,7 +19365,9 @@
       </c>
       <c r="M279" s="1"/>
       <c r="N279" s="1"/>
-      <c r="O279" s="1"/>
+      <c r="O279" s="1" t="s">
+        <v>493</v>
+      </c>
       <c r="P279" s="1"/>
       <c r="Q279" s="1" t="n">
         <v>60</v>
@@ -19338,47 +19389,48 @@
       </c>
       <c r="W279" s="1" t="str">
         <f>CONCATENATE("[i]",F279,"[/i]")</f>
-        <v>[i]R. Effect[/i]</v>
+        <v>[i]Asset[/i]</v>
       </c>
       <c r="X279" s="1" t="str">
         <f>CONCATENATE("RS_",A279)</f>
-        <v>RS_MR_GP_002</v>
-      </c>
-      <c r="Y279" s="4"/>
+        <v>RS_MR_GP_001</v>
+      </c>
+      <c r="Y279" s="4" t="str">
+        <f>_xlfn.CONCAT("2",C279)</f>
+        <v>2GP</v>
+      </c>
       <c r="Z279" s="4"/>
     </row>
     <row r="280" spans="1:26">
       <c r="A280" s="1" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="D280" s="5" t="e">
         <v>#NAME?</v>
       </c>
-      <c r="E280" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="E280" s="1"/>
       <c r="F280" s="1" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="G280" s="1"/>
       <c r="H280" s="3" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="I280" s="1" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="J280" s="1"/>
-      <c r="K280" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L280" s="1" t="n">
-        <v>1</v>
+      <c r="K280" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L280" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="M280" s="1"/>
       <c r="N280" s="1"/>
@@ -19404,38 +19456,47 @@
       </c>
       <c r="W280" s="1" t="str">
         <f>CONCATENATE("[i]",F280,"[/i]")</f>
-        <v>[i]Asset[/i]</v>
+        <v>[i]R. Effect[/i]</v>
       </c>
       <c r="X280" s="1" t="str">
         <f>CONCATENATE("RS_",A280)</f>
-        <v>RS_MR_GP_003</v>
+        <v>RS_MR_GP_002</v>
       </c>
       <c r="Y280" s="4"/>
       <c r="Z280" s="4"/>
     </row>
     <row r="281" spans="1:26">
       <c r="A281" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B281" s="1" t="str">
-        <f>A281</f>
-        <v>Y</v>
-      </c>
-      <c r="C281" s="1"/>
+        <v>498</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>500</v>
+      </c>
       <c r="D281" s="5" t="e">
         <v>#NAME?</v>
       </c>
-      <c r="E281" s="1"/>
-      <c r="F281" s="1"/>
+      <c r="E281" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F281" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G281" s="1"/>
-      <c r="H281" s="3"/>
-      <c r="I281" s="1"/>
+      <c r="H281" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="I281" s="1" t="s">
+        <v>501</v>
+      </c>
       <c r="J281" s="1"/>
-      <c r="K281" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L281" s="1" t="s">
-        <v>38</v>
+      <c r="K281" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="M281" s="1"/>
       <c r="N281" s="1"/>
@@ -19461,41 +19522,32 @@
       </c>
       <c r="W281" s="1" t="str">
         <f>CONCATENATE("[i]",F281,"[/i]")</f>
-        <v>[i][/i]</v>
+        <v>[i]Asset[/i]</v>
       </c>
       <c r="X281" s="1" t="str">
         <f>CONCATENATE("RS_",A281)</f>
-        <v>RS_Y</v>
+        <v>RS_MR_GP_003</v>
       </c>
       <c r="Y281" s="4"/>
       <c r="Z281" s="4"/>
     </row>
     <row r="282" spans="1:26">
       <c r="A282" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="B282" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="C282" s="1" t="s">
-        <v>492</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="B282" s="1" t="str">
+        <f>A282</f>
+        <v>Y</v>
+      </c>
+      <c r="C282" s="1"/>
       <c r="D282" s="5" t="e">
         <v>#NAME?</v>
       </c>
       <c r="E282" s="1"/>
-      <c r="F282" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G282" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="H282" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I282" s="1" t="s">
-        <v>494</v>
-      </c>
+      <c r="F282" s="1"/>
+      <c r="G282" s="1"/>
+      <c r="H282" s="3"/>
+      <c r="I282" s="1"/>
       <c r="J282" s="1"/>
       <c r="K282" s="1" t="s">
         <v>38</v>
@@ -19527,47 +19579,47 @@
       </c>
       <c r="W282" s="1" t="str">
         <f>CONCATENATE("[i]",F282,"[/i]")</f>
-        <v>[i]Asset[/i]</v>
+        <v>[i][/i]</v>
       </c>
       <c r="X282" s="1" t="str">
         <f>CONCATENATE("RS_",A282)</f>
-        <v>RS_MU_GP_001</v>
+        <v>RS_Y</v>
       </c>
       <c r="Y282" s="4"/>
       <c r="Z282" s="4"/>
     </row>
     <row r="283" spans="1:26">
       <c r="A283" s="1" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="D283" s="5" t="e">
         <v>#NAME?</v>
       </c>
       <c r="E283" s="1"/>
       <c r="F283" s="1" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="H283" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I283" s="1" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="J283" s="1"/>
-      <c r="K283" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L283" s="1" t="n">
-        <v>1</v>
+      <c r="K283" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L283" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="M283" s="1"/>
       <c r="N283" s="1"/>
@@ -19593,44 +19645,48 @@
       </c>
       <c r="W283" s="1" t="str">
         <f>CONCATENATE("[i]",F283,"[/i]")</f>
-        <v>[i]R. Asset[/i]</v>
+        <v>[i]Asset[/i]</v>
       </c>
       <c r="X283" s="1" t="str">
         <f>CONCATENATE("RS_",A283)</f>
-        <v>RS_MU_GP_002</v>
+        <v>RS_MU_GP_001</v>
       </c>
       <c r="Y283" s="4"/>
       <c r="Z283" s="4"/>
     </row>
     <row r="284" spans="1:26">
       <c r="A284" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="B284" s="15" t="s">
-        <v>501</v>
-      </c>
-      <c r="C284" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D284" s="5" t="s">
-        <v>502</v>
+        <v>507</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D284" s="5" t="e">
+        <v>#NAME?</v>
       </c>
       <c r="E284" s="1"/>
       <c r="F284" s="1" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="G284" s="1" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="H284" s="3" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="I284" s="1" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="J284" s="1"/>
-      <c r="K284" s="1"/>
-      <c r="L284" s="1"/>
+      <c r="K284" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="M284" s="1"/>
       <c r="N284" s="1"/>
       <c r="O284" s="1"/>
@@ -19655,39 +19711,40 @@
       </c>
       <c r="W284" s="1" t="str">
         <f>CONCATENATE("[i]",F284,"[/i]")</f>
-        <v>[i]Effect[/i]</v>
+        <v>[i]R. Asset[/i]</v>
       </c>
       <c r="X284" s="1" t="str">
         <f>CONCATENATE("RS_",A284)</f>
-        <v>RS_MU_GP_002b</v>
+        <v>RS_MU_GP_002</v>
       </c>
       <c r="Y284" s="4"/>
       <c r="Z284" s="4"/>
     </row>
     <row r="285" spans="1:26">
-      <c r="A285" s="10" t="s">
-        <v>505</v>
-      </c>
-      <c r="B285" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="C285" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="D285" s="11" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="F285" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G285" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="H285" s="12" t="s">
+      <c r="A285" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B285" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="C285" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D285" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="E285" s="1"/>
+      <c r="F285" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G285" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="H285" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I285" s="1" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="J285" s="1"/>
       <c r="K285" s="1"/>
@@ -19716,41 +19773,43 @@
       </c>
       <c r="W285" s="1" t="str">
         <f>CONCATENATE("[i]",F285,"[/i]")</f>
-        <v>[i]R. Effect[/i]</v>
+        <v>[i]Effect[/i]</v>
       </c>
       <c r="X285" s="1" t="str">
         <f>CONCATENATE("RS_",A285)</f>
-        <v>RS_MU_GP_002c</v>
+        <v>RS_MU_GP_002b</v>
       </c>
       <c r="Y285" s="4"/>
       <c r="Z285" s="4"/>
     </row>
     <row r="286" spans="1:26">
-      <c r="A286" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B286" s="1" t="str">
-        <f>A286</f>
-        <v>U</v>
-      </c>
-      <c r="C286" s="1"/>
-      <c r="D286" s="5" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="E286" s="1"/>
-      <c r="F286" s="1"/>
-      <c r="G286" s="1"/>
-      <c r="H286" s="3"/>
+      <c r="A286" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="B286" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="C286" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="D286" s="11" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="F286" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G286" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="H286" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="I286" s="1" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="J286" s="1"/>
-      <c r="K286" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L286" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="K286" s="1"/>
+      <c r="L286" s="1"/>
       <c r="M286" s="1"/>
       <c r="N286" s="1"/>
       <c r="O286" s="1"/>
@@ -19775,18 +19834,18 @@
       </c>
       <c r="W286" s="1" t="str">
         <f>CONCATENATE("[i]",F286,"[/i]")</f>
-        <v>[i][/i]</v>
+        <v>[i]R. Effect[/i]</v>
       </c>
       <c r="X286" s="1" t="str">
         <f>CONCATENATE("RS_",A286)</f>
-        <v>RS_U</v>
+        <v>RS_MU_GP_002c</v>
       </c>
       <c r="Y286" s="4"/>
       <c r="Z286" s="4"/>
     </row>
     <row r="287" spans="1:26">
       <c r="A287" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B287" s="1" t="str">
         <f>A287</f>
@@ -19800,7 +19859,9 @@
       <c r="F287" s="1"/>
       <c r="G287" s="1"/>
       <c r="H287" s="3"/>
-      <c r="I287" s="1"/>
+      <c r="I287" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="J287" s="1"/>
       <c r="K287" s="1" t="s">
         <v>38</v>
@@ -19843,7 +19904,7 @@
     </row>
     <row r="288" spans="1:26">
       <c r="A288" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B288" s="1" t="str">
         <f>A288</f>
@@ -19900,7 +19961,7 @@
     </row>
     <row r="289" spans="1:26">
       <c r="A289" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B289" s="1" t="str">
         <f>A289</f>
@@ -19957,28 +20018,21 @@
     </row>
     <row r="290" spans="1:26">
       <c r="A290" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="B290" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="C290" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D290" s="5" t="s">
-        <v>69</v>
+        <v>81</v>
+      </c>
+      <c r="B290" s="1" t="str">
+        <f>A290</f>
+        <v>U</v>
+      </c>
+      <c r="C290" s="1"/>
+      <c r="D290" s="5" t="e">
+        <v>#NAME?</v>
       </c>
       <c r="E290" s="1"/>
-      <c r="F290" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="F290" s="1"/>
       <c r="G290" s="1"/>
-      <c r="H290" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="I290" s="1" t="s">
-        <v>512</v>
-      </c>
+      <c r="H290" s="3"/>
+      <c r="I290" s="1"/>
       <c r="J290" s="1"/>
       <c r="K290" s="1" t="s">
         <v>38</v>
@@ -20010,32 +20064,39 @@
       </c>
       <c r="W290" s="1" t="str">
         <f>CONCATENATE("[i]",F290,"[/i]")</f>
-        <v>[i]Effect[/i]</v>
+        <v>[i][/i]</v>
       </c>
       <c r="X290" s="1" t="str">
         <f>CONCATENATE("RS_",A290)</f>
-        <v>RS_MC_GP_001</v>
+        <v>RS_U</v>
       </c>
       <c r="Y290" s="4"/>
       <c r="Z290" s="4"/>
     </row>
     <row r="291" spans="1:26">
       <c r="A291" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B291" s="1" t="str">
-        <f>A291</f>
-        <v>C</v>
-      </c>
-      <c r="C291" s="1"/>
-      <c r="D291" s="5" t="e">
-        <v>#NAME?</v>
+        <v>522</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D291" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="E291" s="1"/>
-      <c r="F291" s="1"/>
+      <c r="F291" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="G291" s="1"/>
-      <c r="H291" s="3"/>
-      <c r="I291" s="1"/>
+      <c r="H291" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I291" s="1" t="s">
+        <v>524</v>
+      </c>
       <c r="J291" s="1"/>
       <c r="K291" s="1" t="s">
         <v>38</v>
@@ -20067,18 +20128,18 @@
       </c>
       <c r="W291" s="1" t="str">
         <f>CONCATENATE("[i]",F291,"[/i]")</f>
-        <v>[i][/i]</v>
+        <v>[i]Effect[/i]</v>
       </c>
       <c r="X291" s="1" t="str">
         <f>CONCATENATE("RS_",A291)</f>
-        <v>RS_C</v>
+        <v>RS_MC_GP_001</v>
       </c>
       <c r="Y291" s="4"/>
       <c r="Z291" s="4"/>
     </row>
     <row r="292" spans="1:26">
       <c r="A292" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B292" s="1" t="str">
         <f>A292</f>
@@ -20135,7 +20196,7 @@
     </row>
     <row r="293" spans="1:26">
       <c r="A293" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B293" s="1" t="str">
         <f>A293</f>
@@ -20192,7 +20253,7 @@
     </row>
     <row r="294" spans="1:26">
       <c r="A294" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B294" s="1" t="str">
         <f>A294</f>
@@ -20249,7 +20310,7 @@
     </row>
     <row r="295" spans="1:26">
       <c r="A295" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B295" s="1" t="str">
         <f>A295</f>
@@ -20306,7 +20367,7 @@
     </row>
     <row r="296" spans="1:26">
       <c r="A296" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B296" s="1" t="str">
         <f>A296</f>
@@ -20363,7 +20424,7 @@
     </row>
     <row r="297" spans="1:26">
       <c r="A297" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B297" s="1" t="str">
         <f>A297</f>
@@ -20420,7 +20481,7 @@
     </row>
     <row r="298" spans="1:26">
       <c r="A298" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B298" s="1" t="str">
         <f>A298</f>
@@ -20477,11 +20538,11 @@
     </row>
     <row r="299" spans="1:26">
       <c r="A299" s="1" t="s">
-        <v>513</v>
+        <v>88</v>
       </c>
       <c r="B299" s="1" t="str">
         <f>A299</f>
-        <v>M_CMDR_BP_001</v>
+        <v>C</v>
       </c>
       <c r="C299" s="1"/>
       <c r="D299" s="5" t="e">
@@ -20489,29 +20550,19 @@
       </c>
       <c r="E299" s="1"/>
       <c r="F299" s="1"/>
-      <c r="G299" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="H299" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="I299" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="J299" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="K299" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L299" s="1" t="e">
-        <v>#VALUE!</v>
+      <c r="G299" s="1"/>
+      <c r="H299" s="3"/>
+      <c r="I299" s="1"/>
+      <c r="J299" s="1"/>
+      <c r="K299" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L299" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="M299" s="1"/>
       <c r="N299" s="1"/>
-      <c r="O299" s="1" t="s">
-        <v>515</v>
-      </c>
+      <c r="O299" s="1"/>
       <c r="P299" s="1"/>
       <c r="Q299" s="1" t="n">
         <v>60</v>
@@ -20537,18 +20588,18 @@
       </c>
       <c r="X299" s="1" t="str">
         <f>CONCATENATE("RS_",A299)</f>
-        <v>RS_M_CMDR_BP_001</v>
+        <v>RS_C</v>
       </c>
       <c r="Y299" s="4"/>
       <c r="Z299" s="4"/>
     </row>
     <row r="300" spans="1:26">
       <c r="A300" s="1" t="s">
-        <v>365</v>
+        <v>525</v>
       </c>
       <c r="B300" s="1" t="str">
         <f>A300</f>
-        <v>Y</v>
+        <v>M_CMDR_BP_001</v>
       </c>
       <c r="C300" s="1"/>
       <c r="D300" s="5" t="e">
@@ -20556,21 +20607,29 @@
       </c>
       <c r="E300" s="1"/>
       <c r="F300" s="1"/>
-      <c r="G300" s="1"/>
-      <c r="H300" s="3"/>
+      <c r="G300" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="H300" s="3" t="s">
+        <v>526</v>
+      </c>
       <c r="I300" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="J300" s="1"/>
-      <c r="K300" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L300" s="1" t="s">
-        <v>38</v>
+        <v>526</v>
+      </c>
+      <c r="J300" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="K300" s="1" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L300" s="1" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="M300" s="1"/>
       <c r="N300" s="1"/>
-      <c r="O300" s="1"/>
+      <c r="O300" s="1" t="s">
+        <v>527</v>
+      </c>
       <c r="P300" s="1"/>
       <c r="Q300" s="1" t="n">
         <v>60</v>
@@ -20596,14 +20655,14 @@
       </c>
       <c r="X300" s="1" t="str">
         <f>CONCATENATE("RS_",A300)</f>
-        <v>RS_Y</v>
+        <v>RS_M_CMDR_BP_001</v>
       </c>
       <c r="Y300" s="4"/>
       <c r="Z300" s="4"/>
     </row>
     <row r="301" spans="1:26">
       <c r="A301" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B301" s="1" t="str">
         <f>A301</f>
@@ -20617,7 +20676,9 @@
       <c r="F301" s="1"/>
       <c r="G301" s="1"/>
       <c r="H301" s="3"/>
-      <c r="I301" s="1"/>
+      <c r="I301" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="J301" s="1"/>
       <c r="K301" s="1" t="s">
         <v>38</v>
@@ -20660,7 +20721,7 @@
     </row>
     <row r="302" spans="1:26">
       <c r="A302" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B302" s="1" t="str">
         <f>A302</f>
@@ -20717,7 +20778,7 @@
     </row>
     <row r="303" spans="1:26">
       <c r="A303" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B303" s="1" t="str">
         <f>A303</f>
@@ -20774,11 +20835,11 @@
     </row>
     <row r="304" spans="1:26">
       <c r="A304" s="1" t="s">
-        <v>82</v>
+        <v>368</v>
       </c>
       <c r="B304" s="1" t="str">
         <f>A304</f>
-        <v>U</v>
+        <v>Y</v>
       </c>
       <c r="C304" s="1"/>
       <c r="D304" s="5" t="e">
@@ -20824,14 +20885,14 @@
       </c>
       <c r="X304" s="1" t="str">
         <f>CONCATENATE("RS_",A304)</f>
-        <v>RS_U</v>
+        <v>RS_Y</v>
       </c>
       <c r="Y304" s="4"/>
       <c r="Z304" s="4"/>
     </row>
     <row r="305" spans="1:26">
       <c r="A305" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B305" s="1" t="str">
         <f>A305</f>
@@ -20888,7 +20949,7 @@
     </row>
     <row r="306" spans="1:26">
       <c r="A306" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B306" s="1" t="str">
         <f>A306</f>
@@ -20945,7 +21006,7 @@
     </row>
     <row r="307" spans="1:26">
       <c r="A307" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B307" s="1" t="str">
         <f>A307</f>
@@ -21002,7 +21063,7 @@
     </row>
     <row r="308" spans="1:26">
       <c r="A308" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B308" s="1" t="str">
         <f>A308</f>
@@ -21059,7 +21120,7 @@
     </row>
     <row r="309" spans="1:26">
       <c r="A309" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B309" s="1" t="str">
         <f>A309</f>
@@ -21116,11 +21177,11 @@
     </row>
     <row r="310" spans="1:26">
       <c r="A310" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B310" s="1" t="str">
         <f>A310</f>
-        <v>C</v>
+        <v>U</v>
       </c>
       <c r="C310" s="1"/>
       <c r="D310" s="5" t="e">
@@ -21166,14 +21227,14 @@
       </c>
       <c r="X310" s="1" t="str">
         <f>CONCATENATE("RS_",A310)</f>
-        <v>RS_C</v>
+        <v>RS_U</v>
       </c>
       <c r="Y310" s="4"/>
       <c r="Z310" s="4"/>
     </row>
     <row r="311" spans="1:26">
       <c r="A311" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B311" s="1" t="str">
         <f>A311</f>
@@ -21230,7 +21291,7 @@
     </row>
     <row r="312" spans="1:26">
       <c r="A312" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B312" s="1" t="str">
         <f>A312</f>
@@ -21287,7 +21348,7 @@
     </row>
     <row r="313" spans="1:26">
       <c r="A313" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B313" s="1" t="str">
         <f>A313</f>
@@ -21344,7 +21405,7 @@
     </row>
     <row r="314" spans="1:26">
       <c r="A314" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B314" s="1" t="str">
         <f>A314</f>
@@ -21401,7 +21462,7 @@
     </row>
     <row r="315" spans="1:26">
       <c r="A315" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B315" s="1" t="str">
         <f>A315</f>
@@ -21458,7 +21519,7 @@
     </row>
     <row r="316" spans="1:26">
       <c r="A316" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B316" s="1" t="str">
         <f>A316</f>
@@ -21515,7 +21576,7 @@
     </row>
     <row r="317" spans="1:26">
       <c r="A317" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B317" s="1" t="str">
         <f>A317</f>
@@ -21572,7 +21633,7 @@
     </row>
     <row r="318" spans="1:26">
       <c r="A318" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B318" s="1" t="str">
         <f>A318</f>
@@ -21629,30 +21690,21 @@
     </row>
     <row r="319" spans="1:26">
       <c r="A319" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="B319" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="C319" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D319" s="5" t="s">
-        <v>69</v>
+        <v>88</v>
+      </c>
+      <c r="B319" s="1" t="str">
+        <f>A319</f>
+        <v>C</v>
+      </c>
+      <c r="C319" s="1"/>
+      <c r="D319" s="5" t="e">
+        <v>#NAME?</v>
       </c>
       <c r="E319" s="1"/>
-      <c r="F319" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G319" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="H319" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I319" s="1" t="s">
-        <v>518</v>
-      </c>
+      <c r="F319" s="1"/>
+      <c r="G319" s="1"/>
+      <c r="H319" s="3"/>
+      <c r="I319" s="1"/>
       <c r="J319" s="1"/>
       <c r="K319" s="1" t="s">
         <v>38</v>
@@ -21684,52 +21736,47 @@
       </c>
       <c r="W319" s="1" t="str">
         <f>CONCATENATE("[i]",F319,"[/i]")</f>
-        <v>[i]Asset[/i]</v>
+        <v>[i][/i]</v>
       </c>
       <c r="X319" s="1" t="str">
         <f>CONCATENATE("RS_",A319)</f>
-        <v>RS_MU_RY_005</v>
-      </c>
-      <c r="Y319" s="4" t="str">
-        <f>_xlfn.CONCAT("2",C319)</f>
-        <v>22RY</v>
-      </c>
+        <v>RS_C</v>
+      </c>
+      <c r="Y319" s="4"/>
       <c r="Z319" s="4"/>
     </row>
     <row r="320" spans="1:26">
       <c r="A320" s="1" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>521</v>
+        <v>136</v>
       </c>
       <c r="D320" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E320" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="E320" s="1"/>
       <c r="F320" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G320" s="1" t="s">
-        <v>522</v>
+        <v>491</v>
       </c>
       <c r="H320" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I320" s="8" t="s">
-        <v>523</v>
+        <v>75</v>
+      </c>
+      <c r="I320" s="1" t="s">
+        <v>530</v>
       </c>
       <c r="J320" s="1"/>
-      <c r="K320" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="L320" s="1" t="n">
-        <v>4</v>
+      <c r="K320" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L320" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="M320" s="1"/>
       <c r="N320" s="1"/>
@@ -21759,45 +21806,48 @@
       </c>
       <c r="X320" s="1" t="str">
         <f>CONCATENATE("RS_",A320)</f>
-        <v>RS_MR_OY_002</v>
-      </c>
-      <c r="Y320" s="4" t="s">
-        <v>39</v>
+        <v>RS_MU_RY_005</v>
+      </c>
+      <c r="Y320" s="4" t="str">
+        <f>_xlfn.CONCAT("2",C320)</f>
+        <v>22RY</v>
       </c>
       <c r="Z320" s="4"/>
     </row>
     <row r="321" spans="1:26">
       <c r="A321" s="1" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="D321" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E321" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="E321" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="F321" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G321" s="1" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="H321" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I321" s="1" t="s">
-        <v>528</v>
+      <c r="I321" s="8" t="s">
+        <v>535</v>
       </c>
       <c r="J321" s="1"/>
-      <c r="K321" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L321" s="1" t="s">
-        <v>38</v>
+      <c r="K321" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L321" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="M321" s="1"/>
       <c r="N321" s="1"/>
@@ -21823,40 +21873,80 @@
       </c>
       <c r="W321" s="1" t="str">
         <f>CONCATENATE("[i]",F321,"[/i]")</f>
-        <v>[i]Effect[/i]</v>
+        <v>[i]Asset[/i]</v>
       </c>
       <c r="X321" s="1" t="str">
         <f>CONCATENATE("RS_",A321)</f>
-        <v>RS_MR_ROYGBP_001</v>
-      </c>
-      <c r="Y321" s="4"/>
+        <v>RS_MR_OY_002</v>
+      </c>
+      <c r="Y321" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="Z321" s="4"/>
     </row>
     <row r="322" spans="1:26">
-      <c r="A322" s="1"/>
-      <c r="B322" s="1"/>
-      <c r="C322" s="1"/>
-      <c r="D322" s="1"/>
+      <c r="A322" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D322" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="E322" s="1"/>
-      <c r="F322" s="1"/>
-      <c r="G322" s="1"/>
-      <c r="H322" s="1"/>
-      <c r="I322" s="1"/>
+      <c r="F322" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G322" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="H322" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I322" s="1" t="s">
+        <v>540</v>
+      </c>
       <c r="J322" s="1"/>
-      <c r="K322" s="1"/>
-      <c r="L322" s="1"/>
+      <c r="K322" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L322" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="M322" s="1"/>
       <c r="N322" s="1"/>
       <c r="O322" s="1"/>
       <c r="P322" s="1"/>
-      <c r="Q322" s="1"/>
-      <c r="R322" s="1"/>
-      <c r="S322" s="1"/>
-      <c r="T322" s="1"/>
-      <c r="U322" s="1"/>
-      <c r="V322" s="1"/>
-      <c r="W322" s="1"/>
-      <c r="X322" s="1"/>
+      <c r="Q322" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="R322" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="S322" s="1" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="T322" s="1" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="U322" s="1" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="V322" s="1" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="W322" s="1" t="str">
+        <f>CONCATENATE("[i]",F322,"[/i]")</f>
+        <v>[i]Effect[/i]</v>
+      </c>
+      <c r="X322" s="1" t="str">
+        <f>CONCATENATE("RS_",A322)</f>
+        <v>RS_MR_ROYGBP_001</v>
+      </c>
       <c r="Y322" s="4"/>
       <c r="Z322" s="4"/>
     </row>
@@ -22813,22 +22903,22 @@
       <c r="Z356" s="4"/>
     </row>
     <row r="357" spans="1:26">
-      <c r="A357" s="4"/>
-      <c r="B357" s="4"/>
-      <c r="C357" s="4"/>
-      <c r="D357" s="4"/>
-      <c r="E357" s="4"/>
-      <c r="F357" s="4"/>
-      <c r="G357" s="4"/>
-      <c r="H357" s="4"/>
-      <c r="I357" s="4"/>
-      <c r="J357" s="4"/>
-      <c r="K357" s="4"/>
-      <c r="L357" s="4"/>
-      <c r="M357" s="4"/>
-      <c r="N357" s="4"/>
-      <c r="O357" s="4"/>
-      <c r="P357" s="4"/>
+      <c r="A357" s="1"/>
+      <c r="B357" s="1"/>
+      <c r="C357" s="1"/>
+      <c r="D357" s="1"/>
+      <c r="E357" s="1"/>
+      <c r="F357" s="1"/>
+      <c r="G357" s="1"/>
+      <c r="H357" s="1"/>
+      <c r="I357" s="1"/>
+      <c r="J357" s="1"/>
+      <c r="K357" s="1"/>
+      <c r="L357" s="1"/>
+      <c r="M357" s="1"/>
+      <c r="N357" s="1"/>
+      <c r="O357" s="1"/>
+      <c r="P357" s="1"/>
       <c r="Q357" s="1"/>
       <c r="R357" s="1"/>
       <c r="S357" s="1"/>
@@ -26609,14 +26699,14 @@
       <c r="N492" s="4"/>
       <c r="O492" s="4"/>
       <c r="P492" s="4"/>
-      <c r="Q492" s="4"/>
-      <c r="R492" s="4"/>
-      <c r="S492" s="4"/>
-      <c r="T492" s="4"/>
-      <c r="U492" s="4"/>
-      <c r="V492" s="4"/>
-      <c r="W492" s="4"/>
-      <c r="X492" s="4"/>
+      <c r="Q492" s="1"/>
+      <c r="R492" s="1"/>
+      <c r="S492" s="1"/>
+      <c r="T492" s="1"/>
+      <c r="U492" s="1"/>
+      <c r="V492" s="1"/>
+      <c r="W492" s="1"/>
+      <c r="X492" s="1"/>
       <c r="Y492" s="4"/>
       <c r="Z492" s="4"/>
     </row>
@@ -40872,19 +40962,47 @@
       <c r="Y1001" s="4"/>
       <c r="Z1001" s="4"/>
     </row>
+    <row r="1002" spans="1:26">
+      <c r="A1002" s="4"/>
+      <c r="B1002" s="4"/>
+      <c r="C1002" s="4"/>
+      <c r="D1002" s="4"/>
+      <c r="E1002" s="4"/>
+      <c r="F1002" s="4"/>
+      <c r="G1002" s="4"/>
+      <c r="H1002" s="4"/>
+      <c r="I1002" s="4"/>
+      <c r="J1002" s="4"/>
+      <c r="K1002" s="4"/>
+      <c r="L1002" s="4"/>
+      <c r="M1002" s="4"/>
+      <c r="N1002" s="4"/>
+      <c r="O1002" s="4"/>
+      <c r="P1002" s="4"/>
+      <c r="Q1002" s="4"/>
+      <c r="R1002" s="4"/>
+      <c r="S1002" s="4"/>
+      <c r="T1002" s="4"/>
+      <c r="U1002" s="4"/>
+      <c r="V1002" s="4"/>
+      <c r="W1002" s="4"/>
+      <c r="X1002" s="4"/>
+      <c r="Y1002" s="4"/>
+      <c r="Z1002" s="4"/>
+    </row>
   </sheetData>
-  <dataValidations count="6">
-    <dataValidation sqref="A1:B284 A286:B356" type="custom" operator="between" errorStyle="stop" allowBlank="1" showDropDown="1" view="0">
+  <dataValidations count="9">
+    <dataValidation sqref="A1:A15 B1:B285 A17:A285 A287:B357" type="custom" operator="between" errorStyle="stop" allowBlank="1" showDropDown="1" view="0">
       <formula1>COUNTIF(A:A,#REF!)=1</formula1>
       <formula2/>
     </dataValidation>
-    <dataValidation sqref="D2:D321" type="list" operator="between" errorStyle="stop" allowBlank="1" view="0">
+    <dataValidation sqref="D2:D140 D142:D322" type="list" operator="between" errorStyle="stop" allowBlank="1" view="0">
       <formula1>"Red,Orange,Yellow,Green,Blue,Purple,Generic,Multicolor"</formula1>
     </dataValidation>
-    <dataValidation sqref="E2:E94 E96:E321" type="list" operator="between" errorStyle="stop" allowBlank="1" view="0">
+    <dataValidation sqref="E2:E94 E96:E322" type="list" operator="between" errorStyle="stop" allowBlank="1" view="0">
       <formula1>"Melee,Ranged"</formula1>
     </dataValidation>
-    <dataValidation sqref="F2:F321" type="list" operator="between" errorStyle="stop" allowBlank="1" view="0">
+    <dataValidation sqref="F2:F139 F142:F322" type="list" operator="between" errorStyle="stop" allowBlank="1" view="0">
       <mc:AlternateContent xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
         <mc:Choice Requires="x12ac">
           <x12ac:list>Commander,Asset,"R. Asset",Effect,"R. Effect",Generator,"R. Generator","Gen. Asset","R.Gen. Asset"</x12ac:list>
@@ -40894,12 +41012,29 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </dataValidation>
-    <dataValidation sqref="A285:B285" type="custom" operator="between" errorStyle="stop" allowBlank="1" showDropDown="1" view="0">
-      <formula1>COUNTIF(A:A,A285)=1</formula1>
+    <dataValidation sqref="A16" type="custom" operator="between" errorStyle="stop" allowBlank="1" showDropDown="1" view="0">
+      <formula1>COUNTIF(A:A,#REF!)=1</formula1>
       <formula2/>
     </dataValidation>
-    <dataValidation sqref="H285" type="custom" operator="between" errorStyle="stop" allowBlank="1" showDropDown="1" view="0">
-      <formula1>NOT(ISBLANK(H285))</formula1>
+    <dataValidation sqref="G140" type="list" operator="between" errorStyle="stop" allowBlank="1" view="0">
+      <mc:AlternateContent xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice Requires="x12ac">
+          <x12ac:list>Commander,Asset,"R. Asset",Effect,"R. Effect",Generator,"R. Generator","Gen. Asset","R.Gen. Asset"</x12ac:list>
+        </mc:Choice>
+        <mc:Fallback>
+          <formula1>"Commander,Asset,R. Asset,Effect,R. Effect,Generator,R. Generator,Gen. Asset,R.Gen. Asset"</formula1>
+        </mc:Fallback>
+      </mc:AlternateContent>
+    </dataValidation>
+    <dataValidation sqref="D141" type="list" operator="between" errorStyle="stop" allowBlank="1" view="0">
+      <formula1>"Red,Orange,Yellow,Green,Blue,Purple,Generic,Multicolor"</formula1>
+    </dataValidation>
+    <dataValidation sqref="A286:B286" type="custom" operator="between" errorStyle="stop" allowBlank="1" showDropDown="1" view="0">
+      <formula1>COUNTIF(A:A,A286)=1</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation sqref="H286" type="custom" operator="between" errorStyle="stop" allowBlank="1" showDropDown="1" view="0">
+      <formula1>NOT(ISBLANK(H286))</formula1>
       <formula2/>
     </dataValidation>
   </dataValidations>
@@ -40910,7 +41045,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1715491302" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1715571908" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -40919,15 +41054,15 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1715491302" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1715491302" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1715571908" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1715571908" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <legacyDrawing r:id="rId4"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1715491302" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1715571908" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -41953,7 +42088,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1715491302" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1715571908" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -41962,14 +42097,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1715491302" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1715491302" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1715571908" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1715571908" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1715491302" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1715571908" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
